--- a/jokes/Jokes.xlsx
+++ b/jokes/Jokes.xlsx
@@ -3,12 +3,12 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ataberk/Desktop/projects/fikracom automation/fikracomautomation/jokes/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D3A342D-ACC4-864C-9456-ED382F174CDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42F7F441-00F3-8846-A908-883D7EE21947}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="500" windowWidth="28300" windowHeight="15800" xr2:uid="{E7F09832-D0D4-D148-8953-F44C3CB5605E}"/>
   </bookViews>
@@ -17,7 +17,7 @@
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1245" uniqueCount="699">
   <si>
     <t>Category</t>
   </si>
@@ -42,12 +42,3584 @@
   </si>
   <si>
     <t>Joke</t>
+  </si>
+  <si>
+    <t>Askerlik Fıkraları</t>
+  </si>
+  <si>
+    <t>Asker Kopyası</t>
+  </si>
+  <si>
+    <t>Bir gün askerlerin biri diğerine;
+- Eğer binbaşı gelip sana yaşını sorarsa 23 yaşındayım de, kaç yıldır çalışıyorsun derse 3 de savaşırken bombayı mı tabancayı mı tercih edersin derse iki beraber de.
+Binbaşı gelmiş sormuş kaç yıldır çalışıyorsun;
+Asker cevaplamaya başlar, cevapları karıştırır.
+- 23
+- Kaç yaşındasın
+- 3
+Binbaşı öfkelenir;
+- Sen deli misin aptal mı?
+- İkisi beraber:)</t>
+  </si>
+  <si>
+    <t>Bir gün askerlerin biri diğerine;
+- Eğer binbaşı gelip sana yaşını sorarsa 23 yaşındayım de, kaç yıldır çalışıyorsun derse 3 de savaşırken bombayı mı tabancayı mı tercih ederin derse iki beraber de.
+Binbaşı gelmiş sormuş kaç yıldır çalışıyorsun;
+Asker cevaplamaya başlar, cevapları karıştırır.
+-23
+- Kaç yaşındasın
+- 3
+Binbaşı öfkelenir;
+- Sen deli misin aptal mı?
+- İkisi beraber:)</t>
+  </si>
+  <si>
+    <t>Komando Birliği</t>
+  </si>
+  <si>
+    <t>Çoğunluğunu Lazların oluşturduğu komando bölüğü iki haftadır ormanda, çamur içinde, aç susuz perişan halde, doğal yaşama uyum eğitimindedirler. On beşinci gün komutan Temel çavuşu çağırır:
+- Çavuş iki haftadır bölük gayet iyi bir performans gösterdi! Biz de onları ödüllendirelim, bugün çamaşırlarını değiştirebilirler artık.
+- Başüstüne komitanım!
+Temel Çavuş, heyecanla koşarak bölüğü toplar:
+- Uşaklar sizlere çok sevinecegunuz bir haber cetirdum !... Komitan izin verdi bugün erat çamasir değistirecek, siraya geçin bakiyum, şimdu de degistirun.
+Dursun sen İdris'le.
+Kadir sen Osman'la
+İsmail sen Cemal'le...</t>
+  </si>
+  <si>
+    <t>Geçmeyen Hıçkırık</t>
+  </si>
+  <si>
+    <t>Savaşın en dehşetli anlarıydı. Cephede bombalar patlıyor, mermiler vızır vızır uçuşuyordu. Bu arada bir askeri hıçkırık tuttu. Hıçkırık tutan asker yanındaki askere döndü;
+- Heey, beni korkutsana biraz!...Korkut da hıçkırığım geçsin...</t>
+  </si>
+  <si>
+    <t>Sol Taraf</t>
+  </si>
+  <si>
+    <t>Askerler komutan gelecek diye hizaya geçiyordu. Başçavuş:
+- Sağa bak! deyince herkes sağa baktı. Ama askerlerden biri sola bakıyordu. Bu durumu gören başçavuş sorar:
+- Oğlum, herkes sağa bakıyor, sen niye sola bakıyorsun?
+- Komutanım, sol taraftan da düşman gelebilir, orayı da ben
+gözetleyeyim diye bakıyorum.</t>
+  </si>
+  <si>
+    <t>Asker Mektubu</t>
+  </si>
+  <si>
+    <t>Köylünün biri evlenmiş, hemen askere gitmiş. Giderken karısı
+gebeymiş. Köylülerin âdeti karısına mektup yazması ayıpmış. Sonunda
+durumu öğrenmek için babasına bir mektup yazıyor ve mektupta diyor ki:
+"Yürü mektubum yürü,
+Düşü hayra yor da gel.
+Bir iken iki olduk,
+Üç olduk mu sor da gel.”
+Babası oğlundan gelen mektubu alıyor ve meseleyi çakıyor. Babası da oğluna şöyle bir cevap yazıyor:
+"Mektubun iyi mektup,
+Böyle mektup gene yaz,
+Tarlan ürün vermedi,
+Gel de yine gaz.”</t>
+  </si>
+  <si>
+    <t>Kurnaz Asker</t>
+  </si>
+  <si>
+    <t>Ordunun 57. alayında görevli olan bir albay girdiği hiçbir iddiayı kaybetmemesiyle ün yapar. Siyaha beyaz der gene kazanırdı.
+Gün gelir bu albayı 57. alaydan 51. alaya transfer ederler. Geldiğini komutana bildirmek için komutanın ofisine girer ve bekler. Komutan geldikten, gerekli selamlaşma ve formaliteler yerine getirildikten sonra albay der ki:
+a- Komutanım ben sizi bir yerden tanıyorum!
+k- İmkansız! ben seni hayatımda ilk defa görüyorum, ismini dahi duymadım daha önce.
+a- Ben sizi Vietnam savaşından tanıyorum komutanım, aynı siperde yan yana savaşmıştık!
+k- Albayım saçmalamayın ben Vietnam'da savaşmadım ki! Komuta merkezindeydim ve bölüğü idare ediyordum
+a- Komutanım çok net hatırlıyorum! Hatta sizin kıçınıza bir mermi isabet etmişti ve çok kötü yara olmuştu!
+k- Olum adamı delirtme, sen başkasıyla karıştırıyorsun beni!
+a- Komutanım sizle 20 dolarına bahse girerim kıçınızda bir mermi yarası var!
+Komutan bunun üstüne 20 dolar kazanma karşılığında bunu kanıtlamaya karar verir ve açıp kıçını yara izi olmadığını gösterir.
+a- Özür dilerim komutanım sizi başkasıyla karıştırmışım!!
+k- Neyse olur böyle şeyler! der ve 20 dolarını memnun bir ifadeyle alır!
+Albay gittikten 10 dakika sonra telefon çalar ve komutan telefonu açar, karşıdaki ses 57. alay komutanının sesidir.
+- Albay geldi değil mi?
+- Geldi!
+- Kimseyle iddiaya girmedi değil mi?
+- Aslına bakarsanız girdi ve hatta kaybetti!
+- Komutanım lütfen bana albayın sizin kıçınızı gördüğünü söylemeyin!
+- Nerden anladınız bunu?
+- O kurnaz 57. alaydaki herkesle kişi başı ellişer dolarına 51. alayın komutanının kıçını görebilirim diye iddiaya girdi de</t>
+  </si>
+  <si>
+    <t>Zorunlu Askerlik</t>
+  </si>
+  <si>
+    <t>Zorunlu askerliğini yapmakta olan genç babaannesine koli içerisinde bir el bombası yollar, pimine yapıştırdığı kağıtta;
+- Babaanneciğim, benim acilen izine gelmemi istiyorsan lütfen bu halkayı yerinden çekip çıkar!...</t>
+  </si>
+  <si>
+    <t>Akıllı Asker</t>
+  </si>
+  <si>
+    <t>Cephedeki Askere karısından gelen mektupta şunlar
+yazılıydı: "Erkeklerin hepsi askere alındı, yardım edecek tek kişi kalmadı. Bu yıl bahçeyi benim bellemem gerekiyor."
+Asker hemen cevap yazdı: "Sakın bahçeyi kazma. Silahların hepsi orada gömülü."
+Mektup askeri makamlarca okundu. Bir er gelip bahçenin her yerini kazarak silah aradı. Eli boş döndüler... Cephedeki Asker, ikinci mektubunda şöyle dedi: "Bahçenin iyice bellenmiş olduğunu sanıyorum. Artık sebzeleri ekebilirsin."</t>
+  </si>
+  <si>
+    <t>İyi Geceler Çavuşum</t>
+  </si>
+  <si>
+    <t>Yat saatinden sonra çavuş ışıkları sönmüş barakaların arasında
+dolanırken koğuşlardan birinde içerden bazı sesler duymuş.
+Kapıyı çarpıp içeriye girmiş sert bir şekilde:
+- Beni dinleyin! Birkaç dakika önce sizlere iyi geceler dediğimi duydunuz. Öğrenin artık. Ne zaman "İyi geceler" desem bunun gerçek anlamı "Kapa çeneni ve zıbar artık or..pu çocuğu demektir!"
+Birkaç saniye sonra koğuşun arkalarından ince bir ses duyulmuş,
+- Size de iyi geceler çavuşum</t>
+  </si>
+  <si>
+    <t>İyi Geceler Asker</t>
+  </si>
+  <si>
+    <t>"Yat" saatinden sonra çavuş ışıkları sönmüş barakaların arasında dolaşırken koğuşlardan birisinin içerisinden bazı sesler duymuş.. Kapıyı çarpıp içeriye girmiş:
+-"Beni dinleyin!" demiş sertçe,
+"Birkaç dakika önce sizlere iyi geceler dediğimi duydunuz.. Öğrenin artık.. Ne zaman 'İyi geceler' desem bunun gerçek anlamı 'Kapa çeneni ve zıbar artık demektir!"
+Birkaç saniye sonra koğuşun arkalarından ince bir ses duyulmuş,
+-"Sana da iyi geceler çavuş..!"</t>
+  </si>
+  <si>
+    <t>Komutan</t>
+  </si>
+  <si>
+    <t>Yüzbaşı evin papağanına belli başlı kelimeleri öğretmişti. Mehmet gel Mehmet git, şunu yap, bunu yapma vs.
+Evde kimsenin bulunmadığı bir zamanda, evin yeni emir eri ortalığı silip süpürüyordu. İçeriden Mehmet diyen sesi duyunca fırladı odaya
+-Buyur dedi ama arkası gelmedi
+Tekrar işine daldı. Bir zaman sonra tekrar çağrıldı. Şaşırmıştı odada bu emri beklemeye karar verdi. Papağana gözü takıldığı anda da Mehmet diye çağırmasın mı derhal hazır ol vaziyetine geçerek
+-Buyur komutanım ben seni guş sandımdı.</t>
+  </si>
+  <si>
+    <t>Hıyar Tarlası</t>
+  </si>
+  <si>
+    <t>Askerlerle birlikte, Temel bos bir arazide mayın olup olmadığını kontrol ediyorlardı. Havadan düşman uçakları geçmeye başlayınca, komutan emir verdi:
+- Hemen herkes donunu indirsin ve yüzüstü yere yatsın. Böylece uçaklar burayı kabak tarlası sanıp devam eder giderler!
+Bunun üzerine Temel:
+- Komitanim, sirtüstü yatsak da, hiyar tarlasi sansalar olmazmi?</t>
+  </si>
+  <si>
+    <t>Rütbeler</t>
+  </si>
+  <si>
+    <t>Çavuşluk sınavında bütün sorulara iyi kötü cevap veren Ferdi'ye, Albay da bir soru sormak ister:
+- Oğlum, rütbeleri asttan üste doğru bir saysana?
+Cevap hemen gelir:
+- Onbaşı, yüzbaşı, binbaşı, yarbaşı, albaşı...</t>
+  </si>
+  <si>
+    <t>Temel'in Çocukları</t>
+  </si>
+  <si>
+    <t>Savaşların eksik olmadığı eski yıllarda bir dönem tüm erkek çocukları savaşa alınırmış.
+Temel'in bir çocuğu askere alınmış, Temel ikinci çocuğu yapmış. Ordu ikincisini de almış, Temel üçüncüsünü yapmış o da alınmış. Böyle gide gide onuncu çocuk da askere alınmış, Temel on birinciyi yapmış. Askerler on birinci çocuğu da askere almaya geldiklerinde Temel demiş ki;
+- Söyleyin o padişahınıza, benim şeyime güvenip sağa sola savaş açmasın!</t>
+  </si>
+  <si>
+    <t>Askerdeki Yeni Komutan</t>
+  </si>
+  <si>
+    <t>Temel askere gitmiş askeriyeye de yeni bir komutan gelmiş ve demiş ki;
+- Herkese merhaba benim adım Ali Kırç arada "r" var unutmayın bundan sonra herkes benim adımı bilecek, demiş.
+Bundan sonra askerdeki herkese adını sormuş sonunda sıra Temel'e gelmiş, demiş ki;
+-Benim adım ne?
+Temel düşünmüş düşünmüş soyadını hatırlayamamış ve gidip arkadaşına sormuş arkadaşı demiş ki;
+- Arada "r" var unutma!
+Sonra Temel komutanın yanına gitmiş asker selamını verip demiş ki;
+- KOMUTANIM SİZİN ADININZ ALİ GÖRT.</t>
+  </si>
+  <si>
+    <t>Tatbikat</t>
+  </si>
+  <si>
+    <t>Temel ile Dursun bir gün askeri tatbikata katılmışlar.
+Diğer paraşütçüler gibi onlarında uçaktan atlama sıraları gelmiş ve kendilerini boşluğa salıvermişler.
+Temel in paraşütü açılmış ancak Dursun un ki açılmamış.
+Dursun Temel'e :
+- Ula Temel bu meret açılmayi da!.. Temel:
+- Ula Tursun yardimci paraşüti aç uşağum!..
+Dursun yardimci paraşütü açmaya çalışmış fakat o da açılmamış ve Dursun Temel'e:
+- Ula Temel bu merette açilmayi. Temel:
+- Boş ver uşağum nasul olsa tatbikattayız!</t>
+  </si>
+  <si>
+    <t>Alıştırarak Söyle</t>
+  </si>
+  <si>
+    <t>Temel'in askerlik yaptığı bölükte bir gün Temel'in arkadaşının babası vefat eder.
+Komutanları düşünür, bunu alıştıra alıştıra kim söyler...
+Birden Temel akıllarına gelir. Temel'i çağırırlar. Anlatırlar durumu.
+Temel hemen arkadaşı Cemal'i yanına çağırır, başlar anlatmaya;
+- Ula Cemal Senin Amcan Varmudur?
+- Vardur.
+- Dayin Varmudur?
+- Vardur.
+- Teyzen Varmudur?
+- Vardur.
+- Annen Varmudur?
+- Vardur.
+- Baban Varmudur?
+- Vardur.
+- Nah Vardur!</t>
+  </si>
+  <si>
+    <t>Kayseri'Nin Mahallesi</t>
+  </si>
+  <si>
+    <t>Bölük komutanı Ali okulunu denetliyordu. Hasan'a sordu:
+- Oğlum, dünya kaç parçadır?
+- Beş parçadır komutanım.
+- Say bakalım.
+- Avrupa, Asya, Amasya, Tosya, Okyanusya.
+- Sen nerelisin?
+- Kayseriliyim, komutanım.
+- Su haritada Kayseri'yi göster bakalım.
+Hasan Kastamonu'yu işaret edince:
+- Oğlum, orası Kastamonu.
+- Kayseri'nin bir mahallesi sayılır, komutanım, der.</t>
+  </si>
+  <si>
+    <t>Hangi Er</t>
+  </si>
+  <si>
+    <t>İki çavuş iddiaya girer, hangimizin eri daha salak diye. İlk çavuş erini çağırır ve der ki;
+- Oğlum al şu 10 lirayı, git bana bir araba al. Er:
+- Baş üstüne çavuşum der gider. İkinci çavuş çağırır erini:
+- Oğlum git bak bakayım ben evde miyim? der. Er:
+- Baş üstüne çavuşum der çıkar. Bu iki salak er çarşıda karşılaşırlar, erlerden biri:
+- Yahu bende bir çavuş var o kadar salak ki bana para verdi git bana araba al diye lan keriz bugün pazar arabayı nereden bulayım. Diğer er:
+- Yahu benim ki daha salak yok gidip kendisi evdemiymiş değilmiymiş diye bakacakmışım be ey avanak yanında koskaca askeriyenin telefonu var evi arayıp sorsana...</t>
+  </si>
+  <si>
+    <t>Emredersiniz Komutanım</t>
+  </si>
+  <si>
+    <t>Komutan ve iki asker, bölük kademesinden bölüğe gidiyorlardı.
+Askerlerden biri:
+- Hapşuuu!
+Komutan:
+- Çok yaşa.
+Hapşıran Asker:
+- Emredersiniz komutanım!</t>
+  </si>
+  <si>
+    <t>Nerelisin?</t>
+  </si>
+  <si>
+    <t>Erler sabah yoklamasında, çavuş içlerinden birine soruyor;
+- Söyle bakalım nerdensin ?
+- Maraş'lıyım komutanım..
+Çavuş sinirleniyor ve askere okkalı bir tokat atıyor. Ardından tekrar soruyor
+- bir daha söyle bakalım nerdensin ?
+- Maraş'lıyım komutanım..
+Çavuş bu sefer iyice hiddetleniyor ve askere okkalı bir tokat daha atıyor. Ardından tekrar soruyor
+- ulan sona son defa soruyorum nerelisin ?
+- Kahramanmaraş'lıyım komutanım..
+- Hah şimdi oldu diyor çavuş ve yanındakine soruyor,
+- Oğlum sen nerelisin ?
+- Kahramansinop'luyum komutanım !</t>
+  </si>
+  <si>
+    <t>İslam'In Şartı</t>
+  </si>
+  <si>
+    <t>Temel komutana sormuş "İslam'ın şartı kaç" demiş. Temel "kırk" demiş. Komutan öfkelenmiş, Temel'in ağzını burnunu hırpalamış. Temel camiye gitmiş hocayla karşılaşmış hoca "noldu temel sana böyle" demiş. Temel komutan "İslam'ın şartı kaç" dedi "sen ne dedin" "ben kırk dedim" olur mu Temel "İslam'ın şartı beştir git komutandan özür dile, İslam'ın şartı beş de" Temel demiş komutan kırkı kabul etmiyo beşi nasıl etsin</t>
+  </si>
+  <si>
+    <t>Uykumu Korkutuyorum</t>
+  </si>
+  <si>
+    <t>Nöbet sırasında uyuyan askere arkadaşı:
+- Neden yatıyorsun? demiş.
+- Yatmıyorum ki, uzun oturuyorum.
+- Ama gözlerin kapalı.
+- Eskimesin diye.
+- Üstelik horluyorsun.
+- Horlamıyorum, uykumu korkutuyorum.</t>
+  </si>
+  <si>
+    <t>Amiral Kapıcı</t>
+  </si>
+  <si>
+    <t>Adam zilzurna sarhoş bir şekilde Otel kapısına gelir, kapıda gördüğü apoletli, sırmalı üniformalı adama seslenir:
+- Heeey!, bana bir taksi çağır! Adam hiddetli bir şekilde:
+- Ben kapıcı değilim, amiralim!..
+- Öyleyse bana bir gemi çağır!</t>
+  </si>
+  <si>
+    <t>Akşam Yemeği</t>
+  </si>
+  <si>
+    <t>Bir gün akşam yemeği esnasında askerlerden bir tanesi koşarak komutanının odasına gelir ve kapıyı çalar. İçeri girince komutan sorar ne oldu asker diye. Asker;
+- Komutanım, bugün yediğimiz böreğin içerisinden toprak çıktı, demiş. Komutan;
+- Oğlum, sen hiç tavşan böreği yedin mi? Demiş.
+- Yedim komutanım, demiş asker.
+- Peki içinden hiç tavşan çıktı mı? Diye sormuş sinirlenerek. Asker de;
+- İyi de komutanım biz de buraya vatan toprağı yemeye gelmedik, demiş.</t>
+  </si>
+  <si>
+    <t>Bisküvi</t>
+  </si>
+  <si>
+    <t>Acemi er, levazım başçavuşuna yakınır:
+- Başçavuşum, bize bugün yemekte ördek böreği verdiler. Yemin ederim ki, içinde bir gram bile ördek eti yoktu.
+O halde? diye yanıtlar başçavuş. Seeen hiç asker bisküvisi yedin mi?
+- Şey... yani evet, başçavuşum.
+- İçinden hiç asker çıktı mı, ulan!</t>
+  </si>
+  <si>
+    <t>Erlerin Sadakati</t>
+  </si>
+  <si>
+    <t>Bir general, komşu ülkeden gelen konuk generale hem hava atmak, hem de erlerinin kendisine ve vatanına bağlılıklarını göstermek için, üç erini ve karılarını yanına çağırır. Erlere birer kurusıkı tabanca verir. Onları yan odaya alır ve karılarını öldürmelerini ister. Konuk generale "Şimdi bakınız erlerimiz nasıl itaatkar ve vatansever", der. Erler teker teker içeri girerler. Birinci er karısından özür dileyip tüm şarjörü boşaltır. Tabii karısı ölmez, kurşunlar kurusıkıdır. İkincide de aynı şey olur. Generalin gözleri yaşarmıştır. En son giren erin ardından, iki general kurşun seslerini dinlerken, "dan dan dan dan dan dan... şangırrrr", diye bir ses duyarlar. İşini bitirip çıkan ere merakla sorarlar, "neydi o şangırrr sesi?" diye. Er yanıtlar:
+- Komutanım bana kurusıkı kurşun vermişsiniz, karım ölmeyince bende tuttum camdan aşağı attım.</t>
+  </si>
+  <si>
+    <t>Kereste Uzmanı</t>
+  </si>
+  <si>
+    <t>Askerin biri bir bakışta herkesin boyunun ölçüsünü tam olarak doğru söylüyormuş ve arkadaşları buna çok şaşırıyorlarmış. Bir gün bunu komutana da götürmüşler ve olan biteni anlatmışlar. Komutan inanmamış...
+- Söyle bakalım benim boyumun ölçüsü kaç?, demiş. Asker aşağıdan yukarıya komutanı süzmüş ve
+- 1.75 efendim, demiş. Komutan:
+- Doğru... Hayret, nasıl bildin? demiş. Asker
+- Bilirim tabi efendim, ben kereste uzmanıyım...</t>
+  </si>
+  <si>
+    <t>Gariban Mehmet</t>
+  </si>
+  <si>
+    <t>Teskere zamanı yaklaşmıştır. Aynı tertip askerlerden bazıları oturup bir karar alırlar. Bir daha saf asker Mehmet'e ayak işleri yaptırmayacaklardır. Kararı Mehmet'e açıklarlar. Bu habere çok sevinen Mehmet yine de doğrulatmak için tek tek sorar:
+- Sen Ali, ayakkabılarını bana boyattırmayacaksın değil mi?
+- Evet.
+- Sen Osman, benim sigaralarımdan otlanmayacaksın değil mi?
+- Otlanmayacağım.
+- Sen Hasan, çoraplarını bana yıkattırmayacaksın değil mi?
+- "Yıkattırmayacağım." Herkesten gerekli yanıtı alan Mehmet:
+- İyi, ben de bundan sonra karavanaların içine işemeyeceğim...</t>
+  </si>
+  <si>
+    <t>Bayrak</t>
+  </si>
+  <si>
+    <t>Acemi erlerin dağıtım zamanı gelmişti. Herkes kura torbasında sırasını bekliyordu. Derken sıra bizim Temele geldi.
+Komutan;
+- Söyle bakalım Temel, kurada nerenin çıkmasını istersin? Temel;
+- Hiç fark etmez komutanım, vatan bir bayrak altında bölünmezlik aşkıyla yatan. Komutan;
+- Hadi kuranı çek bakalım. Temel kurayı çeker birde bakar ki Hakkari Yüksekova sınır Jandarma komutanlığı, Temel;
+- Tüh beee, kim dikti lan bu bayrağı buralara...</t>
+  </si>
+  <si>
+    <t>Asker Temel</t>
+  </si>
+  <si>
+    <t>Asker Temel içki içmeyi çok severmiş. Bir gün komutan duvara bir yazı yazmış:
+İÇKİ ÖLDÜRÜR
+Asker Temel sabah bu yazıyı görünce yanına ekler:
+ASKER ÖLÜMDEN KORKMAZ</t>
+  </si>
+  <si>
+    <t>Lazer</t>
+  </si>
+  <si>
+    <t>Komutan bölüğe bir bilgisayar aldırır ancak yazıcı almayı unutur. Postasını çağırır ve ona "git bana bir lazer yazıcı getir" der. postası gider bölüğün içindeki bütün erlere laz olup olmadığını sorar, bir laz bulur ve komutanın yanına getirir. Komutan postasına "bu kim?" diye sorar ve posta komutana "bir tane laz er getirdim" der.Komutan ise "iyi ki scan-er istemedik" der ve asker de "onu da bulabilirim komutanım" der.</t>
+  </si>
+  <si>
+    <t>Tos-Ba-Ğa</t>
+  </si>
+  <si>
+    <t>Komutan bir gün askerleri sıraya diziyor ve okuma bilenler ve bilmiyenleri ayırıyor.
+Bilenlerin bilmeyenlere öğretmesini istiyor ve bir hafta zaman veriyor.
+Okumayı öğrenenlere de benden bir hafta izin diyor ve bir hafta sonra komutan askerleri bir kara tahta önüne topluyor ve tahtaya kaplumbağa yazıyor ve hadi okuyabilen var mı diyor ama kimseden ses soluk yok.
+Komutan hadi size bir şans daha diyor ve size yazdığım kelimenin resmini çizeceğim diyor ve kafasını, ayaklarını, kabuğunu falan çiziyor ve hemen askerlerden biri atlıyor.
+Komutanım ben buldum okuyabilir miyim diyor ve komutan tabii ki diyerek hadi oku bakim diyor ve (asker heceleyerek) tos-ba-ğa diyor.</t>
+  </si>
+  <si>
+    <t>Diktatör</t>
+  </si>
+  <si>
+    <t>Diktatör general askerleri ile yolda giderken askerlerden biri hapşırmış. Diktatör arkasını dönüp;
+- Kim hapşırdı? Demiş. Askerler korkudan bir şey söyleyememiş.
+Diktatör bunun üzerine birinci sırayı kurşuna dizmiş.
+Sonra yola devam etmişler biraz sonra yine bir hapşırık sesi gelmiş.
+Diktatör kim hapşırdı deyince yine korkudan kimse kimin hapşırdığını söyleyememiş.
+Bunun üzerine diktatör ikinci sırayı kursuna dizmiş.
+Biraz sonra yine birisi hapşırmış.
+Diktatör arkasına dönüp sormuş kim hapşırdı deyince. Bir asker ben hapşırdım demiş. Diktatör general askere dönüp:
+- Çok yaşa, demiş.</t>
+  </si>
+  <si>
+    <t>Geri Zekalı Kamyon Şoförü</t>
+  </si>
+  <si>
+    <t>Mehmet er olarak askerliğini yapmaktadır. Ve komutan her gün Mehmet'i 10 km uzaktaki şehir merkezine yürüyerek gönderir ve kendisine günlük bir Sözcü gazetesi aldırır. Mehmet her gün şehir merkezine yürüyerek gider ve öğleden sonra saat 15:00'e doğru da kışlaya geri gelerek komutanına aldığı gazeteyi verir. Aradan 10-15 gün geçer ve Mehmet her gün aynı işlemi yapmaktadır. Bir gün Mehmet bu kadar uzun yolu her gün gitmeye dayanamaz ve şehre gazete almaya gittiğinde aynı Sözcü gazetesinden 4 adet alır ve karargaha geri döner ve komutana gazetelerden bir tanesini verir. Diğer 3 gazeteyi de kendisinde saklar.
+2. Gün Mehmet sanki şehre gitmiş gibi yapar ve garnizonda sote yerlerde oyalanır ve öğleden sonra saat 15:00'e doğru dün aldığı Sözcü gazetelerinden birisini daha komutana verir.
+3. Gün Mehmet şehre gitmez ve öğleden sonra saat 15:00'e doğru komutanın yanına giderek aldığı gazetelerden bir tanesini daha verir.
+4. Gün de aynı şeyi yapar ki; komutan Mehmet'e hışımla seslenir ve der ki:
+- Sen bu gazetelere gelirken göz gezdiriyor musun, bakıyor musun? Mehmet endişe ve korkuyla;
+- Hayır komutanım, hiç bakmıyorum, der. Komutan tebessüm ederek Mehmet'i yanına çağırır ve der ki;
+- Gel o zaman sana komik bir şey göstereyim, geri zekalı bir şoför, 3 gündür aynı araba ile aynı ağaca çarpıyor... Bak 3 gündür gazetede adamın da, çarptığı arabanın da ağacın da resimlerini koyuyorlar, der.</t>
+  </si>
+  <si>
+    <t>İslamın Şartı</t>
+  </si>
+  <si>
+    <t>TEMEL ASKERDE
+Askerde Temel’i komutan çağırır. Der ki;
+- Oğlum söyle bakayım İslamın şartı kaçtır?
+Temel cevap verir. Der ki "40.” Komutan basar ona dayağı. Ağzı burnu kana boyanır. Çıkar dışarı, Dursun onu görür ve sorar:
+- Oğlum ne oldi sağa? Temel der ki:
+- Komutan sordi bana islamun şartı kaçtur, 40 dedum bastı bağa dayaği. Dursun da der:
+- Oğlum sen hasta misun? Git komutanın elini op. De ki Özür dilerum islamın şarti 5' tur. Temel de:
+- Asıl sen hastasun. Adam 40'ı kabul etmiyi 5'i nasi kabul etsun, der.</t>
+  </si>
+  <si>
+    <t>Patlama</t>
+  </si>
+  <si>
+    <t>Karada savaş bütün şiddetiyle sürerken ,uçaklar indirme yapıyormuş. Temel savaş alanına paraşütle süzülerek iniyormuş.İnerken bir de ne görsün ? Hemşerisi Dursun , paraşütsüz yukarı doğru yükseliyor.Tam hizasına gelince " Ula Dursun " diye bağırmış :
+- Biz atlayış yaparken ,sen nereden geliyorsun ? Dursun cevap vermiş :
+- Cephanelikten!..</t>
+  </si>
+  <si>
+    <t>Kamuflaj Yarışması</t>
+  </si>
+  <si>
+    <t>Askerde kamuflaj yarışması vardır. Herkes çuvallara girecek, komutan gelip tekme atacak; onlar da hayvan sesleri çıkaracaklardır; komutan da beğenirse onaylayacaktır. Komutan birinci çuvala vurur. "Hav hav hav", komutan "aferin" der, "köpek çuvalı". İkinci çuvala vurur, "miyav miyav". Komutan gene beğenir. Böyle on on beş çuval gezer... Hepsi çok iyi taklit yapıyorlardır. En son çuvala vurur ses yok. Daha sert vurur gene ses yok, tekme, tokat, tahta, tüfek, ses yok. Askerlere emir verir iyicene tekmeleyin diye. Çuvaldan kan sızmaya başlıyor. Beş dakika sonra da ince, bitkin bir ses:
+- Patateeeees, vurmayın, patateeeeeeeees</t>
+  </si>
+  <si>
+    <t>Kim Kırdı?</t>
+  </si>
+  <si>
+    <t>Eski zamanlarda İngiltere'de erler şemsiye kullanmazmış. Şemsiye taşıma hakkı sadece subaylara tanınıyormuş.
+O yıllarda bir gün genç teğmenlerden biri, koltuğunun altında bir şemsiye ile hızlı hızlı yürüyen eri görünce, beyninden vurulmuşa dönmüş. Eri yanına çağırarak:
+- Bu ne küstahlık, demiş. Ve şemsiyeyi aldığı gibi diziyle parça parça etmiş.
+- Bu sana bir ders olsun, bir daha böyle küstahlıklar yapma!
+Neye uğradığını anlamayan er:
+- Baş üstüne, diyerek selamı çakmış ve şunu sormuş:
+- Teğmenim, beni az önce evine yollayan general şemsiyesini istediğinde şemsiyeyi kim parçaladı diyeyim?</t>
+  </si>
+  <si>
+    <t>Annenin Ne Diyor?</t>
+  </si>
+  <si>
+    <t>Çok genç bir İngiliz subayı, general olan babasının yanında yaverdi, yaşlı bir albaya emri iletmekle görevlendirildi:
+- Babam, birliğinizi şu karşıdaki tepenin yamaçlarına çekmenizi söylüyor, efendim, dedi. Yüzü moraran albay da şöyle dedi:
+- Demek öyle söylüyor! Peki anneniz ne diyor?</t>
+  </si>
+  <si>
+    <t>Boynuzlarında Tutarım</t>
+  </si>
+  <si>
+    <t>Güney Amerikalı bir subayla bir er konuşuyorlar:
+- Savaşta bir düşmana rastlarsan ne yaparsın?
+- Vururum.
+- Doğru, peki bir düşman bölüğüne rastlarsan ne yaparsın?
+- Vururum
+- Olmadı. Koşup karargaha haber verirsin. Peki savaş meydanında bir inek görürsen ne yaparsın?
+- Vururum.
+- Olmadı.
+- Koşup karargaha haber veririm.
+- Yine olmadı. Boynuzlarından tutup karargaha sürüklersin. Şimdi beni görürsen ne yapacağını söyle...
+- Vururum.
+- Olur mu canım. Ben senin komutanınım.
+- Döner karargaha haber veririm.
+- Yahu ben düşman bölüğü değilim ki.
+- Hah tamam. Boynuzlarından tutup karargaha sürüklerim...</t>
+  </si>
+  <si>
+    <t>Kaçmaya Çalışıyor</t>
+  </si>
+  <si>
+    <t>İkinci dünya savaşı sırasında bir İngiliz Almanya üzerinde düşürülür. Almanlar bunu esir alırlar fakat İngiliz'in bir bacağı ve iki kolu kangren olmuştur. Almanlar ilk önce bacağı keserler ve İngiliz Almanlardan bu bacağı ana vatanı olan İngiltere'ye atmalarını ister. Almanlar da atar. Sonra İngiliz'in kolu kesilir, İngiliz yine aynı dilekte bulunur ve Almanlar da yerine getirir. Bu sefer de Almanlar öteki kolu keserler. İngiliz her zamanki gibi Almanlardan kolu ana vatanına atmalarını ister fakat Almanlar "OLMAZ!" derler, İngiliz nedenini sorunca şöyle cevaplarlar:
+"SEN GALİBA KAÇMAYA ÇALIŞIYORSUN!"</t>
+  </si>
+  <si>
+    <t>Gök Gürültüsü</t>
+  </si>
+  <si>
+    <t>İki asker çadırda uyuyorlardı.
+Birden bir gürültüyle yerlerinden fırladılar. Biri diğerine sordu;
+- Bomba mıydı, yoksa gök gürültüsü mü?
+- Bombaydı galiba.
+- Aman çok şükür. Gök gürültüsünden ödüm patlar da...</t>
+  </si>
+  <si>
+    <t>Bahçenin Bakımı</t>
+  </si>
+  <si>
+    <t>İkinci Dünya Savaşının iyice kızıştığı günlerdi. Karısından mektup aldı.
+Eşi:
+- İzlanda'da eli iş tutar erkek kalmadı. Hepsi askere gitti. Ne yapayım kocacığım, artık bahçeyi kendim belleyeceğim.
+Derhal cevap yazdı.
+- Sakın ha, bahçeyi kazayım filan deme, silahlar orada gömülü.
+Savaşta mektuplar açılıp incelendiği için, bir manga asker gelip evin bahçesinde kazmadık yer bırakmadılar. Adam bir hafta sonra karısına gönderdiği mektupta:
+- Sanırım bahçe iyice bellendi... Sebzeleri hemen ek karıcığım, diyordu.</t>
+  </si>
+  <si>
+    <t>Mesleğiniz Nedir?</t>
+  </si>
+  <si>
+    <t>Bir uçak yolculuğunda hosteslerden biri, ön taraftan yolculara seslenir:
+- Sayın yolcularımız uçağımızda ani bir elektrik arızası meydana geldi. İçinizde elektrikten anlayan biri var mı acaba?
+Orta sıralarda, arka arkaya oturan iki yolcu el kaldırır. Hostes; arkadaki yolcuyu pilot kabinine davet eder. Adam arızayı hemen bulup giderir.
+Aradan beş on dakika geçer aynı hostes yine aynı yerde görünür. Sayın yolcularımız uçağımızda ani bir hidrolik arızası meydana geldi, içinizde hidrolikten anlayan biri var mı acaba?
+Orta sıralardan yine iki kişi el kaldırır; Biri daha önce elektrik arızası olunca elektrikten anlayanlar sorulduğunda da el kaldıran kişidir. Diğeri de başka biri. Hostes; daha önce elektrik arızasını gideren değil de, öteki el kaldıranı davet eder. Bu tür değişik arıza olayları; birkaç kere daha devam eder.
+Hostes; belirttiği konularda yardımcı olabilecekleri sorulduğunda her seferinde orta sıradaki adam; ben anlarım anlamında elini kaldırır. Ancak, hostes diğer arızaları için yardıma devamlı el kaldıran kişi dışında başkalarını çağırır. Son bir arıza duyurusunda; aynı kişi tekrar el kaldırınca hostes dayanamaz ve adamın yanına gider;
+- Beyefendi der Hangi arızayı söylesem, el kaldıranlardan biri hep siz oluyorsunuz sizin mesleğiniz nedir? Adam yanıt verir:
+-Subayım.</t>
+  </si>
+  <si>
+    <t>Anam Babam</t>
+  </si>
+  <si>
+    <t>Yüzbaşının çok sevdiği ve güvendiği Onbaşı Mehmet'in cezalandırdığı er, yüzbaşının karşısında:
+- Komutanım benim bir şıkayetim var.
+- Söyle.
+- Mehmet onbaşı beni döğdi.
+- Git, ben onun cezasını veririm.
+- Ama yüzbaşım; hem döğdi, hem söğdi.
+- Anladım, git cezasını veririm.
+- Anama babama laf etti.
+- Git cezasını veririz dedik ya.
+- Benim anam da yohtur, babam da yohtur.
+- Allah rahmet eylesin. Benim de öyle. Sen git anladım.
+- Ama yüzbaşım, Mehmet onbaşı benim anama da laf etti, babama da laf etti. Anam da yohtur, babam da yohtur. Anam da sensin, babam da sensin.
+Yüzbaşı:
+- Derhal koş; çağır Mehmet Onbaşı'yı buraya! dedi.</t>
+  </si>
+  <si>
+    <t>Tek Asker</t>
+  </si>
+  <si>
+    <t>Manevra varmış.Mehmet elde tüfek yerde yatıyormuş Komutan gelip sormuş
+-Düşman önden gelirse ne yaparsın?
+Mehmet cevaplamış
+Şu yandan, bu yandan, arkadan gelirse, diye tekrar sormuş komutan Mehmet bunları da cevaplamış
+Komutan en sonunda
+-Ya düşman tepeden gelirse? deyince.
+-Bu memleketin tek askeri ben miyim komutanım?</t>
+  </si>
+  <si>
+    <t>Şanlı Trabzon</t>
+  </si>
+  <si>
+    <t>Bir gün Temel askerdeymiş komutanları hepsini sıraya dizmiş ve yanına sıradaki askeri çağırmış komutan sormuş;
+- Adın ne?
+- Ahmet
+- Soyadın ne?
+- Çakır
+- Nerelisin?
+- Urfa
+Komutan bir tokat atmış ve tekrar sormuş;
+- Nerelisin?
+- Urfa, demiş. Komutan yine sormuş.
+- Nerelisin? Bu sefer aklına gelmiş.
+- Şanlıurfa, demiş ve yanına Temel'i çağırmış? Demiş ki adın ne? Temel Soyadın karagül nerelisin demiş komutan tokat atmasın diye ŞanlıTrabzon demiş</t>
+  </si>
+  <si>
+    <t>Paraşütçü Temel</t>
+  </si>
+  <si>
+    <t>Temel günün birinde askere gitmiş. Paraşütçülük görevi yapıyormuş. Gece rahmetli annesini rüyasında görmüş. Annesi rüyasında yarın paraşütten atlama paraşütün açılmayacak demiş. Yarın sabah helikoptere binmişler. Herkes atlamış Temel ve komutan kalmış. Komutan atla demiş atlamamış atla demiş atlamamış. Komutan niye atlamıyorsun deyince gece annemi gördüm atlama dedi demiş komutan o zaman paraşütleri değişelim demiş paraşütü değiştirmişler. önce Temel atlamış paraşüt açılmış. Komutanı atlayınca açılmamış. Komutanı Temel'in yanından hızlıca geçmiş. Temel sormuş:
+- Komutanım nereye gidiyorsun demiş. Komutanı;
+- Ananın yanına gidiyom ananın yanına demiş</t>
+  </si>
+  <si>
+    <t>Vatanın Tanımı</t>
+  </si>
+  <si>
+    <t>Bölük komutanı, İstanbullu Bitirim Celal'i derse kaldırdı:
+- Vatan neye derler?
+- Komutanım, vatan, anamızdır.
+- Bir tarifi vardı, onu istiyorum.
+Bitirim Celal kıvıramadı, "vatan anamızdır" demekte diretti. Yüzbaşı onu oturtup Memo'yu kaldırdı:
+- Sen söyle bakalım, vatan neye derler?
+Memo yutkundu, zorlandı... Sonra kaşıyla gözüle Celal'i işaret etti:
+- Voten, bizim Bitirim Celal'in anasidir komitanim!"</t>
+  </si>
+  <si>
+    <t>Asker N'Apmaz?</t>
+  </si>
+  <si>
+    <t>Komutan içkiyi yasakladı ve duvara "Alkol öldürür" diye yazdırdı.
+Ertesi sabah, bu yazının altına bir cümle eklenmişti:
+"Asker ölümden korkmaz".</t>
+  </si>
+  <si>
+    <t>Her Türüne Karşıyız</t>
+  </si>
+  <si>
+    <t>Anadolu kasabalarından birinde jandarmalar bir eve kitap baskını yapıyor.
+Jandarma timinin basındaki astsubayın dikkatini, duvara çivilenmiş birkaç raftan ibaret kütüphanede bir kitap çekiyor:
+"Bir Anti-Komünistin Mücadelesi"
+Komutan kitabi eline alıp soruyor:
+- Bu tür kitapların yasak olduğunu bilmiyor musun?
+Ev sahibi:
+- Komutanım, ben anti-komünistim, zaten kitap da öyle.
+Komutan, külyutmaz bir ifadeyle cevap veriyor.
+- Fark etmez, biz komünizmin her türüne karşıyız.</t>
+  </si>
+  <si>
+    <t>Acemi Asker</t>
+  </si>
+  <si>
+    <t>Askerliğe yeni başlamış bir er çavuşunun yanına giderek:
+-Efendim, çorbada kum vardı! dedi.
+Çavuş kaşlarını çatarak
+-Ne olmuş yani? Buraya yemek beğenmeye değil, vatan toprağını korumaya geldiniz. Bir daha böyle bir şikayet istemem! dedi. Erin cevabı hazırdı:
+-Evet ama komutanım! Biz buraya vatan toprağını yemeye de gelmedik!</t>
+  </si>
+  <si>
+    <t>Temel Askerde</t>
+  </si>
+  <si>
+    <t>Temel askerliğini yapıyormuş. Bölükte 40 ere izin vermişler. Geç kalırlarsa çadır hapsi var, ancak iyi bir mazeretleri olursa affedilecekler. 40 kişiden 39'u da geç kalmış, hep aynı mazeret;
+-Atla istasyona celeydum. At çatladi, tren kaçtı, geç kaldum!
+Derken kırkıncı da tamamlanmış, Temele sıra gelmiş.
+-Senin de mi atın çatladı? diye sormuşlar.
+-Hayır! demiş Temel, Yoldaki 39 at leşini geçemedum!.</t>
+  </si>
+  <si>
+    <t>Lazer Yazıcı</t>
+  </si>
+  <si>
+    <t>Komutan emir erini çağırmış:
+- "Bana çabuk bir lazer yazıcı bul getir."
+- "Emredersin komutanım." Bir saat sonra emir eri yanında başka bir er ile gelmiş.
+- "Lazer yazıcıyı getirdim komutanım."
+- "Hani nerde lan?"
+- "Komutanım bu arkadaş laz bir erdir ve bizim bölükte yazıcıdır!"
+- "Ulan iyi ki, scanner istememişiz be!"</t>
+  </si>
+  <si>
+    <t>Düşman Ordusu</t>
+  </si>
+  <si>
+    <t>Malazgirt zaferimizin (1071) ŞANLI KAHRAMANI SULTAN ALPARSLAN (1028-1072) yirmi yedi bin askeriyle Bizans topraklarında ilerlerken keşfe gönderdiği subaylardan biri hemen huzuruna gelip kendisine şöyle bir haber vermiş:
+- Üç yüz bin kişilik düşman ordusu bize çok yaklaştı! Alparslan da hiç önemsemeyerek şöyle karşılık vermiş:
+- Biz de onlara çok yaklaştık!</t>
+  </si>
+  <si>
+    <t>İki Er</t>
+  </si>
+  <si>
+    <t>İki general bir kafede oturup konuşuyorlarmış. generalin biri "benim bir erim var çok salak demiş. diğeriyse "hayır, benim bir erim var o daha da salaktır." demiş. Tartışma çok büyümeden kimin askerinin daha salak olduğunu anlamak için yarışma gibi bir şey yapmaya karar vermişler. İlk general askerini yanına çağırıp "oğlum, git bana şu 5000 lirayla bir Mercedes al gel" demiş. ikinci general de askerini çağırıp "git bak ben ordu evinde miyim?" demiş. iki asker yolda karşılaşmışlar. İlki "ya benim general çok salak, bugünün pazar olduğunu bildiği halde beni araba aldırmaya gönderdi." demiş. ikincisiyse "benim general daha salak, yanında telefon dururken, beni ordu evine gönderdi." Demiş</t>
+  </si>
+  <si>
+    <t>Naaah Var!</t>
+  </si>
+  <si>
+    <t>Temel askerdeyken babası ölür. komutan nasıl söyleyeyim diye düşünür.aklına temelin arkadaşı dursun gelir. komutan dursunu çağırır. dursuna olup biteni anlatır.dursun ondan kolay ne var.deyince komutan çok şaşırır.nasıl söyleyeceksin der. dursun temelin yanına gider. komutanda kenardan onları izlemektedir. dursun temele anan varmı temel var der.abin varmı der. temel var der baban varmı der temel var der.dursun naaah var der senin baban öldü. temel orda bayılır.</t>
+  </si>
+  <si>
+    <t>Neresinden</t>
+  </si>
+  <si>
+    <t>Kore'de Türk Tugayından iki Anadolulu asker biraz gezmek için firar ederler. Şehirde bir aşağı bir yukarı dolaşırken inzibat subayı bunları yakalar ve sorar:
+- Hani sizin izin kağıtlarınız?
+Erler subayı atlatırız umuduyla:
+- Biz Amerika'lıyız...
+diye cevap verirler. Subay durumu anlar, ama hiç bozuntuya vermez:
+- Amerika'nın neresindensiniz? Diye sorunca:
+- İçindenuk kumandanım! diye yanıt verirler...</t>
+  </si>
+  <si>
+    <t>30 Senelik Kaptan</t>
+  </si>
+  <si>
+    <t>Bir savaş gemisi karanlık ve sisli bir gecede yol alıyormuş. Derken kaptan köşkündeki komutan tam karşıda ve uzakta üzerlerine doğru gelen bir ışık fark etmiş.
+Hemen karşı tarafa sinyal göndererek şu mesajı geçmiş:
+- "Derhal rotanızı 30 derece doğuya çeviriniz."
+Karşıdan anında cevap gelmiş:
+- "Sen rotanı 30 derece batıya çevir!" Komutan şaşırmış, biraz da sinirlenmiş, mesajı tekrarlamış:
+- "Rotanı derhal 30 derece doğuya çevir, emrediyorum!" Karşıdan cevap:
+- "Asıl sen rotanı 30 derece batıya çevireceksin!" Komutan öfkeden küplere binmiş, bir mesaj daha yollamış:
+- "Ben 30 yıllık kaptanım, sana son kez emrediyorum, rotanı 30 derece doğuya çevir!" Cevap:
+- "Sen 30 senelik kaptansan ben de 20 senelik denizciyim, sen rotanı 30 derece batıya çevir!"
+Komutan, o kadar sinirlenmiş ki, hemen mürettebata bütün topları ateşe hazır hale getirmelerini emretmiş ve son kez bir mesaj göndermiş:
+- "Burası bir savaş gemisi, derhal rotanı 30 derece batıya çevirmezsen ateşe başlayacağız" Karşıdan cevap gelmiş:
+- "Burası da bir deniz feneri.. Sen rotanı bir an önce 30 derece doğuya çevirmezsen birazdan kayalara çarpacaksın"</t>
+  </si>
+  <si>
+    <t>Kulaktan Kulağa</t>
+  </si>
+  <si>
+    <t>Albay, binbaşıya:
+- Yarın güneş tutulacak. Bu her zaman görülen bir şey değildir. Erleri talim elbiseleri ile talim meydanına getirin de olayı görsünler. Ben de orada bulunup kendilerine gerekli bilgiyi vereceğim. Şayet yağmur yağarsa, tabii bir şey göremeyiz. O zaman erleri, üstü kapalı talimgaha götürürsün.
+Binbaşı, yüzbaşıya:
+- Albayın emri ile yarın sabah saat dokuzda güneş tutulacak. Bu her zaman görülen bir olay değildir. Şayet hava kapalı olursa bir şey görülemeyecektir. Bu durumda tutulma, kapalı talimgahta gerekli talim elbisesiyle yapılacaktır.
+Yüzbaşı, teğmene:
+- Albayın emri ile yarın sabah dokuzda talim elbisesi ile güneş tutulmasının açılış merasimi yapılacaktır. Şayet yağmur yağarsa ki bu durum pek görülen bir olay değildir, Albay kapalı talimgahta gerekli bilgiyi verecektir.
+Teğmen, başçavuşa:
+- Yarın sabah dokuzda hava güzel olursa, talim kıyafeti ile albay tutulacak. Kapalı talimgahta yağmur yağarsa, alayın meydanında manevra yapılacak. Çünkü bu her zaman görülen bir olay değildir.
+Başçavuş, askere:
+- Yarın sabah saat dokuzda kapalı talimgahta Albayı tutacağız. Sabah hepiniz talim teçhizat ile hazır olun.
+Askerler kendi aralarında:
+- Yarın sabah bizim başçavuş Albayı tutuklayacakmış.</t>
+  </si>
+  <si>
+    <t>Ordunun Askeri</t>
+  </si>
+  <si>
+    <t>Yeni asker olan Temel'e komutanı sormuş:
+- "Savaşta siperdesin, sağ taraftan düşman askeri geldiğini gördün. Peki ne yaparsın?" Temel heyecanla cevap verir:
+- "Hemen çevirir silahımı üzerlerine ateş açarım komutanım." Komutan tekrar sormuş.
+- "Peki, karşıdan geliyorsa?" - "Karşıya ateş açarım, komutanım."
+- "Arkadan geliyorsa?" deyince komutan, Temel dayanamamış:
+- "Komutanım, bu ordunun benden başka askeri yok mu?"</t>
+  </si>
+  <si>
+    <t>Patates</t>
+  </si>
+  <si>
+    <t>Temel, Fransız ve İngiliz askere gitmiş. Askerde ilk eğitim Kamuflaj eğitimiymiş. Herkesin bir çuvalın içine girip kendi kimliğini saklaması gerekiyormuş. Komutan ilk önce Fransız'ın olduğu çuvalın başına gitmiş ve bir tekme atmış Fransız "Hav! Hav!" diye ses çıkartmış; Komutan köpek olduğunu sanıp, İngiliz'in olduğu çuvalın başına geçmiş, Bir tekme de İngiliz'e atmış. İngiliz "Miyav! Miyav!" diye ses çıkarınca komutan bunda da kedi var zannetmiş. Daha sonra Temel!in olduğu çuvala gelmiş. Çuvala temeyi atınca Temel hemen bağırmaya başlamış : Patates! Patates!</t>
+  </si>
+  <si>
+    <t>birgün temel askerde operasyona çıkacaklarmış komutan demiş bir terörist getirene 10 milyar verilecek operasyona çıkmışlar ve diğer askerler her biri birer terörist ölüsü getirmişler ve temel gelmemiş aradan iki üç hafta geçmiş temel gelmiş ve birsürü ölü terörist getirmiş komutana vermiş komutan demişki temel devletin maddi durumu kötü 8 milyar versek olurmu temel demişki zaten ben 8 milyara aldım komutan demişki nedinula...</t>
+  </si>
+  <si>
+    <t>Ceset</t>
+  </si>
+  <si>
+    <t>askerde komutan emir veriyi diyiki düşman cesedi getirene 10 dolar veriliyi motivasyon yapmak içun her kes cepheden birer düşman cesedi getiriyi bide baktilerki temel 1 hafta yok komutan şaşuriyi bi de baktilerki temel 1 hafta sonra gelii komutan:ooo temel aslanum çok güzel savaştun düşman cesedi getirdun ama Türkiyenin ekonomisida bellidur gel bu cesederi bize 8 dolardan ver temel diii komutanum hayatta olmaz nie zaten sekize ben aldum onlarii</t>
+  </si>
+  <si>
+    <t>Komutan Ve Temel</t>
+  </si>
+  <si>
+    <t>komutan ve temel uçaktalarmis ve komutan derki ''temel ben burdan 50 tl atsam 50 insan sevinir'' temel'de derki ''ben sizi uçaktan atsam 70.000.000 insan sevinir''</t>
+  </si>
+  <si>
+    <t>Hayvan Oğlu Hayvan</t>
+  </si>
+  <si>
+    <t>TEMEL ASKERDE SIRAYA GİRMİŞ YENİ KOMUTUNLURINI GELMİŞ KOMUTAN BENİM ADIM ASLAN OĞLU ASLAN BENİM ADIMI UNUTANI YAKARIM ADIMI HERKESE SORACAM BİR HAFTA SONRA KOMUTAN GELİR VE ADINI SORAR HERKES KOMUTUNIN ADINI SÖYLER SIRA TEMELE GELİR TEMELE SORAR KOMUTUN BENİM ADIM NE TEMEL DE BİR HAYVAN OĞLU HAYVAN VARDI AMA ÇIKARAMADIM</t>
+  </si>
+  <si>
+    <t>Kayıp</t>
+  </si>
+  <si>
+    <t>bir er ile bir komutan eğitim sırasında kaybolmuşlar.komutan ere "oğlum haritaya bak hele neredeyiz" demiş er haritayı açmış bulamamış.sonra otların içini karıştırıp "komutanım burada biryerdeyiz ama tam olarak nerdeyiz bilmiyorum"demiş</t>
+  </si>
+  <si>
+    <t>Vatan Neyimiz</t>
+  </si>
+  <si>
+    <t>birgün iki asker varnış bir tanede komutan komutan temele sormuş vatan bizim neyimizdir temel bilmiyorum demiş komutan hasan çavuşa sormuş vatan bizim neyimizdir diye hasan vatan bizim anamızdır komtanım demiş komutan temele bak hasan çavuş ne güzel cevap verdi demiş söyle bakıyım vatan izim neyimizdir temel vatan hasan çavuşun anasıymış komtanım demiş</t>
+  </si>
+  <si>
+    <t>Mehmetun Anasu</t>
+  </si>
+  <si>
+    <t>KOMUTAN MEHMETE SORAR:
+-VATAN SENİN NEYİNDİR ASKER.
+-VATAN BENİM ANAMDIR KOMUTANIM.
+SIRA TEMELE GELİR:
+-VATAN SENİN NEYİNDİR ASKER.
+-VATAN MEHMETUN ANASUDUR KOMUTANIM.</t>
+  </si>
+  <si>
+    <t>Başlarınna Birşey Gelmimiş Mi?</t>
+  </si>
+  <si>
+    <t>Temel askerdeymiş. Teröristlerin köprünün altına gelip pusu kuracakları haberini almışlar. Temelin bölüğüde teröristlere operasyon düzenlemek için köprüde pusuya yatmışlar. Bir saat olmuş gelen giden yok, iki saat olmuş yok, beş saat olmuş yok. Temel komutanın yanına giderek :
+-Komutanım gidip bakıyım başlarına birşey gelmiş olmasın, demiş.</t>
+  </si>
+  <si>
+    <t>Tarla</t>
+  </si>
+  <si>
+    <t>temel vatani görevini yapmak üzere askere gider, fadime temlin arkasından mektup yazar temel sen askere gttin bizim tarla kazılcak ben neyapacam şimdi tabiki askerin mektubunu komutan okuyor, temelde peşinden bir mektup yazar fadime sakın tarlaya bir kazma bile vurma yaptığım bütün kaçak silahlar orda komutan temele şimdi yaktım çıranı der bir manga dolusu asker temelin köyüne gider tarlayı kazar,temel peşinden fadimeye bir mektup daha yazar fadime nasıl tarla güzel kazıldımı</t>
+  </si>
+  <si>
+    <t>Askerdeki Sevgili</t>
+  </si>
+  <si>
+    <t>bir gün bir kız radyoda istek parça göndermiş askerde olan sevgilime burhan çaçadan kurşunlara gelesin şarkısını armağan ediyorum der.......</t>
+  </si>
+  <si>
+    <t>birgün temel askerde operasyona çıkacaklrmış komutan demiş bir terörist getirene 10 milyar verilecek operasyona çık mışlar ve diğer askerler her biri birer terörist ölüsü getirmişler ve temel gelmemiş aradan iki üç hahtageçmiş temel gelmiş ve birsürü ölü terörist getirmiş komutana vermiş komutan demişki temel devletin maddi durumu kötü 8 milyar versek olurmu temel demişki zaten ben 8 milyara aldım komutan demişki nedinula...</t>
+  </si>
+  <si>
+    <t>BİR GÜN KOMUTAN ASKERİNE SORMUŞ:
+-OĞLUM VATAN NEDİR?
+-KEMKÜM YÜRÜGİT
+KOMUTAN BU SEFER ÇAVUŞA SORAR
+-'VATAN BİZİM ANAMIZDIR KOMUTANIM'der.
+KOMUTAN ASKERE TEKRAR SORAR
+-NEYMİŞ OĞLUM VATAN?
+-ÇAVUŞUN ANASIMIŞ!!!</t>
+  </si>
+  <si>
+    <t>Topal Dilenci</t>
+  </si>
+  <si>
+    <t>Adam, köşe başındaki dilenciye para verirken gönlünü de almak istedi:
+- Ayağın topal ama şükret, ya kör olsaydın?
+- Körlüğü de denedim be abi İş yok! Yüzlük diye beşlikleri yutturuyorlar...</t>
+  </si>
+  <si>
+    <t>bir gün komutan temele oğlum islamın şartı kaçtır temel:40 komitanum demiş komutan temeli döver temelin ağzı burnu kan içinde dışarı çıkar bunu gören dursun temel ne oldi nedur bu halun temel cevap verir komitan bana islamun şarti kaç bende 40 dedum sonra bu hale celdu dursun cid komutana deki islamın şartu 5'tir temel a safoğli saf komutan 40'ı cabül etmedide 5'imi cabül edecek</t>
+  </si>
+  <si>
+    <t>Kimin Askeri Daha Cesur</t>
+  </si>
+  <si>
+    <t>Bir gün komutanlar aralarında tartışmışlar benim askerim daha cesur diye.3 konutan en cesur askerlerini cağırmış.
+1. komutan asker tankın altına atla demiş askerde:
+-vatan için canım feda giyerek atlamış ve ölmüş.
+2. komutanda askerine uçurumdan aşağıya atla demiş ve asker aynı cümleyi söyleyip atlamış oda ölmuş.
+Ensonuncu komutanda mayına bas demiş.Askerde komutanına naaahh cekmiş.komutanda bakın benim askerim daha cesur komutanına naaahh cekiyor demiş</t>
+  </si>
+  <si>
+    <t>Ata Binmek</t>
+  </si>
+  <si>
+    <t>Bir şehirli er bölüğe gelmiş. Kıdemliler onunla dalga geçmek istemişler. Şöyle demişler:
+- Buraya herhalde torpille geldin? Şehirli:
+- Yok trenle geldim.
+Kıdemliler gülmüşler. Herkese ata binmeyi öğretiyorlarmış. Şehirliye göstermişler atı hadi bin Eyvah demiş Şehirli... Ama napsın? Mecbur binecek Ata binmiş gitmeye başlamış. Ama gittikçe de arkaya doğru kayıyormuş. Sonunda gele gele atın kuyruğunun ucuna gelmiş ve şöyle bağırmış:
+- Komutanım komutanım bu at bitti yenisini getirin.</t>
+  </si>
+  <si>
+    <t>bir gün dursun ile temel askerde nöbet tutuyormuş.temelin sevgilisinden mektup gelmiş.temel okuma yazma bilmediği için dursunun okuması için mektubu verdi sonra komutan geldi ne yapıyorsunuz burda temel komutanım sevgilimden gelen mektubu okuyor.komutan o dursunun kulaklarındaki pamuk ne öyle tmel demişki komutanım mektubu duymasın diye</t>
+  </si>
+  <si>
+    <t>Temel askerdedir fakat kimi kimsesi yoktur ve birgün Temel cumhurbaşkanından harçlık istemek için bir mektup yazar ve mektubu göndermesi için çavuşa verir çavuş da temel hiç mektup göndermezdi acaba kime yazmiş diye merak eder ve mektubu okur mektupta temel cumhurbaşkanından 20 milyon harçlık istediğini okuyunca temele acır ve cebindeki 15 milyonu zarfa koyup Temel'e verir ve Temel parayı alınca bir mektup daha yazar çavuş yine mektubu okur ve mektup da şöyle yazar SAYIN CUMHURBAŞKANIM PARA İÇİN SAĞOLUN AMA BUNDAN SONRA BANKA HESABIMA YATIRIN ÇÜNKÜ BİZİM DELİ ÇAVUŞ PARANIN 5 MİLYONUNU YEMİŞ</t>
+  </si>
+  <si>
+    <t>Operasyon</t>
+  </si>
+  <si>
+    <t>bir asker ocağının yanında tımarane varmış bu asker ocağında 84 kişi varmış bi gün askerlerin oparasyona gittiğini gören iki deli heveslenip hastaneden kaçmış son operasyon hazırlıklarında herkes tammı diye öğrenmek için sayıyorlarmış sonra saymışlar... saymışlar.. ama her saydıklarında 2 kişi fazla çıkıyomuş en sonunda iki deliye sormuş sen burda kimi tanıyorsun diyer deliyi işaret ederek
+-onu tanıyorum . demiş
+diyer deliye sormuş oda diyerini işaret ederek
+-onu tanıyorum demiş
+sonunda operasyona gitmişler bi deli yaralanmış diyeri ağlamış sonra komutan niye ağlıyorsun diye sormuş sdeli şöyle cevap vermiş o yaralandı halde gülüyorda bana da tımarane deyken ben ne yapıyorsam tersini yapta deli olduğumuzu anlamasınlar dediğini sana söylemiycem demiş tam bu sırada telefon çalmış ve delilerin tımareneden kaçtıklarını öğrenmiş :) :)</t>
+  </si>
+  <si>
+    <t>Kusura Bakma</t>
+  </si>
+  <si>
+    <t>Sivilde çok çapkın olan Tolga askerliğini yapmaktadır. Bir gün sevgilisinden mektup alır. Sevgilisi artık ondan ayrılmak istediğini bildirmekte ve fotoğrafını geri göndermesini istemektedir.
+Çok kızar, arkadaşlarının eski kız arkadaşlarının fotoğraflarını toplar. Hepsini bir araya koyup paket yapar ve sevgilisine gönderir.
+Pakete bir not iliştirir.
+"Kusura bakma, hangisi olduğunu çıkaramadım. Lütfen kendi fotoğrafını al ve diğerlerini geri gönder!"</t>
+  </si>
+  <si>
+    <t>Scanner</t>
+  </si>
+  <si>
+    <t>Komutan Emir erini çağırmış :
+- Bana derhal bir lazer yazıcı bul!
+- Emredersiniz komutanım" deyip fırlamış emir eri... Ve üç dakika sonra yanında başka bir erle beraber komutanın karşısına dikilmiş...
+- Komutanım! Bu hem Laz, hem de er...Ayrıca okuması yazması da var. Size yazıcılık yapar..." Komutan: ( burnundan soluyarak )"
+- İyi ki scanner istememişim! ...</t>
+  </si>
+  <si>
+    <t>Lazerli Top</t>
+  </si>
+  <si>
+    <t>Bir Türk askeri heyeti Amerika'ya davet edilmiş, kendilerine oradaki askeri tesisler ve modern silahlar tanıtılmış. Son gittikleri askeri üste Amerikalı yetkililer bizim subaylara lazerli silahları anlatmış:
+- Bu gördüğünüz lazer dürbünüdür. Bu ise lazerlerle hedefini bulan son model füze sistemimiz. Şu ise önümüzdeki yıl silah piyasasına girecek olan lazerli top...
+Heyette yer alan Karadeniz kökenli bir subay müdahale etmiş:
+- Lazerli top bizde de var...
+- Nasıl olur demiş Amerikalı yetkili, bu top henüz bizim ordumuzda bile hizmete girmedi. Sizde nasıl olur?
+Vardı yoktu derken bizimkiler lazerli topu görmeleri için Amerikalıları Türkiye'ye davet etmiş. Kısa süre sonra bir Amerikan heyeti Ankara'ya gelmiş. Türkiye'de lazerli top bulunduğunu iddia eden subayımız, Amerikalıları almış Topçu Okulu'na götürmüş. Başında bir nöbetçinin beklediği Birinci Dünya Savaşından kalma topu göstermiş.
+- İşte lazerli top... Amerikalılar gülmüş,
+- Topu gördük de, demişler, lazer nerede?
+- Hemen yanında, demiş bizimki, topun yaninda nöbet tutan er, lazdir...</t>
+  </si>
+  <si>
+    <t>İki İhtimal</t>
+  </si>
+  <si>
+    <t>2. Dünya Savaş’ında 2 Yahudi Almanlara esir olmuş. Bunlardan biri diğerine kendilerine ne yapacaklarını sormuş. O da başlamış anlatmaya...
+"İki ihtimal var: Ya bizi öldürürler ya da esir kampına yollarlar. Öldürürlerse sorun yok, kampa gidersek iki ihtimal var: Ya kurşuna diziliriz ya da gaz odasında öldürülürüz. Kurşuna dizilirsek sorun yok, gaz odasına gidersek iki ihtimal var: Bizden ya sabun yaparlar ya da kağıt. Sabun yaparlarsa sorun yok, kağıt yaparsalar iki ihtimal var: Ya gazete kağıdı oluruz ya da tuvalet kağıdı. Gazete kağıdı olursak sorun yok, tuvalet kağıdı olursak işte o zaman boqu yedik"...</t>
+  </si>
+  <si>
+    <t>General Motors</t>
+  </si>
+  <si>
+    <t>İki er bir gün yolda gidiyormuş karşıdan bir kamyon gelirken erlerden biri
+selam durmuş kamyon geçtikten sonra diğeri sormuş:
+-Niye selam verdin?
+-Görmedin mi kamyonun önünde GENERAL MOTORS yazıyordu.</t>
+  </si>
+  <si>
+    <t>Başlarına Birşey Gelmiş Mi?</t>
+  </si>
+  <si>
+    <t>Madalya</t>
+  </si>
+  <si>
+    <t>Bir gün Bismark, harpte yararlılık gösteren bir askere madalya takarken:
+- Asker, yüz altın mı istersin, yoksa bu madalyayı mı?
+Asker:
+- Madalyanın kıymeti nedir? der. Bismark:
+- Maddi kıymeti aşağı yukarı üç altın, diye cevap verir.
+Asker :
+- Öyleyse 97 altınla madalyayı isterim! der.</t>
+  </si>
+  <si>
+    <t>Avcılık Fıkraları</t>
+  </si>
+  <si>
+    <t>Cennet ve Cehennem</t>
+  </si>
+  <si>
+    <t>Avcının biri bir gün arkadaşıyla avlanırken arkadaşının tüfeğinden bir mermi ona denk gelmiş ve arkadaşı da onun öldüğünü fark etmemiş.Ve bir süre sonra orayı terk etmiş.Adamın ruhu gidince de nereye gideceğini ölen avcı kendi seçecekmiş ve oda bakmış cennette herkes tesbih çekiyor cehennemde de herkes çok eğleniyor demiş ki cennette benim canım sıkılır ben cehenneme gitmek istiyorum orda canım sıkıldığı zaman eğlenceye katılırım hiç canım sıkılmaz demiş ve cehenneme girmiş ama oraya adımını attığı anda şeytan demiş Ki eğlence bitti herkes kazanlara!</t>
+  </si>
+  <si>
+    <t>Avcı ile Tilki</t>
+  </si>
+  <si>
+    <t>Tilkinin biri akşam üstü bir kayanın tepesine oturmuş, başlamış hayal kurmaya.
+"Şimdi gider Ali ağanın kümesten iki tavuk alırım, Osman ağanın kümesten bi hindi, Haydar emminin kümesten üç ördek, artık veli ağanın kümese de yarın akşam dalarız."
+Derken avcının biri de avdan dönüyormuş hem de eli boş. Tilkiyi görünce silahı doğrultmuş basmış tetiğe. Tilki tepeden teker tombala inmiş dereye. Hemen kalkmış bakmış etrafına bir iki sıyrıkla işi atlatmış. Sonra demiş ki;
+- Ulan bi izin vermiyorlar ki ağız tadıyla malımızı sayak.</t>
+  </si>
+  <si>
+    <t>Kaza Kurşunu</t>
+  </si>
+  <si>
+    <t>İki arkadaş ava gider. Yanlışlıkla biri diğerini vurur. Panikle doktoru arar.
+- Doktor bey arkadaşımı vurdum öldü galiba. Doktor:
+- Sakin olun, önce ölüp ölmediğinden emin olun, der.
+Ardından bir el silah sesi duyulur.
+- Kesin öldü, şimdi ne yapmayalım doktor bey?</t>
+  </si>
+  <si>
+    <t>Balık Avcıları</t>
+  </si>
+  <si>
+    <t>Üç sıkı dost birlikte balık tutmaya gitmişler. Hep beraber gülüp eğlenerek balık tutmuşlar. Tuttukları balıkların birazını pişirip yemek için yakacak toplayıp ateş yakmışlar. Balıklar yanan ateşte pişerken sohbet etmeye başlamışlar. İçlerinden birisi arkadaşlarına dert yanmış:
+- Bugün balık tutmaya gidebilmek için karıma evdeki eskiyen koltuk takımını değiştireceğime söz vermek zorunda kaldım.
+Bunun üzerine diğeri de arkadaşlarına dert yanmış:
+- O da bir şey mi? Ben bugün balık tutmaya gidebilmek için karıma evin bütün duvarlarını boyatacağıma söz vermek zorunda kaldım.
+Üçüncü arkadaşlarından ses çıkmayınca merakla sormuşlar:
+- Sen ne söz verdin balık tutmaya gidebilmek için?
+Üçüncü arkadaşları cevap vermiş:
+- Ben hiçbir söz vermedim. Sabah kahvaltıdan sonra karıma "Bugün canım çok sıkkın, balık tutmaya mı gideyim yoksa birlikte annemlere ziyarete mi gidelim?" dedim. O da bana "Hayatım, giderken üstünü sıkı giyin, gelirken de tuttuğun balıklardan birazını eve getir." dedi.</t>
+  </si>
+  <si>
+    <t>Tilkinin Kuyruğu</t>
+  </si>
+  <si>
+    <t>Avcının biri köy kahvesine gelir, benim vurduğum tilkinin kuyruğu bilmem kaç metre deyip yüksekten atarmış. Bir gün adamın biri "Ben öksürünce tilkinin kuyruğunu kısalt" demiş. Bir gün adam kahvehaneye gelip anlatmaya başlamış;
+- Vurduğum tilkinin kuyruğu 15 metre
+- Öhö öhö
+- 12,5 metre
+- Öhö öhö
+- 10 metre
+- öhö öhö
+Halbuki adamın boğazı gıcık yapmıştır.
+- Yarım metre
+- Öhö öhö
+- E be birader, bu tilkinin kuyruğu hiç mi yoktu, demiş</t>
+  </si>
+  <si>
+    <t>Uzaklaştık</t>
+  </si>
+  <si>
+    <t>Temel ile Dursun bir gün ava gitmişler. İri bir geyik avlayıp geri dönerlerken çok ağır olan geyiği birer boynuzundan beraberce tutarak köylerine doğru yola koyulmuşlar. Köye beş yüz metre kala köyün yaşlılarından biri ile karşılaşmışlar. Adam geyiği görüp Temel ile Dursun'u tebrik ettikten sonra geyiği böyle taşımaları halinde etinin sertleşeceğini söyleyerek kuyruğundan çekerek taşımalarını önermiş. Temel ile Dursun da kuyruğundan çekerek taşımaya başlamışlar. Bir süre sonra çok yorulmuşlar ve Dursun Temel'e dönüp:
+– Ula Temel biz yine eskisi gibi taşısak iyi olur. Baksana köyden epeyce uzaklaştık...</t>
+  </si>
+  <si>
+    <t>Şimdi Ne Yapacağım?</t>
+  </si>
+  <si>
+    <t>İskoçya'da iki avcı ava çıkarlar. Yürüme esnasında avcılardan biri yere düşer ve hareketsiz olarak yatar. Bunu gören arkadaşı hemen yanına gelir bakar ki arkadaşı nefes almıyor, gözlerindeki ferin de kaybolduğunu fark eder ve hemen acil sevisi arar.
+- Arkadaşım öldü, bu durumda ne yapmam gerekiyor? Diye sorar.
+Telefonun ucundaki ses:
+- Sakin olun ben size yardım edebilirim ama önce arkadaşının öldüğünden emin olmamız gerek, der ve birkaç saniye sessizlikten sonra bir el silah sesi duyulur. Sonra:
+- Tamam, şimdi ne yapacağım?</t>
+  </si>
+  <si>
+    <t>Kurşun Geliyor</t>
+  </si>
+  <si>
+    <t>Avcılar bir gün oturmuş hepsi atıp tutuyor. Ben şöyle vurdum, böyle tuttum diye.Bir tanesi de başlamış anlatmaya;
+- Bir gün ormanda avlanıyorum bi baktım karşımda ayı, hemen tüfeği doğrulttum bir sıktım yok, ulan nooluyo buna herhalde tutukluk yaptı dedim. Namlunun içine baktım, gördüm ki kurşun geliyo, hemen çevirdim ayıya vurdum.</t>
+  </si>
+  <si>
+    <t>Kara Karga</t>
+  </si>
+  <si>
+    <t>İki avcı uzun bir süre dolaştıktan sonra, biri elinde simsiyah bir kuşu sallayarak gelir;
+- Bak bir bıldırcın vurdum.
+- Boş versene, o bıldırcın değil karga.
+- Hayır bıldırcın. Sadece dün vurduğum eşinin yasını tutuyor o kadar.</t>
+  </si>
+  <si>
+    <t>Üç Kez</t>
+  </si>
+  <si>
+    <t>Ava çıkmış adam, başına gelenleri anlatıyormuş :
+- Ormanda ilerlerken, karşıma kocaman bir Ayı çıkmaz mı? Çifteyi doğrultacak vakit yok!.. Silahı bir kenara attığım gibi başladım kaçmaya. Fakat Ayı peşimde! Benden hızlı koşuyor. Bir ara ayının sıcacık nefesini ensemde hissettim. O kadar yaklaşmıştı. Derken Ayının ayağı kaydı, yere düştü... Fırsat bu fırsat, tabana kuvvet arayı açtım. Ama ayı toparlandı, kalktı, bana yetişti. Yine nefesi ensemde... Pençesini uzatsa omzumdan yakalayacak. Allah'tan tam o sırada yine Ayının ayağı kaydı, yere düştü. Talih bana gülüyor! Hızımı arttırabildiğim kadar arttırdım, yeniden arayı beş yüz metre kadar açtım. Allah sizi inandırsın arkadaşlar, Ayı yine bana yetişti. Yine nefesi ensemde... şansa bakın... Ayının tekrar ayağı kayıp yere düşmez mi?
+Serüveni dinleyenlerden biri dayanamamış:
+- Sen de çok yürekliymişsin kardeşim!... Hayvan bana üç defa nefesi enseme gelecek kadar sokulsa, çok ayıptır söylemesi, ben korkumdan altıma ederim.
+Avcı dönüp ters ters sözünü kesene bakmış:
+- Lafı karıştırma yahu! Ayı üç kez neyin üstüne bastı da ayağı kayıp yere düştü sanıyorsun?</t>
+  </si>
+  <si>
+    <t>Sadık Bir Köpek</t>
+  </si>
+  <si>
+    <t>Bir avcı diğerine sordu:
+Köpeğinizi satın almak istiyorum ama sahibine sadık mıdır?
+- Hem de fazlasıyla sadık. Size bu konuda yüzde 100 garanti verebilirim.
+- Nasıl bu kadar emin olabilirsiniz?
+Şimdiye kadar 5 kere sattım. Her seferinde de geri geldi.</t>
+  </si>
+  <si>
+    <t>Aslan Avı</t>
+  </si>
+  <si>
+    <t>Bir matematikçi Afrika'da aslan avlamaya çalışmaktadır. Sonunda bir tane aslan görür ve etrafına tel örgü çeker. Daha sonra da şöyle der:
+- Burayı dışarısı olarak tanımlıyorum.</t>
+  </si>
+  <si>
+    <t>Avcılar</t>
+  </si>
+  <si>
+    <t>Bir gün 6 avcı avlanmak için ormana gitmişler.
+Küçük bir delik görmüşler. Liderleri demiş ki "bu tavşan deliği" sonra beklemişler ve görmüşler ki içinden tavşan çıkmış.
+Tavşanı vurmuşlar kürkünü almışlar. Sonra ondan biraz daha büyük bir delik görmüşler.
+Liderleri demiş ki "bu tilki deliği" sonra gerçekten de bir tilki çıkmış. Onu da öldürmüşler kürkünü almışlar.
+Sonra ondan da büyük bir delik görmüşler.
+Liderleri: "bu ayı ini" demiş. Sonra da gerçekten bir ayı çıkmış. Onu da vurmuşlar kürkünü almışlar. Sonra ondan da büyük bir delik görmüşler.
+Avcılardan biri: "peki bu ne deliği" demiş. Lideri demiş ki: "bu sefer hiç bi fikrim yok".
+Ertesi sabah gazete de bir kaza haberi verilmiş:
+6 avcı trenin altında kalarak can verdi.</t>
+  </si>
+  <si>
+    <t>Bir Aslan İçin</t>
+  </si>
+  <si>
+    <t>Avcının biri palavra sıkıyormuş.
+- Geçen yaz Afrika'da 99 aslan vurdum...
+Arkadaşı dayanamamış,
+- 100 de şuna bari, demiş.
+Avcı da demiş ki;
+- Bir aslan için yalan mı söyleyeceğim sana!</t>
+  </si>
+  <si>
+    <t>Ayı Bu</t>
+  </si>
+  <si>
+    <t>Bir avcı, evine gelen misafirlerine eski bir ayı postunu göstererek der ki:
+"Bu ayıyı Bolu ormanlarında vurmuştum."
+Misafirlerden biri, bu palavraya inanmayıp sorar:
+"Nasıl olur? Bu kutup ayısıdır. Bolu'da bulunmaz."
+Avcı gülümseyerek cevap verir:
+"Kardeşim ayı bu. Buranın kutup olmadığını, Bolu ormanları olduğunu nereden bilsin?"</t>
+  </si>
+  <si>
+    <t>Senden Hızlı Koşsam Yeter</t>
+  </si>
+  <si>
+    <t>Bir Amerikalı ile Japon safariye çıkmışlar. Her ikisi de son teknolojik
+silahları da birbirlerine nazire yapmak için yanlarına almışlar. Derken uzakta bir aslan görünmüş. Amerikalı lazer tüfeğini doğrultmuş ve aslana ateş etmiş. Ama karavana. Hemen Japon uydudan yönlendirmeli tüfeğini doğrultup ateş etmiş. Fakat o da karavana. Aslan bizimkileri fark edince üzerlerine doğru gelmeye başlamış. Amerikalı bir yudum viski içip acı sonu beklemeye başlamış. Japon hemen botlarını çıkarıp spor ayakkabılarını giymeye başlamış. Amerikalı sormuş :
+- Ne o, aslandan hızlı mı koşacaksın ?
+- Yoo, senden hızlı koşsam yeter.</t>
+  </si>
+  <si>
+    <t>Avcı Temel</t>
+  </si>
+  <si>
+    <t>Dört kişilik avcı grubu, tecrübeli avcı Temel'in önderliğinde ormanda ilerlemektedirler. Karşılarına küçük bir delik çıkar. Temel;
+- Yatın yere tavşan deliği!
+Bütün avcılar yere yatarlar. Gerçekten bir müddet sonra delikten tavşan çıkar. Avcılar hemen Vururlar.
+Tekrara yürümeye başlarlar. Bir süre sonra büyük bir delik çıkar karşılarına. Temel:
+- Yatın yere, tilki deliği!
+Yatarlar. Biraz sonra tilki çıkar onu da vururlar. Tekrar düşerler.
+Bu defa daha büyük bir delik çıkar. Temel:
+- Yatın yere burası ayı ini!
+Yere yatarlar ve çıkan ayıyı vururlar. İyice keyiflenen avcılar yürümeye devam ederler. Kısa bir zaman sonra kocaman bir deliğin başında dururlar. Acemiler hep birden Temel'e bakaralar. Temel:
+- Uşaklar ne çıkacağunu bilmeyrum. Ama yatın ne çıkarsa bahtumuza!
+Ertesi gün gazetelerde:
+Dört avcı tren altında can verdi...</t>
+  </si>
+  <si>
+    <t>İşaret</t>
+  </si>
+  <si>
+    <t>Balığa çıkacak olan Lazlar konuşuyorlarmış :
+- Dün balık avladığımız yeri işaretledin mi ?
+- Evet kayığa işaret koydum
+- Aptal! Ya bugün başka kayıkla balığa çıkarsak !</t>
+  </si>
+  <si>
+    <t>Bektaşi Fıkraları</t>
+  </si>
+  <si>
+    <t>Yapılan Dualar</t>
+  </si>
+  <si>
+    <t>Bektaşi, camide namazdan sonra dua etmiş:
+- Ey ulu Tanrım, bana bir rakı parası ver!
+Yanında namazını bitiren softa da, ellerini kaldırmış:
+- Rabbim, bana iman ver!
+İki duayı da işiten hoca, Bektaşi'ye:
+- Bak, herkes ne istiyor Tanrı'dan, sen rakı parası. Utanmıyor musun?, demiş.
+Bektaşi usulca şöyle demiş:
+- Ne yapalım hoca efendi, herkes kendisinde olmayanı ister...</t>
+  </si>
+  <si>
+    <t>Giden Oruç</t>
+  </si>
+  <si>
+    <t>Oruç tutan Bektaşinin biri çok fena susamış. Vakit geçirmek için kırda giderken bakmış gürül gürül akan bir çeşme. Adeta kendinden geçmiş bir halde ağzını dayayıp yudum yudum içmeye başlamış. Bu sırada oradan geçen biri görüp:
+- Aman erenler ne yaptın? Oruç gitti, diye seslenmiş.
+Bektaşi, ağzının iki yanından süzülen sular bağrına doğru inerken cevap vermiş:
+- Oruç gitti, ama fakire de can geldi!</t>
+  </si>
+  <si>
+    <t>Rahatsız Etmem</t>
+  </si>
+  <si>
+    <t>Sohbet ortamında "Ramazan ayı, dileklerin kabul olduğu aydır. Allah'tan ne istersen verilir" demişler. Bektaşi'nin biri de bunu duymuş. Çoktan beri veremediği borcunu ödemek için camiye giderek namaz kılıp, duaya başlamış.
+- Yarabbi, evine ilk defa geldiğim gündür, ben bunlar gibi günde beş defa gelip seni rahatsız etmem. Borcumu verecek kadar para ihsan eyle. Bir daha da gelmem.</t>
+  </si>
+  <si>
+    <t>Bektaşi'nin Kerameti</t>
+  </si>
+  <si>
+    <t>Bektaşilerden biri, içkinin yasak olduğu devirde, bir şişe şarap almış. Cübbesinin altına saklamış, yolda giderken padişah rast gelmiş:
+- Nedir o cübbenin altındaki? diye sormuş. Bektaşî de:
+- Abdest suyu sultanım, demiş. Padişah:
+- Çıkar bakalım, şarap olmasın! deyince, Bektaşi:
+- Padişah hürmetine şarap ol yâ mübarek, diyerek şişeyi çıkarır. Padişah bakar ki şarap.
+- Şimdi de su yap bakalım, der. Bektaşî:
+- Ben bu kadarını yaptım. Padişahın gücü büyüktür. Ötesini de siz yapınız sultanım, der.</t>
+  </si>
+  <si>
+    <t>Canlar Nerede?</t>
+  </si>
+  <si>
+    <t>II. Mahmut bir gün bir Bektaşi tekkesini bastırır. İçeridekilerden hepsi sağa sola kaçar. Yalnız ihtiyar bir Bektaşî kaçamayarak ortada kalır. II. Mahmut babaya sorar:
+- Baba, canlar nerede?
+- Şevketlü Sultanım, sizi görünce ortalıkta can mı kalır...</t>
+  </si>
+  <si>
+    <t>Niye Geziyorsun?</t>
+  </si>
+  <si>
+    <t>Yeniçeri Ocağı kaldırılıp Bektaşi tekkeleri de kapatıldıktan sonra Bektaşi dervişlerinin her biri bir tarafa kaçıp saklanmışlardı. Padişah bir gün Bahçekapı’da korkmadan, çekinmeden dolaşan bir Bektaşi görünce hayret eder ve yanına gelir:
+- Baba sizinkilerden her biri bir tarafa savuştu. Sen burada, yalnız başına niye geziyorsun? diye sorunca Bektaşî hiç tereddüt etmeden şöyle der:
+- Sultanım beni damızlık bıraktılar.
+Bu hazırcevaplıktan pek memnun kalan hükümdar, babaya hiçbir şey yapmadan yanından ayrılır.</t>
+  </si>
+  <si>
+    <t>İğne Deliği</t>
+  </si>
+  <si>
+    <t>Bektaşi dervişlerinden birine:
+- Erenler! Cenabı Hak her şeye kadirdir dersiniz; bir dikiş iğnesinin gözünden bir deveyi geçirebilir mi? demişler. Bektaşi:
+- Vızır, vızır.
+- Nasıl yani?, diye sorulunca,
+- Ya dikiş iğnesinin gözünü büyütür, ya deveyi küçültür, geçirir.</t>
+  </si>
+  <si>
+    <t>Padişahın Kulu</t>
+  </si>
+  <si>
+    <t>İstanbul'da gezinen Bektaşi, padişahın sarayı zannettiği görkemli
+bir binanın yanından geçiyormuş. Binanın önünde şatafatlı bir fayton duruyormuş.
+Binadan sırmalı elbiseleri olan adam çıkınca, muhafızlar selama durmuş. Adam faytona binerken, Bektaşî meraklanmış ve muhafızlardan birinin yanına yaklaşarak sormuş:
+- Faytona binen padişah mıdır?
+- Hayır, padişahın kuludur.
+Bektaşî, önce faytondaki adama bakmış, sonra da kendi üstünün başının
+perişanlığına. Sonra, ellerini açarak:
+- Hey Allah'ım. Bir padişahın kuluna bak, bir de senin kuluna!</t>
+  </si>
+  <si>
+    <t>Kim Uğursuz?</t>
+  </si>
+  <si>
+    <t>Avcı Sultan Mehmet diye anılan 4. Mehmet bir gün akşama kadar
+uğraştığı halde, bütün attıkları boşa gider. Bunun sebebini sabahleyin ilk gördüğü adamın uğursuzluğuna hamlederek:
+- Saraydan çıkarken kapı önünde sallana sallana biri geçiyordu. Sivri külahlı, sırtı kamburumsu. Bana çabuk onu bulun, diye emir vermiş.
+Hemen tanımışlar, meşhur Bektaşi Ayyaş Hamza. Karakullukçular yaka paça adamı huzuruna getirirler. Öyle bir uğursuzun yaşamak hakkı olmadığı için derhal asılmasına karar verilir. Bektaşi der ki:
+- Sabahleyin ilk beni gördüğünüz için iki keklik bile vuramadınız. İyi ama Padişahım, benim de bu sabah ilk gördüğüm siz oldunuz, fakat benim kellem gidiyor. Uğursuzluk hangimizde fazla?
+Cevap padişahın o kadar hoşuna gider ki hayatını bağışladıktan başka bir kesede altın verir.</t>
+  </si>
+  <si>
+    <t>Sokullu Mehmet Paşa</t>
+  </si>
+  <si>
+    <t>Kanuni Sultan Süleyman’ın son devirlerinde sadrazamlığa getirilen Sokullu Mehmet Paşa cidden bilgili ve büyük bir devlet adamıydı. Sayısız başarılı hizmetleri ile olduğu kadar, iffet ve istikameti ile de pek haklı ve şerefli bir şöhret kazanmıştı.
+Bazı dileklerde bulunmak üzere huzuruna giden bir delinin hançeri ile ölen ve Eyüp Sultan'da gömülen bu paşanın yalnız on beş senesi sadrazamlık olmak üzere elli seneden fazla devlet hizmetinde geçmesine rağmen ancak defin işlemlerine yetecek kadar parası çıktığı anlaşılınca herkes tarafından hayretle karşılanmış ve sevenleri birkaç misli artmıştı. Gömüldüğü sırada mezarı başında bulunanlar arasında devrin
+Bektaşî erenlerinden tok ve doğru söyleyenlerden bir Bektaşi babasının derin bir düşünceye dalması, ocak ağalarından birinin gözüne çarpar. Yavaşça sokulur ve sorar:
+- Dedem nedir seni bu kadar endişeye düşüren? Sokullu'nun ölümü mü? Bektaşi acı acı gülümser ve cevap verir:
+- Hayır evlat, çalıp çırpmayan rahmetlinin devlet hazinesinde bıraktığı büyük miras ile bu mirasın geride kalan devlet büyükleri arasında uyandıracağı ihtiras düşündürdü beni...</t>
+  </si>
+  <si>
+    <t>Bektaşi'Nin Arzusu</t>
+  </si>
+  <si>
+    <t>Bektaşi'nin biri şeyhülislâmın huzuruna çıkmış:
+- Efendim, Allah size 27 yıl ömür versin.
+Bektaşi'nin arzu ettiği yıl sayısını biraz tuhaf karşılayan şeyhülislâm sorar:
+- Ne için 27 yıla bağlıyorsun?
+- Geçen yıl Ram azan 29 gün çekmişti; bu yıl da 28 gün oldu.
+Eğer Allah size 27 yıl ömür uzunluğu verirse mübarek Ramazandan
+da, oruçtan da kurtulacağız.</t>
+  </si>
+  <si>
+    <t>Ramazan Ayı</t>
+  </si>
+  <si>
+    <t>Bektaşi'nin biri Ramazanda bir iki gün oruç tutmuş, sonra bırakıvermiş. Bir mecliste sormuşlar:
+- Erenler, bu yıl Ramazan uğradı mı?
+Bektaşi biraz düşündükten sonra şu cevabı vermiş:
+- Uğradı ama sıyırdı geçti.</t>
+  </si>
+  <si>
+    <t>Peşin Kılınan Namaz</t>
+  </si>
+  <si>
+    <t>Hocayla bir Bektaşi birlikte yola çıkmışlar, bir süre sonra hoca:
+- Namaz saati! demiş, başlamış kılmaya...
+Rekat üstüne rekat, selam üstüne selam...
+Bektaşinin beklemekten canı sıkılmış, hoca namazı bitirince sormuş:
+- Yahu bu ne uzun namaz böyle?
+- Kazaya kalmış namazlarım vardı, onları eda eyledim!
+Bektaşi:
+- Eh ben de bir namaz kılayım! demiş ve başlamış namaza...
+Ama ne namaz, bitmiyor, sonunda hoca dayanamamış:
+- Erenler, senin namaz da uzun sürdü!
+- Önümüzdeki haftanın namazını kıldım!
+Hoca şaşkınlıkla sormuş:
+- Yahu olur mu böyle şey?
+Bektaşi gülerek cevap vermiş:
+- Yukarıdaki senin veresiyeni kabul ediyor da, benim peşinimi niye kabul etmesin?</t>
+  </si>
+  <si>
+    <t>Nefesini Tüketme</t>
+  </si>
+  <si>
+    <t>Bektaşi'nin biri hocaya sormuş:
+- Hoca, Allah nerededir?
+Hoca başlamış:
+- Allah ne yerdedir, ne göktedir. Ne sağdadır ne soldadır. Ne aşağıdadır ne yukarıdadır. Ne kuzeydedir ne güneydedir.
+Bektaşi lafı gediğine koymuş:
+- Boşuna nefesini tüketme hoca. "Allah yoktur" diyeceksin ama dilin varmıyor, lafı dolandırıp duruyorsun. Anladım...</t>
+  </si>
+  <si>
+    <t>Beygir ve Eşek</t>
+  </si>
+  <si>
+    <t>Bir Hoca ile bir Bektaşi dervişi yol arkadaşı olmuş. Hocanın bir beygiri dervişin de bir eşeği varmış. Mevsim yaz olduğundan akşamüstü bir çayırlık mahalle civarında geceyi geçirmeye karar vermişler. Heybelerindeki nevaleden beraberce yiyip biraz konuştuktan sonra yatıp uyuma vakti gelince Hoca “Yarabbi, beygirimi sana emanet ettim, sen koru.” demiş.
+Bektaşi de, “Şeyhim, benim eşeği de sen bekle.” demekle hoca hayretle, “Allah'a emanet et, günaha giriyorsun" demiş ise de derviş aldırmamış. Yatıp uyumuşlar. Ertesi sabah kalktıkları zaman hocanın beygiri meydanda olmadığı halde Bektaşi'nin eşeği orada otlayıp duruyormuş. Bu hali gören hoca hayretle, “Bu nasıl şey” Allah'a emanet ettiğim beygir gitmiş, Bektaşi'nin eşeği duruyor” diye söylenmeye başlayınca derviş, “Bunda hayret edilecek bir şey yok. Allah'ın kulu bir sen değilsin. Beygiri diğer kuluna verdi. Halbuki bizim şeyhin yegane dervişi benim. Tabii malımı sabaha kadar bekledi” diyerek hocayı da güldürmüş.</t>
+  </si>
+  <si>
+    <t>Allah'tan</t>
+  </si>
+  <si>
+    <t>Bir Bektaşi her ne olursa olsun "Allah'tan" dermiş. Bir gün bir külhanbeyi, bu Bektaşinin ensesine sultani bir sille aksetmiş. Bektaşi arkasına dönünce külhanbeyi, “Baba efendi!, ne bakıyorsun, Allah'tan, demiş.
+Bektaşi hiç düşünmeden cevap vermiş;
+- Amenna, be imanım, ben de Allah'tan olduğunu biliyorum ama hangi pezevengin eliyle yaptırdı diye merak ettim de ona bakıyorum.</t>
+  </si>
+  <si>
+    <t>Sultan Murat'la Karşılaşma</t>
+  </si>
+  <si>
+    <t>Dördüncü Murat'ın yaptığı yenilikler arasında içki ve tütün içme yasağı vardı. Sultan Murat bizzat kendisi halk arasında kontrollerde bulunuyordu. Bunun için geceli gündüzlü teftişler yapıyordu. Bir gece Edirne kapısının dışına çıkınca pencerelerden ışık sızan bir bina gördü.
+Herkesin uyuduğu saatlerde, bu ışığın yanmasını hayra alamet görmedi. Burası gözden uzak olup, tiryakilerin oturup çubukla tütün içtiği yerdi. Padişah karşısına çıkan babayani adama selam verdi.
+Kahveci yeni gelenin de çubuk içmek için geldiğini zannetti. Hemen doldurduğu çubuğu kendisine uzattı. Padişah, kahveciye şöyle dedi:
+- Tütün içmenin yasak olduğunu bilmiyor musun baba?
+Kahveci de pişkin bir tavırla:
+- Erenler uzun etme, haydi çubuğundan çek ve otur.
+Padişah da sert bir ses tonuyla:
+- Padişahın emirlerine karşı gelmek ne demek biliyor musun?
+Onun katı bir ses tonuyla konuşmasından şüphelenen kahveci:
+- Adınızı bağışlar mısınız?
+Deyince
+- Murat
+Demişti. İyiden iyiye şüphelenen kahveci eli ayağı titreyerek;
+- Sultanlığı da var mı?
+Diye zorlukla bir soru daha sordu.
+Padişah hiddetle;
+- Evet
+Der demez, kahveci hemen kendisini yanındaki masanın üstüne boylu boyunca atıverdi ve sözlerini şöyle bitirdi:
+- Öyle ise buyurun cenaze namazına deyip gözlerini kapatmıştı</t>
+  </si>
+  <si>
+    <t>Halt Etme</t>
+  </si>
+  <si>
+    <t>Sultan II. Mahmut döneminde bir Ramazan günü zaptiyeler bir Bektaşi babasını rakı içerken suçüstü yakalar. Padişaha götürürler. Bektaşi rakı şişesini saklayarak huzura çıkar. İkinci Mahmut sorar:
+- Erenler, elini göster.
+Bektaşi sol elini gösterir. Diğeriyle şişeyi saklar.
+- Öteki elini de göster.
+Baba arka arkaya yürüyerek duvara gelip dayanır. Şişeyi duvarla sırtı arasında sıkıştırarak iki elini birden gösterir.
+İkinci Mahmut bu sefer şu emri verir:
+- Şimdi öne doğru gel.
+Bektaşî dayanamayarak der ki:
+- Halt etme Mahmut, bana şişeyi kırdıracaksın</t>
+  </si>
+  <si>
+    <t>İftar Daveti</t>
+  </si>
+  <si>
+    <t>İkinci Abdülhamid'in son devirlerinde Edirne'de vali ve kumandan bulunan
+Müşir Ârif Paşa, Ramazan günlerinde, vilâyet ve ordu erkânına mükellef iftarlar yaparmış. Yine böyle bir dâvet günü, iftar edildikten sonra paşa:
+- Haydi efendiler! Namazı da birlikte kılalım, der.
+Davetliler arasında bulunan Bektaşî bir topçu binbaşısı ceketinin cebinden
+davetiyeyi çıkarıp baktıktan sonra tekrar cebine koyarak şöyle der:
+- Efendimiz, davetiyenizde yalnız iftar yazılı olup namaz kaydı yoktur!</t>
+  </si>
+  <si>
+    <t>Alınyazısı</t>
+  </si>
+  <si>
+    <t>Meşrebin Padişaha karşı olan davranışlarını gören şeyhülislam, Meşrebe:
+- Tövbe et, divane, kâfir! der.
+- Bir soruma cevap verir misiniz? Diye sorar Meşreb.
+- Sor ama cahillik edip, hakaret etme! Der şeyhülislam.
+- Allah'ın, insanları yaratırken alınlarına işleyecekleri günah ve
+sevaplarını yazdığı doğru mu?
+- Doğru.
+- Benim alnımda kâfir mi yoksa mümin mi yazıyor?
+- Buna ilmi bilinmezlik denir. Onu Allah'tan başkası bilemez.
+- O zaman neden "tövbe et, kâfir oldun!" diyorsun, diye cevap
+verir, Meşreb.</t>
+  </si>
+  <si>
+    <t>Hülle</t>
+  </si>
+  <si>
+    <t>Bir Sünni üç kez "boş ol" diyerek hanımını boşamış, daha sonra pişman olup hocaya giderek geri almak istediğini söylemiş Hoca da:
+-Bu mümkün değil, tek çaresi var o da hülle,
+demiş ama adam razı olmamış Hoca demiş ki:
+- Birde Bektaşi'ye danış onlar belki bir yol gösterir,
+demiş adamda Bektaşi'ye gitmiş durumu anlatınca Bektaşi sormuş
+- Şartı sen mi ettin yoksa eşin mi,
+demiş adam da
+- Ben ettim. demiş. Bektaşi'de demiş ki;
+- O zaman kadının suçu yok, hülle sana düşer hadi ğit demiş</t>
+  </si>
+  <si>
+    <t>İstemezük</t>
+  </si>
+  <si>
+    <t>İstanbul'un meşhur ayaklanmalarının birinde padişah sarayının etrafını kuşatan halkın "istemezük, istemezük" diye bağırmalarına hiçbir şeyden habersiz içkili Bektaşi de katılır, o da "istemezük, istemezük" diye bağırmağa başlar. Neyi istemediklerini anlamak maksadıyla halkın arasına katılan padişah soruşturma neticesinde sadrazamı istemediklerini anlar.
+Bu arada padişah Bektaşî'yi de sorguya çeker. Hiçbir şeyden haberi olmayan baba erenler:
+- Ben meyhaneci Anastas'ı birkaç günden beri şaraba fazla su kattığı için istemiyorum, deyince bu cevaptan hoşlanan padişahın ihsanına nâil olur.</t>
+  </si>
+  <si>
+    <t>Kim Haklı?</t>
+  </si>
+  <si>
+    <t>Bir paşa bazı yakınlarıyla bir gün oturup satranç oynamaktayken bir taşın hareketinde anlaşmazlık olur. Esasen haksız olan bu kişi etrafındakilere hitaben:
+- Yahu, siz de izliyorsunuz. Kim haklı ve kim haksızdır, söyleyiniz, der ise de kimse ses çıkarmaz. Tam o sırada bir Bektaşi babası odaya
+girer ve:
+- Paşam, siz haksızsınız, der. Paşa hayretle:
+- Baba efendi, siz henüz geldiniz. Bir şey görmediniz, deyince, baba:
+- Eğer siz haklı olsaydınız bu kadar kalabalık sorunuza karşı suskun kalmazdı. Onların suskunluklarından anladım ki siz haksızsınız, diyerek güzel bir ders verir.</t>
+  </si>
+  <si>
+    <t>Buyurun Cenaze Namazına</t>
+  </si>
+  <si>
+    <t>İçkinin şiddetle yasak olduğu bir zamanda, gizli meyhanelerden birinde içen Bektaşi, salına salına giderken birden bire tanıdık bir yüz ile karşılaşmış.
+Hemen teklifsizce elini o çehre sahibinin omuzuna koyarak, sormaya başlamış.
+- İmanım, seni iyice gözüm ısırıyor. Acaba nerede gördüm, Fenerdeki Çardaklı meyhanede mi?
+- Hayır.
+- Öyleyse, Tavukpazarı'ndaki Küprü'de.
+- Hayır.
+- Eh, o halde, mutlaka Uzunodalar'da.
+- Hayır.
+- Allah Allah... Bari söyle de meraktan kurtulayım.
+- Herhalde sen beni selamlık ettiğin zaman görmüş olacaksın.
+Bektaşî karşısındaki adamın padişah olduğunu anlamış. Artık söyleyecek söz bulamamış. Hemen oraya sırtüstü yatarak:
+- Ey ahali... Ben kalıbı değiştiriyorum, buyurun cenaze namazına, diye
+bağırmış.</t>
+  </si>
+  <si>
+    <t>Çocuğa Dua</t>
+  </si>
+  <si>
+    <t>Adamın biri hasta yatmakta olan çocuğuna okuyup dua etmesi için bir Bektaşi babasını çağırmış. Bektaşi gelip çocuğun başında okuyup üfleyerek elini sürüp “İnşallah bu çocuk ölür” demiş.
+Bu duruma canı sıkılan ev sahibi ses çıkarmadan Bektaşi'yi yolcu etmiş.
+Aradan birkaç gün geçince hasta çocuk iyileşip ayağa kalkmış ve bir gün Bektaşi’ye rastlayan adam:
+- Baba erenler, geçen günler seni götürüp hastamıza dua etmeni istemiştik. Siz aksine beddua ettiniz. Fakat Allah'a çok şükür çocuk iyileşti. Senin kötülüğün yanına kaldı, diye tepki gösteren adama Bektaşi fütursuzca:
+- Oğlum, o sıra benim Allah ile aram yoktu. Dediklerimin hep aksini yapıyordu. Ben öyle istedim ki çocuğa sıhhat versin...</t>
+  </si>
+  <si>
+    <t>Üstünlük</t>
+  </si>
+  <si>
+    <t>Din adamları bir gün Padişaha gidip:
+- Şehrimizde Meşreb adında divane bir genç var. On altı yaşlarında olmasına rağmen çıplak gezip bizi utandırmakta, derler.
+- Nerede peki şimdi? diye sorar Padişah.
+- Mezarlığa kaçtı, efendim. Diye cevap verirler.
+Padişah, Meşrebin huzuruna getirilmesi için bir adamını gönderir.
+Meşreb gelen elçiye:
+- Beni rahat bırakın. İşi olan adam, işi düşünce uğrar. Benim Padişahla işim yok! Eğer ben ona lazımsam, kendi gelsin, der.
+Elçi, Meşrebin cevabını Padişaha iletir. Padişah bu duruma sinirlenerek, mezarlığa gider. Padişahın sinirle geldiğini gören Meşreb, iki tane kemik bulup, yola çıkar:
+-Neden çağırdığımda gelmedin, Padişahın emri her kul için geçerlidir! Diye bağırır Padişah.
+-Şu kemiklerden hangisi Padişahın, hangisi dilencinindir söyler misiniz? Der Meşreb:
+- Bunların hepsi aynı, Padişahın-dilencinin diye ayırmak olur mu?
+Diye cevap verir Padişah.
+-Madem ki, der Meşreb alaycı bir tavırla, ölürken Padişah da dilenci
+de bir ise, neden şimdi beni diğerlerinden ayırıp, üstünlük
+taslıyorsun?</t>
+  </si>
+  <si>
+    <t>Zeytin</t>
+  </si>
+  <si>
+    <t>Bektaşi'nin biri hiç zeytin ağacı görmemiş. Bir gün zeytin ağacı olan bir memlekete gelmiş ve üzerinde zeytin bulunan bir ağacın yanına gelerek bir zeytin koparmış. Yemek için ağzına atmış ki çok acı. O zaman Bektaşi:
+- Hey Allah'ım, bunu Kuran'da methetmişsin ya, tadına bakmamışsın.</t>
+  </si>
+  <si>
+    <t>Yağmur Duası</t>
+  </si>
+  <si>
+    <t>Köyün birinde yağmur duasına çıkarlar. Bektaşi de bunların peşine takılır. Cemaatin arkasından giderken eline geçirdiği bir ağaç dalını kendi tarlasına dikerek başını yukarı kaldırır.
+"Bizim tarla da işte burası. Bari iyice bir yağmur yağdır da sulansın" der.
+Yağmur duası bitince herkes evine döner ve o akşam şiddetli bir yağmur ve dolu yağar. Bektaşi sabahleyin tarlasını gezmeye gider. Bir de ne görsün, dolu bilhassa kendi tarlasındaki ekinleri mahvedip toprağa katmış. O vakit de başını yukarı kaldırarak Allah'a şöyle hitap eder:
+- Kabahat sende değil, sana tarlayı gösteren pezevenkte.</t>
+  </si>
+  <si>
+    <t>Acayip Namaz</t>
+  </si>
+  <si>
+    <t>Karaağaçtaki Bektaşi tekkesi dervişlerinden birkaçı, nevalelerini alarak Kâğıthane'ye gidip köprüye yakın bir yere yerleşir, içmeye başlarlar. Tam cümbüşlendikleri sırada Üçüncü Selim'in saltanat kayığı, pek yakından görünmesiyle ne yapacaklarını şaşırırlar ve içlerinden birinin uyarısı üzerine acele kalkıp birden namaza dururlar. Fakat nevaleleri kaldırıp saklamaya vakit bulamadıklarından sürahiler, kadehler, meze takımları meydanda kalır.
+Padişah, ağır ağır giden kayıkta bunları seyre başlar. Bunlar da hiç kıyamı bozmazlar. Padişah bir müddet baktıktan sonra gülerek:
+- Bu ne acayip namaz; hiç rükûu, sücudu yok, çekinmesinler, zevklerinde olsunlar, diye kendilerine haber ve ihsan gönderir.</t>
+  </si>
+  <si>
+    <t>Mahkumlar</t>
+  </si>
+  <si>
+    <t>Bektaşî tarikatına mensup ileri gelenlerden birisi vilayette vali olup iyi yönetimiyle herkesin saygısını ve sevgisini kazanır.
+Bir gün vali hapishaneyi gezip mahkumların durumlarını görmek ve yerinde incelemek amacıyla hapishane müdürünü yanına alarak koğuşları dolaşmaya başlar. Mahkumların hepsine birer birer sorar. Hepsi kendilerinin suçsuz olduklarını, oraya garez ve iftira ile sokulduklarını iddia ederler.
+Nihayet biri:
+- Efendim ben falan suçu işledim ve muhakkak cezası olmak üzere buraya getirildim, deyince valinin hoşuna gider. Hemen hapishane müdürüne:
+- Bu fena adamı burada, bu kadar suçsuz ve masumlar arasında bırakmak doğru değildir. Çünkü hepsinin ahlakını bozar. Şimdi bunu tahliye edip buradan kovunuz, emrini verir ve doğru söylediği için adam hapishaneden gönderilir.</t>
+  </si>
+  <si>
+    <t>Erik</t>
+  </si>
+  <si>
+    <t>Ramazan ayında Bektaşi'nin birini ağzında erikle görmüşler.
+- Bu ne hal efendim! İftara daha çok var, demişler. Bektaşi de;
+- Ben bunu ağzıma koydum ki iftara kadar yumuşasın sonra yiyeceğim, demiş.</t>
+  </si>
+  <si>
+    <t>Dilencinin Duası</t>
+  </si>
+  <si>
+    <t>Dilencinin biri el açmış dileniyor, hem de dua ediyormuş.
+Bektaşi yirmi lira vermiş;
+- Duanı istemem, demiş.
+Dilenci şaşkınlıkla sormuş:
+- Niye duamı istemiyorsun ki?
+- Yahu senin duan kabul olsaydı, kendini kurtarır da dilenmezdin!</t>
+  </si>
+  <si>
+    <t>Öküzler</t>
+  </si>
+  <si>
+    <t>Bektaşi'ye sormuşlar.
+- Dünya öküzün boynuzlarının üstünde duruyormuş, ne diyorsun bu işe?
+- Valla onu bilmem ama buna inanan öküzlerin olduğunu biliyorum, demiş.</t>
+  </si>
+  <si>
+    <t>Ya Balıkları Düşünürse</t>
+  </si>
+  <si>
+    <t>Bektaşi çok dalgalı bir denizde yolculuk yapıyormuş. Bir ara o kadar korkmuş ki! "Aman Allah" diye yakınmış.
+Bu hali gören yolcular:
+- Baba ne korkuyorsun. Allah kerimdir!, demişler. Bektaşi şu cevabı vermiş:
+- Kerim olduğu için, ya balıkları düşünürse!</t>
+  </si>
+  <si>
+    <t>Ne Düşünüyor?</t>
+  </si>
+  <si>
+    <t>Bir Bektaşi, eşeğine odun yükleyip şehre gelirken karşıdan tüccar kılıklı iki adam karşılarına çıktı. "Su zındıkla alay edelim!" diye Bektaşi’ye yanaşıp selam verince Bektaşi de durur, merkebi de.
+Tüccarlar işaretle:
+- Bu eşeğin ne düşünüyor?
+- Odun taşımaktan yorgun düştü de, artık kasabada ticaret yapmayı düşünüyor!</t>
+  </si>
+  <si>
+    <t>Allah'In İşi</t>
+  </si>
+  <si>
+    <t>Bir gün yolda yaya giden bir Bektaşi'nin önüne bir atlı çıktı:
+- Baba! Bir müşkülüm var. Beni aydınlatır mısın? dedi.
+Bektaşi yanıt verdi:
+- Elimden gelen bir şeyse, hay hay oğlum.
+- Şunu öğrenmek istiyorum, şu anda Allah ne yapıyor?
+Sualin münasebetsizliğine içerleyen Bektaşi, hiç belli etmemiş:
+- Yanıt veririm ama bir şartla, sen o attan in, ben bineyim.
+- Neden?
+- Böyle yüksek bir suale yüksekten yanıt vermek gerekir de ondan!
+Adam attan inmiş, Bektaşi binmiş. Adam:
+- Hadi, demiş. Söyle bakalım. Allah şimdi ne yapıyor?
+Bektaşi:
+- Ne yapacak, demiş. Atı senin gibi bir budalanın elinden alıp, benim gibi bir akıllıya veriyor, demiş ve ata kamçıyı basıp uzaklaşmış.</t>
+  </si>
+  <si>
+    <t>Her Şey Allah'Tan</t>
+  </si>
+  <si>
+    <t>Bektaşi'nin biri her gün kasabada "Her şey Allah'tan, Her şey Allah'tan" diye mırıldanarak dolaşır dururmuş. Bir gün kasabanın serseri delikanlılarından biri yine böyle mırıldanarak dolaşmakta olan Bektaşi'ye arkasından sessizce yaklaşmış, ensesine okkalı bir şaplak atmış. Canı fena halde yanan Bektaşi'nin pür hiddet dönüp kendisine ters ters baktığını görünce;
+- Öyle ne bakıyorsun baba erenler demiş, hani her şey Allah'tandı.
+- Tabii demiş Bektaşi, her şey Allah'tan da ben hangi deyyusu aracı ettiğine bakıyorum.</t>
+  </si>
+  <si>
+    <t>Tamam Mahkeme Bitti</t>
+  </si>
+  <si>
+    <t>Yoksulun biri, son parasıyla fırında bayat bir ekmek almış, aşçıya gitmiş, pişen yemeğin buharına ekmeği tutup yumuşata yumuşata yemiş.
+Dışarı çıkarken aşçı yapışmış:
+- Parasını ver!
+- Yemek yemedim ki!
+- Olsun buharda yumuşattın!
+Kadıya çıkmışlar, olayı anlatmışlar, kadı Bektaşiymiş, cebinden kesesini çıkarıp bozuk paraları iki avucuna boşaltmış, aşçının kulağının dibinde sallaya sallaya şıkırdatmış:
+- Tamam mahkeme bitti, gidin!
+Aşçı itiraz etmiş:
+- Hani benim param!
+- Buhardan yemeğin parası şıkırtıyla ödenir.</t>
+  </si>
+  <si>
+    <t>Üzüm Bağı</t>
+  </si>
+  <si>
+    <t>Sultan Abdülmecid bir gün Boğaziçi'nde büyük bir bağın tam ortasındaki köşkünde oturan bir Bektaşi babasını ziyarete gitmiş. Bektaşi, o gün komşu bağdaki bir arkadaşını ziyarete gitmiş. O dönünceye kadar padişah bağın her tarafını dolaşmış. Bektaşi dönünce karşılıklı konuşmaya başlamışlar;
+- Erenler bağın maşallah çok büyük. Üzümünü ne yapıyorsun?
+- Müritlerle ve canlarla birlikte yeriz Sultanım.
+- Buradaki üzüm yemekle biter mi?
+- Yemediğimizi de sıkıp fıçılara basar, suyunu içeriz.
+- Peki ama, sıkılmış üzüm şarap olmaz mı?
+- Vallahi Sultanım, biz üzümü sıkıp fıçılara basarız. Allah ne isterse o olur. Üst tarafına karışmak haddimize mi?</t>
+  </si>
+  <si>
+    <t>Şeytanın İşi Yok Da</t>
+  </si>
+  <si>
+    <t>Tecavüz davasıyla bir çapkın mahkemeye getirdiler. Yargıç olan Bektaşi sordu:
+- Bu suçu ne diye işledin?
+Delikanlı:
+- Şeytana uydum. Bana yol gösterdi, bu isi yaptırdı, deyince Bektaşi gürlemiş:
+- Be hey çapkın! Hz. Adem'e bile secde etmemek için cennetten kovulmayı göze alan şeytanın işi gücü yok da sana pezevenklik mi yapacak.</t>
+  </si>
+  <si>
+    <t>Osmanlı zamanında yağmur kıtlığı varmış. Hoca, Bektaşi ve cemaat yağmur duasına çıkmışlar herkes tarlaları dolaşırken Bektaşi kendi tarlasını dua ederken elleriyle göstermiş ve sonra yağmur yağmış öyle yağmış ki herkes tarlasına bakmaya gitmiş. Tarlalara vardıklarında herkesin tarlası iyiymiş fakat Bektaşi'nin tarlasını sel basmış ve Bektaşi şaşırmış ve ellerini havaya kaldırarak;
+- Allah'ım suç sende değil sana bu tarlayı gösteren bende, demiş.</t>
+  </si>
+  <si>
+    <t>Eşektir Bir Hata Etmiş</t>
+  </si>
+  <si>
+    <t>Erenlerden bir tanesi bir gün Camiyi uzaktan gören bir söğüt ağacının altında demlenirken, ufacık bir sıpa hoplaya zıplaya açık olan cami kapısından içeriye girer.
+Birkaç dakika sonra Hoca sıpayı döve döve kanlar içinde kapıya çıkartır.
+Bunu gören Bektaşi:
+- Hoca yazıktır, ufacık sıpayı neden dövüyorsun? Demiş.
+Hoca:
+- Görmüyor musun hayvan camiye girmiş, deyince;
+Bektaşi:
+- Hoca eşektir, bir hata etmiş girmiş, bak ben giriyor muyum...</t>
+  </si>
+  <si>
+    <t>Farzı Da Bırak</t>
+  </si>
+  <si>
+    <t>Koyu sofu bir adamcağızla Bektaşi, bir başka kente gitmek üzere bir kervana katıldılar. Sofu, ikindi üzeri namaz kılacağını söyledi. Bektaşi:
+- Geç kalırsan kervanı kaçırırsın; onun için sünneti bırak da yalnız farzı kılıver, diye öğüt verdi. Bektaşi'nin sözüne uydu adam. O gece bir yerde konakladılar. Ertesi sabah sofu, Bektaşi'ye sitem etti:
+- Dün bana sünneti kıldırmadın, gece rüyama Peygamber Efendimiz girdi. Bektaşi adamın sözünü ağzına tıkadı:
+- Daha ne istiyorsun! Farzı da bırak rüyana bu kez Tanrı girsin!</t>
+  </si>
+  <si>
+    <t>Abdest Dinin Temeli</t>
+  </si>
+  <si>
+    <t>Hoca efendinin biri köylüleri köy meydanında etrafına toplamış onlara dini konular hakkında bilgiler veriyordu. Bir ara İslam'ın şartının 5 olduğunu ve bunlardan birinin de namaz kılmak olduğunu söyledi ve ekledi. Namaz kılmak için abdestli olmak gereklidir dedi. Ondan sonra son sözünü söyledi.
+- Cemaat unutmayın, ABDEST DİNİN TEMEL DİREĞİDİR.
+O sıralarda konuşmayı dinleyen Bektaşi dayanamayıp sordu;
+- Hoca efendi bu nasıl direktir ki bir yellenmede yıkılıveriyor.</t>
+  </si>
+  <si>
+    <t>Bir Gün Fazla</t>
+  </si>
+  <si>
+    <t>Adamın birine sormuşlar:
+- Bu Ramazan kaç gün oruç tuttun?
+- Hastalığım nedeniyle, ancak bir gün tutabildim! Demiş.
+Aynı soruyu, orada bulunan Bektaşi'ye sorunca, Bektaşi hiç istifini bozmadan cevap vermiş:
+- Bu arkadaş benden bir gün fazla tutmuş!</t>
+  </si>
+  <si>
+    <t>Aç Gezerken Kimse Bir Şey Sormuyor</t>
+  </si>
+  <si>
+    <t>Bektaşi'yi Ramazanda öğle vakti yemek yerken yakalayıp sıkıştırmışlar:
+-Neden oruç yiyorsun?..
+Bektaşi:
+-Ulan, demiş, aç gezerken kimse bir şey sormuyor; bugün yiyecek bir şey buldum, hepiniz üstüme geliyorsunuz!..</t>
+  </si>
+  <si>
+    <t>Hepsini Aldattım</t>
+  </si>
+  <si>
+    <t>Müthiş bir fırtına patlamıştı. Yolcuların hepsi perişan durumdaydı. Bunların arasında bir de Bektaşi vardı. Baktılar, Bektaşi, Allah'a yalvarıp yakarmaya başlamış:
+- Adını bilmediğim bir evliyaya bir koç adıyorum. Yeter ki fırtına dinsin...
+Bektaşi'nin yakarması kaptanın tuhafına gitmişti:
+- Hayret! Hiç adını bildiğin bir evliya yok mu?
+- Olmaz olur mu, elbette var, diye cevap verdi ve devam etti, var da, hepsini birer kez aldattım...</t>
+  </si>
+  <si>
+    <t>Büyük İşler</t>
+  </si>
+  <si>
+    <t>Bektaşi'nin ticarete atılacağı bir dönemde 1 milyona ihtiyacı vardır. Camiye gider ve başlar dua etmeye:
+- Allah'ım bana 1 milyon ticarete atılacağım...
+- Allah'ım bana 1 milyon ticaret yapacağım...
+Hemen yanındaki dilenci:
+- Allah'ım bana 1 lira ekmek parası. Bunu duyan Bektaşi hemen çıkarır 1 lirayı verir ve:
+- Şimdi defol git, gözüme görünme, böyle ufak işlerle Allah'ı meşgul etme. Kör müsün burada büyük işlerle uğraşıyoruz!</t>
+  </si>
+  <si>
+    <t>Bir Tepsi Baklava</t>
+  </si>
+  <si>
+    <t>Mevlevi, Bektaşi ve Softa yemekten sonra ikram edilen bir tepsi baklava için rüyaya yatarlar. En hayırlı rüyayı gören baklavayı alacak.
+Öneri kabul edilir. Yatar uyurlar. Sabah olunca Sofu:
+- Ne rüya gördünüz anlatın bakalım?
+Mevlevi sikkesini başına geçirerek:
+- Hayırdır inşallah göklere çıktım.
+Hoca da:
+- Ben ise rüyamda cennete gittim, deyince,
+Bektaşi:
+- Erenler, ben de gece birinizin göklere uçtuğunu, diğerinizin de cennette gezdiğini görünce, artık bunlar fani dünyaya dönmezler' diyerek kalkıp baklavayı temizledim, der.</t>
+  </si>
+  <si>
+    <t>Toprak İle Yoğurulmuş</t>
+  </si>
+  <si>
+    <t>Softaların arasına düşen Bektaşiyi neredeyse zorla camiye sokmuşlar. Herkes abdestini almış. Namaza başlamışlar.
+Softalardan birisi Bektaşi'ye çıkışmış;
+- Erenler, abdest almadınız. Bektaşi:
+- İmanım, bizim hamurumuz toprakla yoğrulmuştur, pek su ile oynamaya gelmez.</t>
+  </si>
+  <si>
+    <t>Şımartmayın</t>
+  </si>
+  <si>
+    <t>Bektaşi bir gün yolda yürüyormuş bir dilim karpuz bulmuş. Bunu kabuğuna kadar yemiş sonra bir köşede oturmuş. Onun ardından gelen sofu kabuğunu yemiş başlamış şükre "yarabbim sana çok şükür, verdiğine vereceğine bin defa şükür" demiş.
+Bunu duyan Bektaşi kızgın kızgın sofunun yanına gelmiş.
+- BRE MELÜN BEN DİLİMİNİ BULDUM ŞÜKRETMEDİM SEN KABUĞUNA ŞÜKREDİYORSUN. ŞÜKREDİN, ŞÜKREDİN ŞIMARTIN YUKARDAKİNİ ŞIMARTIN</t>
+  </si>
+  <si>
+    <t>Niyet</t>
+  </si>
+  <si>
+    <t>Bektaşi'ye, sahurda sorarlar:
+– Oruca nasıl niyet etmeli?
+Bektaşi, tıka basa yedikten sonra cevap verir:
+– Dayanırsam tutarım, dayanamazsam yutarım diye niyet edip ağzını çalkalamalı.</t>
+  </si>
+  <si>
+    <t>Bir Eşek Bir Öküz</t>
+  </si>
+  <si>
+    <t>İki softa, ramazanda bedava yiyip içeriz diye bir Bektaşi köyüne misafir olurlar. Hoşbeşten sonra, içlerinden biri tuvalete gider.
+Bektaşi, bu softaları kontrol etmek için odada kalana sorar:
+– Senin arkadaşın nasıl bir adam? Bilgisi var mı, yok mu? O da kendini üstün göstermek için "Bırak şunu, eşeğin tekidir", cevabını verir. Biraz sonra öteki softaya da aynı soruyu sorar:
+– Senin arkadaşın nasıl bir adam? Bilgisi var mı, yok mu?" Bu softa da öteki gibi "Bırak şunu, öküzden farkı yoktur" cevabını verir.
+Akşam olunca iftar sofrası kurulur. Fakat tepsinin üzerinde arpa ile samandan başka bir şey göremeyen softalar hayretle sorarlar:
+– Bunlar ne erenler? Bektaşi gülerek cevap verir:
+– Biriniz eşek, diğeriniz öküz. Sizin için bunlardan daha iyi azık olur mu?</t>
+  </si>
+  <si>
+    <t>Ramazan Niye Bize Gelsin Ki?</t>
+  </si>
+  <si>
+    <t>Bektaşiyi, öğle vakti, tek odalı evinde, sofrasını kurmuş, peynir ekmek yerken gören sofu öfkelenmiş:
+- Ayıp ayıp... demiş, senin eve Ramazan girmedi mi?..
+Bektaşi lokmasını yutmaya çalışırken ham sofuyu yanıtlamış:
+- İmanım! Konaklar, köşkler, saraylar, gökdelenler, lüks apartmanlar, villalar varken mübarek Ramazan bizim tek gözlü eve uğrar mı?..</t>
+  </si>
+  <si>
+    <t>Size Düşmez</t>
+  </si>
+  <si>
+    <t>Paşalardan biri, dostlarından bir Bektaşi ile sohbet ederlerken, namazdan konu açılır. Paşa sorar:
+- Erenler, borcunuz var mı?
+- Evet, bakkal Mehmet Ağaya on lira borcum var.
+- Hayır öyle değil, namaz borcunu sordum, deyince Bektaşi:
+- Onu Allah sorar. Sizin soracağınız ancak bakkal borcudur...</t>
+  </si>
+  <si>
+    <t>Eşekliğinden</t>
+  </si>
+  <si>
+    <t>Dostlarının baskılarına dayanamayan Baba Erenler, camiye gitmiş, hocanın vaazını dinliyordu.
+Hoca, içkinin kötülüğünü anlatmak için aklına ne geliyorsa söylüyordu.
+Bir ara şöyle dedi:
+- Bir eşeğin önüne, bir kova su ile bir kova şarap koysanız, hangisini içer?
+- Elbette ki suyu içer.
+- Peki neden şarabı içmez?
+Bektaşi dayanamayıp seslendi:
+- Neden olacak, eşekliğinden...</t>
+  </si>
+  <si>
+    <t>Seferiyim !</t>
+  </si>
+  <si>
+    <t>Bektaşiyi oruç yerken yakalayıp Kadının huzuruna çıkarmışlar. Kadı sormuş:
+- Oruç yiyormuşsun...
+Bektaşi istifini bozmamış:
+- Seferiyim efendim
+Mahalleli karşı çıkmış:
+- Yok, Baba Erenleri tanıyoruz, biliyoruz, kırk yıldır bizim burada oturur...
+Bektaşi, Kadıya dönmüş:
+- Onlar bilmez, demiş, ben seferiyim... Kadı:
+- Nasıl oluyor bu? Bektaşi:
+- Ahiret yolcusuyum...</t>
+  </si>
+  <si>
+    <t>Bu Dünyadan Bir Gavur Eksilsin</t>
+  </si>
+  <si>
+    <t>Bektaşi hastalanmış; "ölecek miyim" diye evhamlanıyor; pek yakın dostu olan mahallenin papazını çağırmış.
+- Hristiyan olmak istiyorum. Papaz sormuş:
+- Neden?.. Bektaşi:
+- Madem ki öteki dünyaya gidiyorum, bari bu dünyadan bir gavur eksilsin...</t>
+  </si>
+  <si>
+    <t>Senin İçin De Bir Rekat Kılarım</t>
+  </si>
+  <si>
+    <t>Cami imamı bir gün Bektaşiyi yakalamış:
+- Gel ulan, hatırım için bir namaz kıl! Demiş.
+Bektaşi razı olmuş:
+- Eh, senin hatırına bir rekat kılayım!
+Baba Erenler bir rekat kıldıktan sonra camiden ayrılınca hemen haber vermişler:
+- Senin hanım, sizlere ömür
+Bektaşi eşeğine atlamış, eve gitmek için deh demiş, hayvan bir türlü yürümüyor, bizimki merkebin kulağına eğilip fısıldamış:
+- Ulan yürü! Yoksa senin için de bir rekat kılarım...</t>
+  </si>
+  <si>
+    <t>Bir Besmele Çeker Cennete Gider</t>
+  </si>
+  <si>
+    <t>Vaktiyle Ortaköy'de Bektaşi ile Papaz çok dost imişler, yedikleri içtikleri ayrı gitmezmiş. Bir gün Bektaşi'ye haber vermişler:
+- Hemen gel, Papaz çok hasta...
+Bektaşi varmış bakmış ki dostu ölüm döşeğinde yatıyor. Bektaşi'yi görünce Papazın dudakları titremeye başlamış, konuştu konuşacak.
+Baba Erenler hemen eliyle Papazın ağzını kapatmış.
+Çevreden bozulanlar sormuşlar:
+- Ne yapıyorsun yahu? Bektaşi:
+- Ben bu pezevengi bilirim, demiş, şimdi bir besmele çeker, doğru Cennet'e gider...</t>
+  </si>
+  <si>
+    <t>Kim Bilir Sana Ne Kadar Kızmıştır</t>
+  </si>
+  <si>
+    <t>Sofunun biri namazdan sonra 99 kere Allah'ın adını anarak tespih çekermiş...
+Bektaşi bir gün sofuya adıyla seslenmiş:
+- Osman
+- Buyur
+- Osman
+- Efendim
+- Osman
+- Ne var?
+- Osman
+- Bir şey mi diyeceksin?
+- Osman
+- Emret
+- Osman
+Osman'ın sabrı tükenmiş, dayanamayıp ayağa kalkmış, Bektaşi'nin yakasına yapışmış:
+- Osman dediğin yeter be herif, ne diyeceksen de!..
+Bektaşi:
+- İmanım, demiş, ben sana beş altı kez "Osman" dedim, öfkelendin, ayağa kalktın, neredeyse beni dövecektin; sen her namazdan sora 99 kez yukarıdakinin adını söylüyorsun, kim bilir o sana ne kadar kızmıştır...</t>
+  </si>
+  <si>
+    <t>Ya Kazığa Oturtsalardı</t>
+  </si>
+  <si>
+    <t>Bektaşi, Papaz dostuna sormuş:
+- Bana bak, siz Hristiyanlar ikide bir neden istavroz çıkarıyorsunuz?
+Papaz:
+- Yahudiler Hazreti İsa'yı çarmıha gerdiler ya, peygamberimizi anıyoruz.
+Bektaşi:
+- Şükredin ulan, demiş, ya İsa'yı Avrupa'daki gibi kazığa oturtsalardı, ne yapacaktınız?</t>
+  </si>
+  <si>
+    <t>Su Katıyorlar</t>
+  </si>
+  <si>
+    <t>Bektaşinin birini Ramazanda içki içtiği için yaka paça kadıya götürürler. Çakırkeyif Bektaşiyi görür görmez kadı:
+- Behey kafir! Bu yaşta hala içiyorsun bu zıkkımı. Utanmıyor musun? Bilmiyor musun haram olduğunu?" Diye çıkışınca, Bektaşi;
+- Sırtınızdaki ipek kaftan da haramdır, diye karşılık verir. Kadı:
+- Bunun içine pamuk katarlar, deyince, Bektaşi:
+- Dünyada doğru adam mı kaldı, şaraba da yarı yarıya su katıyorlar...</t>
+  </si>
+  <si>
+    <t>Ne Varsa</t>
+  </si>
+  <si>
+    <t>İleri gelen bir Bektaşi'yi sıkıştırmak için bir dostu sorar:
+- Erenler, Sünnilerin camisi var, Hristiyanların kilisesi, Yahudinin de havrası var. Peki sizin neyiniz var?
+Bektaşi gevrek bir kahkaha atarak dostuna yanıt verir:
+- İşte onlardan geri ne varsa hepsi bizimdir!</t>
+  </si>
+  <si>
+    <t>Meyhane</t>
+  </si>
+  <si>
+    <t>Bektaşiyi, rica minnet camiye götürmüşler. Hoca başlamış anlatmaya:
+- Bir yer vardır ki orada, zengin fakir ayrımı yoktur. Dertli giren neşeli olur. Oraya giren herkesin gönlü ferahtır. Bilin bakalım, burası neresidir?
+Bektaşi yanıt vermiş:
+- Neresi olacak, tabiî ki meyhane...</t>
+  </si>
+  <si>
+    <t>Boş Çuval</t>
+  </si>
+  <si>
+    <t>Bektaşi'ye sormuşlar:
+- Zamanla çok oy alan partilere sonunda ne olur?
+Bektaşi:
+- Dakka dukka olur, demiş.
+Çevresindekiler pek anlamamışlar.
+Bektaşi'ye tekrar sormuşlar:
+- Yahu nedir şu dakka dukka?
+- Boş çuval demektir, içi boşalan çuval dik durmaz ve dakka dukka diye ses çıkarmaya başlar, demiş Bektaşi</t>
+  </si>
+  <si>
+    <t>İçmeye Utanmıyor Musun?</t>
+  </si>
+  <si>
+    <t>Bektaşi'yi Afyonkarahisar'da elinde rakı şişesiyle dolaşırken yakalamışlar, doğru karakola:
+Karakoldan yasağı çıkaran valinin karşısına çıkarmışlar.
+Vali:
+- Bre zındık rakı içmeye utanmıyor musun?
+- Rakı içtiğimi nereden çıkarıyorsunuz?
+- Elinde rakı şişesi var!
+- Oooo, işimiz var! Bende zina aleti de var, bunun da mı hesabını soracaksınız!</t>
+  </si>
+  <si>
+    <t>Erkek Evladım Olursa</t>
+  </si>
+  <si>
+    <t>Üç tane kızı olan bir adam:
+- Allah'ım bana bir erkek evlat verirsen iki yaşına gelince eşeğin sırtında minareye çıkaracağım; söz, der.
+Ve gün gelir bir erkek evladı olur.
+Çocuk iki yaşına gelmiştir, artık babanın sözünü tutması gereklidir. Eşeği ve çocuğu alıp caminin yolunu tutar. Başlar minarenin kapısında hayvanı çekiştirmeye, orada oturan Bektaşi'nin dikkatini çeker bu iş.
+- Hayrola, der Bektaşi.
+Adam anlatır hepsini Bektaşi gülerek:
+- Boş ver şimdi bunları gel bir kadeh rakı içelim
+- Adam hırsla hayır ben Müslümanım.
+- Yahu gel o zaman çengiye gidelim şuracıkta, der.
+- Adam itiraz eder haşa ben Müslümanım.
+Bektaşi sinirlenir:
+- Bre adam hayvanı ne yoruyorsun, al çocuğu sırtına hadi çık minareye.</t>
+  </si>
+  <si>
+    <t>Papaz Ve Hoca</t>
+  </si>
+  <si>
+    <t>Papaz ile hoca kilisenin önünden geçerken karşılaşırlar o sırada kilisenin tepesine bir kuş konar. Papaz:
+- Bu kuşun devamlı kiliseyi pisliyor. Bu kuş sizdendir kesin, diye söylenir.
+Hoca:
+- O zaman iki tas koyalım birine şarap birine su koyalım; su içerse bizden, şarabı içerse sizdendir, der.
+Papaz teklifi mantıklı bulur. Taslar çan kulesine konur.
+Kuş gelir her ikisini de içer.
+Bunun üzerine Papaz sorar:
+- Hoca bu ne iştir? diye.
+Hoca şöyle bir düşünür ve yanıtı yapıştırır.
+– Ne sizden ne bizden bu kuş yüzde yüz Bektaşi'dir</t>
+  </si>
+  <si>
+    <t>Bir Ye, Bin Şükret!</t>
+  </si>
+  <si>
+    <t>Sıcak bir ramazanda adamın biri sokakta şapurdata şapurdata karpuz yiyerek yürüyormuş.
+Bektaşi:
+- İmanım, dikkat et, icabına bakarlar, demiş.
+Adam yanıtlamış:
+- Ben Müslüman değilim!..
+Bektaşi:
+- Öyleyse bir ye, bin şükret!..</t>
+  </si>
+  <si>
+    <t>Sahur Meselesi</t>
+  </si>
+  <si>
+    <t>Bektaşi babasına sormuşlar:
+- Baba erenler, Ramazan hakkında ne düşünüyorsun?
+Bektaşi babası:
+- Vallahi... İftara bir şey dediğim yok ama, şu sahuru da öğleye alsalar daha iyi olurdu, demiş.</t>
+  </si>
+  <si>
+    <t>Bitti Diye</t>
+  </si>
+  <si>
+    <t>Softa, ramazan ayının sonuna doğru, mahalle kahvesinde demiş ki:
+- Mübarek ramazana doyamadık, yine gidiyor...
+Bektaşi hemen yanıtlamış:
+- İmanım yalan söyleme!.. Ramazanı sevseydiniz "bitti" diye bayram yapmazdınız.</t>
+  </si>
+  <si>
+    <t>Çocuksu Fıkralar</t>
+  </si>
+  <si>
+    <t>Yüz Yıkamak</t>
+  </si>
+  <si>
+    <t>Annesi uykudan uyanan Temel'i her zamanki gibi uyardı.
+- Günaydın uşağum, sofraya oturmadan önce yüzünü yıkıyacasun.
+Temel boş boş annesinin yüzüne baktı...
+- Ne oldi niye bakaysun?
+- Anacuğum biraz önce rüyada suya düştum. Yüzümi yıkamasam olmaz mi?</t>
+  </si>
+  <si>
+    <t>Üç Kamburlu Hayvan</t>
+  </si>
+  <si>
+    <t>İki arkadaş hayvanlar hakkında konuşuyorlardı:
+Biri diğerine sordu:
+- Sırtında kamburu olan hayvana ne denir?
+- Bunu herkes bilir deve tabi ki.
+- Tamam peki ya iki kamburu olana ne denir?
+Arkadaşı bilmiş bir tavırla cevap verir:
+-Hecin devesi...
+Arkadaşı şaşırır ve soruyu biraz daha zorlaştırır.
+- Peki bunu da bil o zaman, üç kamburu olana ne denir?
+- Ona da kamburu çıkmış hecin devesi derler :)</t>
+  </si>
+  <si>
+    <t>İki Haber</t>
+  </si>
+  <si>
+    <t>Afacanlığıyla ünlü Cenk karnesini arkasına saklayarak babasına yaklaştı:
+- Babacığım sana iki haberim var; biri iyi, biri kötü.
+- Önce iyi haberi söyle bakalım.
+Cenk:
+- Bu dönem karnemde hiç zayıf not yok.
+Babası:
+- Aferin oğluma, peki kötü haber ne?
+- Biraz önce söylediklerim yalandı.</t>
+  </si>
+  <si>
+    <t>Vallahi Billahi</t>
+  </si>
+  <si>
+    <t>Bir öğretmen öğrencisine sormuş:
+- Yavrum, hiç ömründe yemin ettin mi?
+- Vallahi billahi ömrümde hiç yemin etmedim öğretmenim, demiş.</t>
+  </si>
+  <si>
+    <t>Moraran Gözler</t>
+  </si>
+  <si>
+    <t>Mert ile arkadaşı bir gün kavga eder. Mert'in gözü morarır. Eve gidince annesi sorar;
+- Gözüne ne oldu? Mert cevap verir;
+- Arkadaşımla kavga ettik. Annesi de der ki;
+- Sana börek çörek vereyim, arkadaşınla barışın.
+Mert börekleri alıp götürür ve arkadaşına verir.
+Diğer gözü de morarmış şekilde eve gelir. Annesi şaşırır ve sorar;
+- Bu sefer ne oldu oğlum? Mert der ki;
+- Arkadaşım, daha çok börek çörek istiyormuş anne.</t>
+  </si>
+  <si>
+    <t>Fil Sütü</t>
+  </si>
+  <si>
+    <t>Teneffüs saatinde iki arkadaş okul bahçesinde konuşuyorlardı.
+- Bugün bir bebek gördüm, fil sütü içerek bir haftada on kilo almış.
+- Çok garip, kimin bebeğiymiş bu?
+- Filin</t>
+  </si>
+  <si>
+    <t>Cennete Gitmek</t>
+  </si>
+  <si>
+    <t>Din dersin de öğretmen sorar:
+- Sen söyle bakalım çocuğum, cennete gitmek için ne olmak lazımdır?
+- Ölmüş olmak gerekir öğretmenim!...</t>
+  </si>
+  <si>
+    <t>Lokum</t>
+  </si>
+  <si>
+    <t>Ali, Ahmet ve Ayşe bakkala girer. Ali der ki "Ben bir lokum alıcam" bakkalcı merdiveni getirir ve çıkıp yukarıdan lokumu getirir ve Ayşe'ye sorar sen ne alacaksın o da bir lokum ister adam bıkmış bir halde merdiveni tekrar koyar ve lokumu eline alır aşağı inmeden Ahmet'e sorar sende mi bir lokum istiyorsun Ahmet hayır der bakkalcı aşağı iner ve Ahmet'e sorar sen ne istiyorsun?
+- İki lokum, der.</t>
+  </si>
+  <si>
+    <t>Kardeşinin Adı</t>
+  </si>
+  <si>
+    <t>Küçük Ömer'in bir kardeşi dünyaya gelmiş. Okulda öğretmeni sormuş:
+- Kardeşinin adı ne?
+- Bilmem, ne söylediği hiç anlaşılmıyor ki.</t>
+  </si>
+  <si>
+    <t>Büyüyünce Ne Yapacaksın</t>
+  </si>
+  <si>
+    <t>Misafirliğe gelen teyze yeğeni küçük kıza sordu:
+- Büyüyüp annen kadar olduğunda sen ne yapacaksın bakalım güzelim?
+- Ben annem gibi olunca rejim yapacağım teyze...</t>
+  </si>
+  <si>
+    <t>Hediye Gitar</t>
+  </si>
+  <si>
+    <t>Cenk, müzik eğitimi alıyordu. Dayısı ona bir gitar hediye etti. Bir gün dayısı:
+- Çalabiliyor musun gitarı? Faydası oluyor mu?
+diye sordu. Cenk tebessümle cevap veri:
+- Hayır, ama çok işime yarıyor, çok kazanıyorum. Gündüzleri çalmamam için 20 lira, geceleri de 50 lira veriyor babam.</t>
+  </si>
+  <si>
+    <t>Annene Sor</t>
+  </si>
+  <si>
+    <t>Çocuk, gazete okumakta olan babasına sorar:
+- Babacığım, haritada bir türlü bulamıyorum, Nevşehir nerede?
+Babası:
+- Annene sor evladım! Evde her şeyin yerini o bilir...</t>
+  </si>
+  <si>
+    <t>Çatalla Yedi̇m</t>
+  </si>
+  <si>
+    <t>Annesi kekten bir dilim daha koparmaya çalışan oğluna;
+- Yeterince verdim. Birazdan misafir gelecek, senden rica ediyorum elini bile sürme. Tamam mı evladım? Söz mü? demiş.
+Ali, büyük bir kararlılıkla;
+- Söz veriyorum anneciğim, yanıtını vermiş.
+Bir süre sonra misafirlere ikram etmek için keklerin bulunduğu tabağın örtüsünü açan annesi bir tek dilimin bile kalmadığını görünce, oğlunu karşısına alıp;
+- Bana söz vermiştin, hani elini bile sürmeyecektin oğlum? diye sorunca, Ali;
+- Vallahi elimi bile sürmedim, çatalla yedim anneciğim, demiş.</t>
+  </si>
+  <si>
+    <t>Paralar</t>
+  </si>
+  <si>
+    <t>Anaokulunda bir öğretmen, çocuklara paraları öğretmeye çalışıyordu. Cebinden bir 1 lira çıkarıp çocuklara gösterdi ve sordu;
+- Bilin bakalım çocuklar bu ne?
+- Ön sıralarda oturan küçük bir çocuk aceleyle cevap verdi
+- Tura!</t>
+  </si>
+  <si>
+    <t>Ben Gitmişim</t>
+  </si>
+  <si>
+    <t>Öğretmen, sınıfta Leyla`ya sordu:
+- Eğer ben gitmişim dersem, bu yanlış olur neden?
+- Çünkü hala buradasınız öğretmenim!</t>
+  </si>
+  <si>
+    <t>Uzun Kısa Kollu</t>
+  </si>
+  <si>
+    <t>Anne, oğlunun üstünü başım kirli görünce seslenir:
+- Oğlum, akşama misafirler gelecek, biraz temizlen.
+Oğlan merakla sorar:
+- Uzun kollu mu giydireceksin, kısa kollu mu? Ona göre yıkanayım.</t>
+  </si>
+  <si>
+    <t>Yutulan Bilye</t>
+  </si>
+  <si>
+    <t>Doktorun karşısına iki küçük çocuk gelmiş. Birisi:
+- Bir bilye yuttum. Onu çıkarmanızı istiyorum.
+Doktor öteki çocuğa sordu:
+-Ya sen ne istiyorsun?
+- Onun yuttuğu bilye benim de, almaya geldim...</t>
+  </si>
+  <si>
+    <t>Sisli Hava</t>
+  </si>
+  <si>
+    <t>Annesi okuldan dönen Emre'ye sordu:
+-Yavrum, dışarıda hava nasıl?
+Emre cevap verdi:
+- Göremedim anneciğim, çok sis vardı.</t>
+  </si>
+  <si>
+    <t>Futbolu Öğrenmiş</t>
+  </si>
+  <si>
+    <t>Küçük Mert'le babası güç bela tribüne girdiler. Maç başladı. Mert'in boyu yetişmediğinden dolayı sahayı göremiyordu. Babası, ensesine oturttu.
+Mert zaman zaman penaltı, korner, faul diye bağırıyor, gol olunca
+yerinde duramıyordu.
+İkinci golden sonra babası ensesinden indirdi, birkaç tokat attı.
+Yanlarında oturan adam:
+- Ne vuruyorsun ahbap? Futbolu iyi öğrenmiş çocuk.
+- Futbolu öğrenmiş de, çişim geldi demesini öğrenememiş!</t>
+  </si>
+  <si>
+    <t>Televizyon Delisi</t>
+  </si>
+  <si>
+    <t>Canberk televizyona fena alışmıştı. Her şeyi televizyon gözlüğüyle
+görüyordu. Bir gün annesi şiddetli soğuk algınlığından yatağa düşmüş, göğüs ağrısından konuşamıyordu. Akşam babası gelince sordu:
+-Annen nasıl oğlum?
+-Görüntü fena değil ama ses gitmiş!</t>
+  </si>
+  <si>
+    <t>Hangisi Senin Baban?</t>
+  </si>
+  <si>
+    <t>Küçük Mert, nefes nefese karakoldan içeri girer.
+-Koşun polis amca, biri babamı dövüyor!
+Polis sokağa fırlar. İki adamın alt alta, üst üste yuvarlandığını görür.
+-Evlâdım sen merak etme. Ben şimdi onları ayırırım.
+Söyle bakalım hangisi senin baban?
+-Ben de bilmiyorum.
+Zaten onlar da bu yüzden kavga ediyorlar!</t>
+  </si>
+  <si>
+    <t>Her Şey Yolunda</t>
+  </si>
+  <si>
+    <t>Küçük Alican 5 yaşına kadar hiç konuşmamıştı ve ailesi bu duruma çok üzülüyordu. O gün kahvaltıda birden: "Nerde bu kahrolası şeker?" dedi.
+Babası nerdeyse küçük dilini yutacaktı, annesi sevinçten ağlamaya başladı: "Oğlum sen konuşabiliyorsun, şimdiye kadar niye tek kelime
+etmedin?" Alican asık suratla: "Şimdiye kadar her şey yolundaydı!"</t>
+  </si>
+  <si>
+    <t>Bakkal Çırağı</t>
+  </si>
+  <si>
+    <t>Bakkal, yeni çırağına çıkıştı:
+-Oğlum, müşteriye yok denir mi? Biraz önceki müşteriye ülker biskivüsü tükendi, ama eti biskivüsü var. Aralarında hiç fark yoktur, demen gerekirdi..
+Ertesi gün bakkal mal almaya gitti. Biraz sonra bir müşteri geldi, tuvalet kağıdı istedi.
+Çırak bakındı, tuvalet kağıdını bulamadı. Gözü ustasının gitmeden önce rafları parlatmak için aldığı zımpara kağıdına ilişti:
+-Tuvalet kağıdı kalmadı ama, iyi zımpara kağıdımız var efendim..</t>
+  </si>
+  <si>
+    <t>Balık Yağı</t>
+  </si>
+  <si>
+    <t>Çocuğuna balıkyağı içirmenin tek çaresi, ufaklığın her balıkyağı içişinde kumbarasına 50 lira atmak ve biriken parayı ufaklığa vermekti.
+Kaya her yemekten sonra balıkyağı içti, kumbarası kısa sürede doldu.
+Kumbara açıldı, Kaya'nın sevinç çığlıkları arasında para sayıldı. Sonra babası gülümsedi:
+-Çok güzel, bu parayla üç şişe daha balıkyağı alırız.</t>
+  </si>
+  <si>
+    <t>Kaybolan Dişler</t>
+  </si>
+  <si>
+    <t>Çocuğun yüzünü mosmor gören annesi:
+-Yine mahalledeki çocuklarla kavga etmişsin. Bak iki dişini de kaybetmişsin.
+Çocuk boynunu bükerek cevap vermiş:
+-Hayır, dişlerimi kaybetmedim anneciğim. Bak cebimde duruyorlar.</t>
+  </si>
+  <si>
+    <t>Mahcup Olmayalım</t>
+  </si>
+  <si>
+    <t>Konuklar gittikten sonra annesi kaşlarını çattı:
+-Bugün beni çok utandırdın Orhan.
+-Neden anneciğim?
+-Sana kaç kez söyledim,"Eve konuk gelince insan oturduğu yerden
+kalkıp hoş geldiniz der, el sıkar, gelenlere yer gösterir." dedim. Sen koşup baş köşeye kuruluyor, bir daha yerinden kalkmıyorsun.
+-Ama babam öyle demiyor.
+-Ne diyor?
+-"Orhan" diyor, "konuklar gelince hemen koşup kanepenin sağ yanına otur. Kanepenin kumaşı yırtılmış, annen de bir türlü dikmiyor.
+Kimseye mahcup olmayalım."</t>
+  </si>
+  <si>
+    <t>Noel Baba</t>
+  </si>
+  <si>
+    <t>Noel, Postanede çalışan memurlar yılbaşı günü Noel Babaya yazılmış bir mektuba rastlarlar. Tabii Noel Baba diye birisi olmadığı için mektubu kendileri açıp okurlar. Mektupta söyle yazıyordur. "Sevgili Noel Baba. Ben 10 yaşında bir çocuğum. Hiç kimsem yok. Yetimhanede kalıyorum. Diğer arkadaşlarıma birçok hediye geldi ama bana hiç hediye getiren olmadı. Senden üç şey istiyorum. Bana bir kalem, bir kalem kutusu, birde ayakkabı. Gönderirsen çok sevinirim"
+Memurlar mektubu okuyunca çocuğa çok acırlar. Kimsesiz çocuğu mutlu etmek ve noel babaya olan inancını sarsmamak için kendi aralarında para toplayıp hediyeleri kendileri almaya karar verirler. Kalem ve ayakkabıyı alırlar, para yetmediği için
+kalem kutusunu alamazlar. Aldıkları hediyeleri gönderdikten günler sonra çocuktan teşekkür mektubu gelir. Mektup şöyledir:
+"Sevgili Noel Baba, gönderdiğin hediyeleri aldım. Beni çok memnun ettin. Gönderdiğin hediyelerden birisi gelmemiş. Onu da herhalde postanedeki şerefsizler almıştır."</t>
+  </si>
+  <si>
+    <t>Ekmek Parası</t>
+  </si>
+  <si>
+    <t>Küçük Ali babasına sordu:
+-Babacığım, insanlar niçin bu kadar çok çalışıyor?
+-Ekmek parası için...diye karşılık verdi babası.
+-Peki, öyleyse fırıncılar niçin çalışıyor?</t>
+  </si>
+  <si>
+    <t>Boks Hakemi</t>
+  </si>
+  <si>
+    <t>Günlerden bir gün baba oğlunu alıp karşısına oturtur, der ki;
+- Oğlum iki senedir, okula gidip geliyorsun, sadece ona kadar sayabiliyorsun. Ne olacaksın sen bu gidişle bilmem...
+Çocuk babasına gülümseyerek:
+- Babacığım, merak etme, ben boks hakemi olmaya karar verdim, der.</t>
+  </si>
+  <si>
+    <t>Şeker</t>
+  </si>
+  <si>
+    <t>Küçük Onur 4-5 yaşlarına gelince annesine sormuş:
+-Anne ben nasıl dünyaya geldim?
+Annesi:
+-Bir aksam baban bir seker aldı ve yastığın altına koydu. Sabah bir baktık ki sen varsın.
+Bunu duyan Onur durur mu, hemen aynı akşam gitmiş bir şeker almış ve yastığın altına yerleştirmiş... Sabah kalkmış ki bir de ne görsün. Şekerin kokusunu alan karıncalar yastığın altına üşüşmüş. Bunun üzerine Onur:
+-Ahhh ahh hepinizi öldürürdüm ama baba yüreği dayanmıyor.</t>
+  </si>
+  <si>
+    <t>Tarih Tekrarladı</t>
+  </si>
+  <si>
+    <t>16 yaşındaki oğlan babasının yanına geldi: -Babacığım, hatırlıyor
+musun? Hani vaktiyle sen babanın arabasını ilk aldığında kaza yaptığını ve arabanın hurdahaş olduğunu söylemiştin?
+-Evet oğlum.
+-Yine hatırlıyor musun? Hani "Tarih tekrardan ibarettir" demiştin?
+-Evet oğlum.
+-Bugün tarih tekrarlandı da babacığım!</t>
+  </si>
+  <si>
+    <t>Elma Ağacı</t>
+  </si>
+  <si>
+    <t>Sınıf olarak çiftliğe gitmişlerdi. Dolaşırken sınıfın ukalası Mehtap, meyve bahçesinde çalışan çiftçiye:
+- Ne kadar eski usulle çalışıyorsunuz böyle! Eğer öyle çalışmaya devam ederseniz, örneğin bu ağaçtan yılda on kilo bile elma alamazsınız, demişti.
+- Haklısın kızım, diye onayladı çiftçi.
+- Elbette on kilo elma alamayız, çünkü o bir armut ağacı...</t>
+  </si>
+  <si>
+    <t>Yarışma</t>
+  </si>
+  <si>
+    <t>Yarışmada ikinci olan Sude koşarak babasının yanına gider. Baba baba, der. Koşu yarışmasında ikinci oldum. Babası, aferin kızıma kaç kişi yarıştınız?
+- 2 kişi yarıştık, der.</t>
+  </si>
+  <si>
+    <t>Müzedeki Koltuk</t>
+  </si>
+  <si>
+    <t>Mert, yaz tatilinde ailesi ile birlikte Paris'e gitmişti. Bir
+müzeyi gezerken yorulmuş, oradaki koltuklardan birine oturuvermiş. Bir müddet sonra müze memuru Mert'e yaklaşıp:
+- Küçük, buraya oturulmaz. Bu, 14. Lui'nin koltuğudur deyince Mert hiç rahatını bozmadan demiş ki:
+- Sorun değil amca, o gelince ben hemen kalkarım.</t>
+  </si>
+  <si>
+    <t>Küçük afacan, komşusunun bahçesindeki elma ağacına çıkmıştı. Tam bir tane kopardığı sırada komşunu onu suç üstü yakaladı. Öfkeyle:
+"Ne yapıyorsun orada bakayım?" diye bağırdı.
+Yaramaz çocuk soğukkanlılıkla:
+"Bir şey yapmıyorum amca" dedi, "bir elma düşmüştü de onu yerine yapıştırmaya çalışıyorum."</t>
+  </si>
+  <si>
+    <t>Çivi</t>
+  </si>
+  <si>
+    <t>Bir gün Ali annesinden çekiç ister. Annesi ne yapacaksın diye sorar Ali'ye. Ali tahta arabamın çivisi çıktı onu çakacağım der. Annesi olmaz oğlum çekici eline vurursun der. Ali vallahi vurmam anne çiviyi kardeşim tutacak der.</t>
+  </si>
+  <si>
+    <t>Babaanne Ve Torun</t>
+  </si>
+  <si>
+    <t>Bir gün babaanne protez dişlerini çıkarır. Torunu der:
+- Babaanne sen sihirbaz mısın?
+Babaanne:
+- Evet torunum.
+Torun:
+- O zaman gözlerini de çıkar.</t>
+  </si>
+  <si>
+    <t>Vinç</t>
+  </si>
+  <si>
+    <t>Birinci sınıfa başlayan çocuklara öğretmen, babalarının mesleklerini soruyordu:
+-Söyle bakalım Tuna, baban ne iş yapıyor?
+Tuna:
+-Otobüsleri kaldırıyor efendim, dedi. Bir sıra önde oturan bir çocuk yanındaki arkadaşına yavaşça sordu:
+-Pekiyi anlayamadım, neymiş babası? Arkadaşı büyük bir saflıkla cevap verdi:
+-Vinçmiş, vinç!</t>
+  </si>
+  <si>
+    <t>Takma Dişler</t>
+  </si>
+  <si>
+    <t>İlkokul öğretmeni öğrencilerine sorar:
+- Söyleyin bakalım çocuklar, insanda en son hangi dişler çıkar?
+Sınıfta bir süre sessizlik olur, sonra sınıfın en arkasından bir öğrenci el kaldırır:
+- Ben biliyorum öğretmenim!
+- Söyle bakalım!
+- En son takma dişler çıkar öğretmenim!</t>
+  </si>
+  <si>
+    <t>Yavaş Mektup</t>
+  </si>
+  <si>
+    <t>Tekin, teyzesinin kızı Ömür’e mektup yazıyordu. Bir ara annesi sordu:
+— Ne yazıyorsun Tekin?
+— Ömür’e mektup yazıyorum anneciğim!
+— Niçin o kadar yavaş yazıyorsun? Çabuk yazsana oğlum.
+— Ömür çabuk okuyamaz ki, anneciğim… Ben de okuyacağı hızda yazıyorum işte…</t>
+  </si>
+  <si>
+    <t>Haftalık Harçlık</t>
+  </si>
+  <si>
+    <t>Dede torununa:
+- Yavrum, senin gündeliğin 10 lira olsa, haftalığın ne kadar olur? diye sorar.
+Zeki çocuk hemen cevaplar:
+- 70 lira.
+Dede;
+- Aferin torunum, doğru bildin. Al sana 70 lira, der.
+Çocuk içinden "Keşke 100 lira deseydim" diye hayıflanır.</t>
+  </si>
+  <si>
+    <t>Koltuk Altı Spreyi</t>
+  </si>
+  <si>
+    <t>Bir gün Karadenizli Temel çocuklarına sorar;
+- Çocuklar! Benim koltuk altı spreyim nerede? Çocuklar hep bir ağızdan;
+- Biz onu bütün koltukların altına sıktık...</t>
+  </si>
+  <si>
+    <t>Yerdeki Şeyler</t>
+  </si>
+  <si>
+    <t>Bir kadın ve torunuyla yolda yürürken çocuk yolda para görmüş.
+- Nine bak para?
+Nine yoluna devam etmiş, torununa seslenmiş,
+- Yerden bir şey alınmaz, gel buraya...
+Çocuk yerde bu kez bir oyuncak görmüş.
+- Nine bak oyuncak.
+Nine aynı cevabı vermiş yoluna devam etmiş.
+Yollarına devam ederlerken nine muz kabuğunun üstüne basıp yere düşmüş ve torunundan kendisini kaldırmasını istemiş.
+Torunu olaya hakim bir şekilde;
+- Yerden bir şey alınmaz...</t>
+  </si>
+  <si>
+    <t>Yaramaz Torun</t>
+  </si>
+  <si>
+    <t>Anneannesi torununu yanında oynamakta olan torununa sordu:
+- Seni kaç zamandır uslanmış görüyorum. Artık yaramazlık yapmıyorsun değil mi?
+Torunu, çocuk saflığıyla şu cevabı verdi:
+- Artık akıllandım anneanne. Annemle, babamın kızdıkları şeyleri, gizli yapıyorum.</t>
+  </si>
+  <si>
+    <t>Soğuk Su</t>
+  </si>
+  <si>
+    <t>Bir yaz tatilinde torun dedesinin evine kalmaya gitmiş. Dedesiyle yemek yapacaklarmış ama tavalar, tabaklar, bardaklar çok kirliymiş torunu demiş ki;
+- Dede, bunlar çok kirli. Dede ise;
+- Soğuk su böyle temizler, demiş.
+Meğer köpeğin adı soğuk suymuş</t>
+  </si>
+  <si>
+    <t>Sabunla</t>
+  </si>
+  <si>
+    <t>Anne çocuğuna;
+- Ellerini sabunla yanıma gel, demiş. Çocuk ellerini sabunlamış ama yıkamamış. Annesinin yanına koşmuş. Annesi neden ellerini sabunlu bıraktığını sorunca çocuk:
+- Sen bana ellerini sabunla dedin ben de sabunladım geldim, demiş.</t>
+  </si>
+  <si>
+    <t>Tek Gözü Mor Canavar</t>
+  </si>
+  <si>
+    <t>Bir gün Kerem bir otele gitmiş ve otelde hiç oda kalmadığını sadece canavarlı odanın kaldığını söylemişler. Oda ben korkmam deyip odaya girmiş tam uyuyacakken dolaptan bir ses gelmiş ve Kerem
+- Kim var orada? der.
+- Ben tek gözü mor canavar, der.
+Kerem de; Eğer hemen yatıp beni rahat bırakmazsan senin öteki gözünü de ben morartırım, demiş</t>
+  </si>
+  <si>
+    <t>Apartman Zi̇li̇</t>
+  </si>
+  <si>
+    <t>Ufak bir çocuk apartmanın ziline basmaya çalışıyormuş.
+Oradan geçen ihtiyar amca çocuğa yardım etmek istemiş.
+- Hangi zile basmak istiyorsun evladım
+- İkinci zile amca
+Amca zile bastıktan sonra
+-Şimdi ne yapacaksın? diye sormuş
+Çocuk da cevap vermiş;
+- Şimdi kaçalım amca</t>
+  </si>
+  <si>
+    <t>Köpekçilik</t>
+  </si>
+  <si>
+    <t>Bir gün çocuk kardeşiyle oynarken aniden ağlamaya başlamış. Annesine koşmuş.
+- Anne kardeşim bana köpek dedi. Annesi;
+- Aa! kardeşin hiç böyle bir şey yapmaz ki, peki ne zaman dedi? Çocuk;
+- Köpekçilik oyarken</t>
+  </si>
+  <si>
+    <t>Altı Ceviz</t>
+  </si>
+  <si>
+    <t>Kayserili çocuğa babası sorar:
+- Oğlum sendeki cevizlerden üç tanesini istiyorum. Kaç cevizin kaldı? Çocuk:
+- 6 der. Babası:
+- Nasıl altı ben senden üç tane cevizi istiyorum, der. Çocuk:
+- Baba sen istiyorsun da ben vermiyorum ki...</t>
+  </si>
+  <si>
+    <t>Matematikçinin Evi</t>
+  </si>
+  <si>
+    <t>Bir gün iki arkadaş birlikte eve giderken matematikçinin evinin önünden geçiyorlarmış, bakmışlar matematikçinin evi yanıyor, çocuklardan biri demiş;
+- Hey! Bak matematikçinin evi yanıyor, demiş. Diğer çocuk da demiş ki;
+- Bir şey olmaz, matematikçi değil mi o her sorunu çözer.</t>
+  </si>
+  <si>
+    <t>Mantarlar</t>
+  </si>
+  <si>
+    <t>Birkaç çocuk ormanda mantar topluyormuş. Orman görevlisi çocukları görünce sinirlenip yanlarına gitmiş:
+- Ne yapıyorsunuz burada?
+- Mantar topluyoruz amca!
+- Evladım mantarın zehirli olup olmadığını bilmeden nasıl yiyorsunuz?
+- Amca biz bunları yemiyoruz ki satıyoruz.</t>
+  </si>
+  <si>
+    <t>Tatlı Koyarken</t>
+  </si>
+  <si>
+    <t>Küçük çocuk ninesine;
+- Senin gözlüklerin her şeyi büyütüyormuş, doğru mu nine?
+- Evet yavrum, neden sordun?
+- Ne olursun nineciğim, tabağıma tatlı koyarken gözlüğünü çıkar olur mu?</t>
+  </si>
+  <si>
+    <t>Afacan Ve Annesi</t>
+  </si>
+  <si>
+    <t>Afacan'ın annesi Afacan'ın ne dersi olduğunu merak edip odasına girer. Afacan ders çalışmaktadır.
+Annesi Afacan'a sorar:
+- Ders konunuz ne?
+- Türkçeden "zaman" anneciğim, der.
+- Peki söyle. "Ben güzeldim." geçmiş zaman olur. Peki, "Ben güzelim." ne olur, diye sorar.
+Afacan da:
+- Büyük bir yalan olur anneciğim, der.</t>
+  </si>
+  <si>
+    <t>Kaybolan Elli Lira</t>
+  </si>
+  <si>
+    <t>Alican bir gün yolda ağlayarak gidiyormuş ve bir kadın sormuş:
+- Niye ağlıyorsun evladım?
+Alican:
+- Elli liramı kaybettim, demiş.
+Kadın, Alican'a elli lira vermiş ve Alican daha da çok ağlamaya başlamış.
+- Şimdi niye ağlıyorsun evladım deyince, Alican'ın cevabı şu olmuş:
+- Elli liramı kaybetmeseydim şimdi yüz liram olacaktı...</t>
+  </si>
+  <si>
+    <t>Melekler Uçar Mı?</t>
+  </si>
+  <si>
+    <t>Bir küçük kız annesine sorar;
+- Anne melekler uçar mı? Anne:
+- Evet kızım uçar. Kız:
+- Gerçekten mi? Anne:
+- Evet kızım, gerçekten. Kız:
+- Peki bizim hizmetçi kız niye uçmuyor? Anne:
+- Niye uçsun ki kızım? Kız:
+- Babam hep ona meleğim diye sesleniyor da... Anne:
+- Bekle kızım, birazdan uçacak!</t>
+  </si>
+  <si>
+    <t>Çocukların Duası</t>
+  </si>
+  <si>
+    <t>Bir kaç kişi yanlarına ilkokul çocuklarını alıp kıra yağmur duasına çıktılar. Birisi:
+- Nereye götürüyorsunuz bu çocukları? Diye sordu.
+- Yağmur duasına götürüyoruz. Çocukların duası kabul olurmuş da. Dediler. Adam:
+- Çocukların duası kabul olsaydı, dünya yüzünde bir öğretmen bile kalmazdı!</t>
+  </si>
+  <si>
+    <t>Öğretmen Olurum</t>
+  </si>
+  <si>
+    <t>Annesi, ders çalışmayan oğluna sinirlenerek çıkıştı:
+- Okuyup yazmaya pek hevesin yok senin, senden bir şey olmayacak bu gidişle!
+Oğlu hemen itiraz etti:
+- Olur mu annecim, ben de öğretmen olurum! Öğrencilerim okur ben dinlerim.</t>
+  </si>
+  <si>
+    <t>Kafesteki Aslan</t>
+  </si>
+  <si>
+    <t>Küçük Asena, babası ile şehrin hayvanat bahçesini gezmeye gitti. Teker teker gördükleri hayvanları, babası ona izah ederken bir ara aslan kafesinin önüne geldiler.
+- Baba neden ona kral diyorlar? Çok yırtıcı ve kuvvetlidir de ondan. Şu anda bir dışarı çıksa hepimizi parçalar.
+- Peki, seni de parçalar mı?
+- Parçalar tabii yavrum.
+Asena, bir an düşündükten sonra:
+- Babacığım, diye atıldı. Eğer aslan seni parçalarsa, benim eve hangi otobüsle dönmem gerekir?</t>
+  </si>
+  <si>
+    <t>Altına Ne Olur?</t>
+  </si>
+  <si>
+    <t>Öğretmen kimya dersinde anlatır:
+- Çocuklar, gördüğünüz gibi demir ile bakır açık havada kalınca oksitlenir. Yani paslanır. Peki altın ve gümüş açıkta kalsa ne olur?
+Bir öğrenci hemen el kaldırır:
+- Çalınır öğretmenim.</t>
+  </si>
+  <si>
+    <t>Ağırbaşlı Ayşe</t>
+  </si>
+  <si>
+    <t>Annesi ve babası gittikleri misafirlikte kızlarından bahsediyorlardı.
+- Ayşe çok ağırbaşlı dır.
+Ev sahibinin oğlu çok yaramaz bir çocuk olduğu için ailesi onun hakkında hiçbir şey söylemedi. Çocuk bu işe içerler gibi oldu. Ev sahipleri de balkondan dışarıyı seyreden Ayşe'ye bakıp
+- Gerçekten de çok ağırbaşlıymış dedi
+Evin oğlu kızgın kızgın Ayşe ye seslendi
+- Hey... Aşağıya sarkma başın ağır gelirde düşersin</t>
+  </si>
+  <si>
+    <t>Musikişinas Köpek</t>
+  </si>
+  <si>
+    <t>Küçük çocuk, keman dersi için evde prova yapıyor, babası da oturmuş gazete okuyordu. Evin köpeği de çocuğun kemanından çıkan melodilere havlayarak eşlik ediyordu. Bu gürültüde babanın gazete okuması mümkün mü?
+Bir duruyor, iki duruyor, ama ne çocuk keman çalmayı ne de öteki havlamayı kesiyordu. En sonunda baba, oğluna seslendi:
+- Oğlum, şunun bilmediği bir parça çalsana!</t>
+  </si>
+  <si>
+    <t>Bu Nasıl Ülke</t>
+  </si>
+  <si>
+    <t>Nasrettin Hoca, bir kış günü köye gitmek için yola çıkar. Her taraf buz tutmuştur. Birden çevresini köpekler sarar. Taş almak için eğilir. Ama hangi taşa el attıysa bir türlü yerinden kıpırdatamaz. Köpeklere bakarak elini açar:
+- Ey Allah'ım bu nasıl ülke? Taşları bağlayıp köpekleri salmışlar.</t>
+  </si>
+  <si>
+    <t>Okul Müdürüyle Konuşma</t>
+  </si>
+  <si>
+    <t>Bir gün okul müdürünün telefonu çalar. Müdür telefonu açar
+- Buyrun?
+- Müdür bey benim çocuğum bugün okula gelmeyecek, biraz rahatsızlandı.
+- Peki siz kimsiniz?
+- Ben mi? Der çocuk ve devam eder ben babam :)</t>
+  </si>
+  <si>
+    <t>Çok Fakirmişler</t>
+  </si>
+  <si>
+    <t>Bir gün Ayşe annesinin yanına gider ve;
+- "anneciğim üstteki komşularımız çok fakirmişler, biliyor musun?" annesi;
+-"neden yavrum, onu da nerden çıkardın" der Ayşe;
+- çocukları 50 kuruş yutmuş ne yapacaklarını bilememişler de...</t>
+  </si>
+  <si>
+    <t>En Sevilen Arkadaş</t>
+  </si>
+  <si>
+    <t>Amcası Murat'a sormuş:
+- Sınıfta en çok sevdiğin arkadaşın kim? Murat:
+- Ahmet, demiş. Amcası:
+- Neden Ahmet? Murat:
+- Geçen ders yılı bütün sınıfa grip bulaştırdı. Bu sayede 20 gün okula gitmeyip tatil yapmıştık</t>
+  </si>
+  <si>
+    <t>Kıble Neredeee</t>
+  </si>
+  <si>
+    <t>İki kardeş varmış ve bunlar çok yaramazmış. Mahallede bir şey kaybolsa cam kırılsa onlardan biliniyormuş. Anneleri şikayete dayanamamış. Çocukların elinden tutup imamın yanına götürmüş. İmam ilk önce büyüğünü çağırmış ve sormuş:
+- Oğlum kıble nerde?
+Çocuktan cevap gelmeyince bağırmış.
+- Kıble nerdeeeee!
+Çocuk camiden fırlamış, kardeşinin elinden tutmuş kaçmaya başlamış. Kardeşi sormuş:
+- Abi ne oldu?
+Abisi cevap vermiş:
+- Oğlum iş hakikaten büyüdü, kıble kaybolmuş bizden biliyorlar.</t>
+  </si>
+  <si>
+    <t>Bakkal Sevinir</t>
+  </si>
+  <si>
+    <t>Matematik öğretmeni sordu:
+- İsmail, söyle bakayım, bakkaldan 75 liralık alışveriş yapsak, 100 lira versek... Bakkal ne yapar?
+- Çok sevinir öğretmenim. :)</t>
+  </si>
+  <si>
+    <t>Bebeğin Dişleri</t>
+  </si>
+  <si>
+    <t>Evin şirin çocuğu kardeşinin ağlamalarından rahatsız olmuş olacak ki, annesine sormuş;
+- Anneciğim küçük kardeşimin nesi var?
+- Dişleri çıkıyor yavrum.
+- Öyleyse niçin bağırıyor? Yoksa diş istemiyor mu?</t>
+  </si>
+  <si>
+    <t>Beyazlayan Saçlar</t>
+  </si>
+  <si>
+    <t>Küçük çocuk bir gün annesine sormuş;
+- Anneciğim, senin kafandaki saçların neden beyazlıyor?
+Annesi;
+- Yavrum, sen beni her üzdüğünde saçımın bir teli beyazlıyor, elbette bir sebebi var!
+Çocuk annesinin duyacağı tonda başlamış cevabı yorumlamaya;
+Hımm şimdi anlaşıldı, anneannemin saçlarının neden bembeyaz olduğu!</t>
+  </si>
+  <si>
+    <t>Denizler</t>
+  </si>
+  <si>
+    <t>Küçük İrem ile Şule konuşuyorlardı:
+- Nehirler nereye dökülür?
+- Denize, tabii.
+- Hepsi mi?
+- Evet.
+- Öyleyse deniz neden taşmıyor?
+- Tabii taşmaz. Denizin dibi sünger dolu. Suyu onlar çekiyor</t>
+  </si>
+  <si>
+    <t>Çelişki</t>
+  </si>
+  <si>
+    <t>Kızgın bir anne ile yaramaz bir çocuk arasında geçen konuşma:
+- Sana bir şey sorduğumda, cevap ver.
+- Ne söyleyeyim anne?
+- Sus! Bir de cevap veriyor...</t>
+  </si>
+  <si>
+    <t>Ders Yanlış Olunca</t>
+  </si>
+  <si>
+    <t>Bıcırık, işten gelen babasının kulağını çekmiş. Babası oğlum ne oldu diye sormuş? Bıcırık;
+- Dersim yanlış olduğu için öğretmen de benimkini çekti, demiş.Annesi:
+- Oğlum bununla babanın ne ilgisi var, demiş.
+Bıcırık da:
+- Anne her zaman ödevlerimi babam yapmadı mı, çekilen niye benim kulağım olsun! demiş.</t>
+  </si>
+  <si>
+    <t>Hokkabaz</t>
+  </si>
+  <si>
+    <t>Çocuk eve geldiğinde burnu kanıyordu. Meraklanan annesine:
+- Okula hokkabaz geldi, burnumdan üç tane 1 YTL çıkardı, dedi. Bunun üzerine annesi:
+- Ama hokkabaz göz aldatır, burun kanatmaz ki, dedi. Çocuk:
+- Zaten burnumu hokkabaz kanatmadı ki, başka para kalıp kalmadığını kontrol eden arkadaşlarım yaptı, dedi.</t>
+  </si>
+  <si>
+    <t>Temel'In Oğlu</t>
+  </si>
+  <si>
+    <t>Temel'in oğlu küçük Temel, okula gittiğinde öğretmeni sorar:
+-Temel, baban nasıl iyi mi?
+Küçük Temel:
+-Öğretmenum, babam dün akşam banyo küvetine girdi, uyudi kaldi oriya...
+Öğretmen şaşkın:
+-Uyudu mu? Desene sular evi bastı, ev mahvoldu...
+Küçük Temel sakin:
+-Yooo öğretmenum öyle olmadi, çünki babam ağzı açuk uyur</t>
+  </si>
+  <si>
+    <t>Tarih Sınavı</t>
+  </si>
+  <si>
+    <t>Baba evine gelen oğluna sormuş:
+- Bugünkü tarih sınavın nasıl geçti? Çocuk:
+- Çok iyi geçmedi babacım. Baba:
+- Neden ki oğlum? Çocuk:
+- Suç bende değil. Çünkü öğretmen hep ben doğmadan önceki olayları sordu.</t>
+  </si>
+  <si>
+    <t>Hırsızın Oğlu</t>
+  </si>
+  <si>
+    <t>Yaşlı hırsız, oğlunu karşısına alıp ona bir elmayla bir bıçak verdi ve bir elini onun omzuna koyup konuştu:
+"Bak, evladım artık seninde hırsız olma yaşın geldi çattı şimdi bu işe ilk önce bir elmayı soyarak başla bakalım"</t>
+  </si>
+  <si>
+    <t>Baklava</t>
+  </si>
+  <si>
+    <t>Babası oğluna öğüt veriyordu,
+- Bugünün işini yarına bırakmayacaksın.
+Oğlu hemen annesine sesleniyor.
+- Anne! Yarına bıraktığın baklavayı getir de bugün yiyelim.</t>
+  </si>
+  <si>
+    <t>Dünyanın Uydusu</t>
+  </si>
+  <si>
+    <t>Öğretmen sözlü sınav için Ali'yi kaldırmış;
+- Dünyamızın uydusu nedir? diye sormuş,
+Ali bir türlü cevap verememiş, arkadaşı bir çimdik atmış.
+- Aayyy! Diye bağırmış. Öğretmen aferin demiş.</t>
+  </si>
+  <si>
+    <t>Tatlı</t>
+  </si>
+  <si>
+    <t>BİR GÜN ANNESİ CAN TEMBELLİK YAPTIĞI İÇİN;
+- AKŞAMA SANA TATLI YOK DEMİŞ.CAN GÜLEREK CEVAP VERMİŞ
+- SANA DA YOK ÇÜNKÜ HEPSİNİ YEDİM</t>
+  </si>
+  <si>
+    <t>Köpek</t>
+  </si>
+  <si>
+    <t>Çocuklar küçük bir köpeği çekiştiriyor ve bağrışıyorlardı. Yoldan geçen bir hanım yanlarına yaklaştı:
+- Ne diye çekiştiriyorsunuz hayvanı?
+- Şimdi karar verdik teyze. Köpek içimizde en büyük yalanı söyleyenin olacak!
+- Utanmıyor musunuz siz? Ben sizin kadarken yalan söylemeyi aklımdan bile geçirmezdim!
+- Çocuklar hep bir ağızdan bağrıştılar:
+- Braaaavoooo!!! Köpeği siz kazandınız!</t>
+  </si>
+  <si>
+    <t>Melek Çocuklar</t>
+  </si>
+  <si>
+    <t>birgün ahmet din dersinde öğretmene sorar öğretmenim çocuklar melek midir der öğretmen evet der. sonra ahmet peki melekler uçar mı der öğretmen yine evet der sonra ahmet öğretmenine eğer çocuklar melek ise meleklerde uçabiliyor ise ve biz çocuklar melek ise biz neden uçamıyoruz öğretmenim,</t>
+  </si>
+  <si>
+    <t>İkiz Kardeşler</t>
+  </si>
+  <si>
+    <t>Bir kadının ikiz iki kızı varmış, bir gün kızlarını yıkamış ve yataklarına yatırmış. Bir zaman sonra bakmış ki çocuklar kıkır kıkır gülüyorlar. kızlarına sormuş:
+- Neler oluyor neden gülüyorsunuz
+ikizlerden biri şu cevabı vermiş:
+- Anneciğim kardeşimi iki kere yıkadın beni ise hiç yıkamadın</t>
+  </si>
+  <si>
+    <t>Acınacak Haldeyim</t>
+  </si>
+  <si>
+    <t>bir gün öğretmen coğa oğlum senin deslerin çok kötü baban çok üzülcek demiş çoçuk öğretmenim babam acıya dayanıklıdır demiş öğretmen nerden biliyorsun demiş öğretmenim çünkü babam annemle evli demiş:)</t>
+  </si>
+  <si>
+    <t>Beni Kazıkladılar</t>
+  </si>
+  <si>
+    <t>nasretttin hoca bir gün 12 tane eşek alır birine biner Nasrettin hoca eşekleri saymış 11 tane eşek çıkmış Nasrettin hoca tekrar sayar ama yine 11 tane çıkar o sırada bir adam nasrettin hocaya hayrola hocam der hoca sabahtan beri sayıyorun 12 olacağına hep 11 çıkıyor bey altındakini de saydınmı der bey nasrettin hoca tekrar sayar bu sefer 12 çıkar hoca hemen demesen bende yapacaktım der</t>
+  </si>
+  <si>
+    <t>Keçi Yedi</t>
+  </si>
+  <si>
+    <t>Gülseren, ağacın altına oturmuş resim yapıyordu. Babası yanına gelerek sordu :
+-Gülseren, ne resmi yapıyorsun bakayım?
+-Çimenlikte bir keçi resmi.
+-Çimenler nerede?
+-Keçi hepsini yedi.
+-Ya keçi?...
+-Yiyecek birşey kalmayınca o da gitti.</t>
+  </si>
+  <si>
+    <t>Bebeği Kim Getirir</t>
+  </si>
+  <si>
+    <t>İlkokuldaki 3 çocuk kendi aralarında konuşuyormuş "çocuğu kim getirir?" diye Dursun "bizde bebekleri leylek getirir" demiş Fadime "bizim bebekler gül bahçesinden gelir" demiş Temel de biz fakir olduğumuzdan "annemgil kendileri yapıyo" demiş</t>
+  </si>
+  <si>
+    <t>İmam Bayıldı</t>
+  </si>
+  <si>
+    <t>BİR GÜN EVİN HANIMI HİZMETÇİYİ ÇAĞIRIR DERKİ BEBEĞİ UYUT CAMLARI SİL SALATAYI Bİ GÜZEL YAĞLA. DEMİŞ HİZMETÇİDE TMM HANIMIM DEMİŞ HANIM BİZ GİDİYORUZ DEMİŞ HİZMETÇİ NERYE ÇARŞIYA HE BİDE UNUTMADAN İMAM BAYILDI YAP AKŞAMA GÖRÜŞÜRÜZ.HİZMETÇİ İLK ÖNCE YERLERİ YAĞLAYACAKTIM, SONRA SALATAYI CİFLEYECEKTİM BİDE İMAM BAYILDI YAPACAKTIM.DUR İMAMI ARAYIM OLA İMAMLAMI GÖRÜŞÜYOM EVET BEN İMAM İMAMBEY BİZE GELİRMİSİNİZ İMAM BAYILDI YAPÇAMDA TM GELİRİM EVENİZ NERDE DEMİŞ İMAM CAMİDEN ÇIK 2 ADIM AT 16 KEZ ZIPLA 10 KEZ YÜRÜ ÖNÜNE KAPI ÇIKTIMI İMAM ÇIKTI KAPIYI ÇAL TELEFONU KAPAT HOSGELDİN İMAMCIM HOŞBULDUK NAMAZZIM YARIDA KALDI .İMAMCIM SEN NAMAZINI KIL BEN GELİYORUM .HİZMETÇİ İMAM NAMAZ KILARKEN İMAMIN KAFASINA TAVAYI VURUR İMAM BAYILIR .İMAMI KAZANA KOYAR. HİZMETÇİ BAŞKA NAPÇAKTIM BEBEĞİ DOLABA KOYACAKTIM .AKŞAM OLUR HANIMLA KIZI GELİR KAPIDAN İÇERİ GİRİNCE KAYMAYA BAŞLARLAR HANIM DER BİZE KOLAYI GETİR ÇOK SUSADIK DER. KOLAYI GETİRİR KOLA NEDEN SICAK VE ASİTİ NEDEN KAÇTI DİYE HANIM SORAR HİZMETÇİDE KOLAYI SALADIM BEBEĞİN YATAĞINA KOYDUM</t>
+  </si>
+  <si>
+    <t>Üzüntünün Nedeni</t>
+  </si>
+  <si>
+    <t>-Beni ne kadar seviyorsun abi?
+-Dünyalar kadar!Çocuk üzüldü, suratı asıldı.Ağabeyi sordu:
+-Neden üzüldün kardeşim?
+-Geçen gün babam,"Bu dünya beş para etmez ".demişti de</t>
+  </si>
+  <si>
+    <t>Acar Abidin</t>
+  </si>
+  <si>
+    <t>Bir gün acar Abidin okula geç gelmiş, sınıfa girmiş, öğretmen Abidin'e sormuş;
+- Neden geç kaldın? Abidin:
+- Arı soktu öğretmenim.
+- Tamam otur yerine.
+- Oturamam öğretmenim.
+- Niyeymiş o?
+- Arı popomu soktu da</t>
+  </si>
+  <si>
+    <t>Sanane, Banane, Terbiye</t>
+  </si>
+  <si>
+    <t>sanane banane terbiye varmış terbiye hastalanmış evde yatıryomuş sananeyle banane doktora gitmişler doktor isimlerini sormuş:
+- sanane, demiş
+diğerine sormuş:
+- banane, demiş
+sizde hiç terbiye yok mu demiş terbiye hastalandı evde yatıyor demişler</t>
+  </si>
+  <si>
+    <t>Ev Ödevi</t>
+  </si>
+  <si>
+    <t>- Ali ev ödevini yaptın mı
+- Yapamadım öğretmenin
+- Neden?
+- Ablam yoktu da...</t>
+  </si>
+  <si>
+    <t>Dondurmacı</t>
+  </si>
+  <si>
+    <t>Ahmet, dışarıdan hızla eve girdi:
+-Anne, bana para verir misin ?
+-Ne yapacaksın parayı?
+-Dışarıda bir adamcağıza vereceğim.
+-Aferin oğlum , tebrik ederim seni. Nerede bu adam, göster bakalım.
+-Dışarıda anne, dondurma satıyor... :)</t>
+  </si>
+  <si>
+    <t>Hamile Kadın</t>
+  </si>
+  <si>
+    <t>Küçük bir çocuk, hamile bir kadının karnına dokunarak:
+- Ne var sizin karnınızda teyze,
+Kadın:
+- Çocuğum var evladım, diye cevap verir.
+- Sizin çocuğunuz mu?
+- Evet
+- Onu seviyor musunuz?
+- Evet
+- Çok mu seviyorsunuz?
+- Evet evladım.
+- Öyleyse neden yediniz?</t>
+  </si>
+  <si>
+    <t>Ne Öğrendin?</t>
+  </si>
+  <si>
+    <t>Oğlunun getirdiği karneyi inceleyen baba sinirlenmiş:
+- Bu karnenin hali ne böyle? üstelik başarılı olursan sana bisiklet alacağıma söz vermiştim. Bir yıl boyunca ne öğrendin bakalım:
+- Alacağın bisiklete binmeyi öğrendim babacığım.</t>
+  </si>
+  <si>
+    <t>Temel</t>
+  </si>
+  <si>
+    <t>temele sormuşlar
+en akıl karıştırıcı sayı nedir
+54
+nerden çıktı bu
+bak nasıl aklın karıştı</t>
+  </si>
+  <si>
+    <t>Çocuğun İsmi</t>
+  </si>
+  <si>
+    <t>Yaşlı adam bir çocuğa sormuş:
+- Senin adın ne?
+Çocuk tam söyleyeceği sırada adam:
+- Dur dur! Ben tahmin edeyim, sen sadece baş harfini söyle. Çocuk;
+- Tamam baş harfi Y, demiş.
+Adam başlamış saymaya:
+- Yusuf, Yakup, Yunus... hayır. Artık yaşlı adam iyice sinirlenmiş başlamış tüm isimleri saymaya Yasemin, Yeliz, Yeşim, Yaren, Yağmur... Çocuk dayanamamış:"
+- Yamazan benim adım Yamazan, demiş.</t>
+  </si>
+  <si>
+    <t>Savaş Hazırlığı</t>
+  </si>
+  <si>
+    <t>Televizyon filminde Kızılderililerin yüzlerini boyadıklarını gören Can, sordu:
+- Baba ne yapıyorlar bunlar böyle?
+- Savaşa hazırlanıyorlar, oğlum.
+Can, ertesi sabah annesini makyaj yaparken görünce koşup babasının yanına geldi:
+- Baba, kötü şeyler olacak... Annem içerde savaş hazırlığı yapıyor!</t>
+  </si>
+  <si>
+    <t>Düştü</t>
+  </si>
+  <si>
+    <t>ablacım annemle babamın fotosuna baksana. ablası:ver bakayım.kardeş: şimdi onu bana at . abla:tamam, ay! yere Düştü!!!kardeş:tüh yaa annemle babam yere düştü .</t>
+  </si>
+  <si>
+    <t>Çocuk Dedesiyle</t>
+  </si>
+  <si>
+    <t>Küçük çocuk dedesinin kucağında otururken birden:
+Dedeciğim! Gözlerini bir yumsana! der.
+-Neden yavrucuğum?
+-Annem geçenlerde "Deden gözlerini bir yumsa çok zengin olacağız," diyordu da!</t>
+  </si>
+  <si>
+    <t>Temelcik Okulda</t>
+  </si>
+  <si>
+    <t>Temelcik öğretmenine sorar:
+- Tünyamuz pi cün yok olacak mi?
+- Evet yavrum!
+- Peçi uçan uçaklar nereye inecek?</t>
+  </si>
+  <si>
+    <t>Anneler Günü</t>
+  </si>
+  <si>
+    <t>İki küçük çocuk Pazar sabahı annelerinin yatağına gelmişler. “Bu gün Anneler Günü, sen lütfen kalkma, yat, sana bir sürprizimiz var..” demişler.
+Anne yatağına kahvaltı beklerken mutfaktan mis gibi kızarmış ekmek ve yumurtalı sucuk kokuları gelmeye başlamış. Hayli uzun bir süre sonra başka bir hareket olmayınca ‘Neler olduğunu’ merak eden anne, öğrenmek için aşağı inmiş. Çocukların ikisinin de pişirdikleri yumurtalı sucuğu yediklerini görmüş...
+“Sürprizzz...” diye bağırmaya başlamış onu gören iki çocuk aynı anda, “ Bu gün Anneler günü ve biz kendi kahvaltımızı kendimiz pişirdiiikk!”</t>
+  </si>
+  <si>
+    <t>Çocuğun Sorusu</t>
+  </si>
+  <si>
+    <t>Bir gün bir tane çocuk babasına sorar:
+baba biz nasıl dünyaya geldik?
+dedi.Baba cevap verir:
+Büyük maymunlar diğer maymunları doğura doğura biz dünyaya geldik.çocuk bu sefer annesine sorar:
+Anne biz nasıl dünyaya geldik?
+Anne cevap verir:Adem dede ve Havva ninemiz doğura doğura bizler dünyaya geldik.Çocuk şaşırır ve annesine şöyle der:
+ama anne babam büyük maymunlar doğura doğura bizler dünyaya geldik.Dedi.Annesi şöyle cevap verir:
+oğlum o babanın sülalesi...</t>
+  </si>
+  <si>
+    <t>Allah Nerede?</t>
+  </si>
+  <si>
+    <t>İki tane kardeş varmış bir şey olduğunda onlardan bilinirmiş annesi şikayetlerden bıkmış çocukları Hocaya götürmüş hoca sormuş büyük çocuğa Allah nerededir çocuk bilememiş hoca yine sormuş Allah nerededir çocuk yine bilememiş hoca kızgın Allah nerededir len demiş çocuk gardaşına dönerek:
+- Kaç gardaşım kaç Allah kaybolmuş bizden biliyorlar demiş</t>
+  </si>
+  <si>
+    <t>Kağıt</t>
+  </si>
+  <si>
+    <t>bir gün günün birinde bir adam kaldırımda sakin sakin yürür birden rüzgârın esmesiyle bir toplu kağıt havaya savrulur. Adam kağıtlara bakarken kafasına bir kağıt gelir. Kafasından o kağıdı aldıktan sonra kağıdın içindeki yazıyı okur ve kağıtta şu yazı yazar 1 TON bu yazıyı okuyan adam yere düşer ve ölür. Oradan geçen duyarlı bir vatandaş ambulans çağırır ve ambulans gelince doktarlar iner ne oldu nasıl öldü diye sorar duyarlı bir vatandaşta cevap verir ve şöyle der
+kafasına bir kağıt düştü kağıdın içinde 1 TON yazıyordu dedi.</t>
+  </si>
+  <si>
+    <t>Yıldızlar</t>
+  </si>
+  <si>
+    <t>Ögretmen, sınıfta gökyüzüyle ile ilgili bir yazı okudu.Sonra bu yazıyla ilgili çocuklara soru sordu:
+- Ayşe,bana bildiğin yıldızları sayar mısın?
+Ayşe düşünmeden yanıtladı:
+Pop yıldızları, spor yıldızları, sinema yıldızları...</t>
+  </si>
+  <si>
+    <t>Merdiven</t>
+  </si>
+  <si>
+    <t>Köyde çok yalancı bir adam varmış herkes merak etmiş. herkes yalancıyı görmek için yalancının evine gitmiş kapıyı çalmışlar. oğlu kapıyı açmış baban nerde diye sormuşlar .Çocuk:
+- Babam ayı ikiye böldü, köydeki merdivenleri toplamaya gitmiş, üst üste koyup ayı bantlayacak çıkalım demişler oğlu böyleyse babası kim bilir nasıl</t>
+  </si>
+  <si>
+    <t>Islık</t>
+  </si>
+  <si>
+    <t>Fıkra Başlığı</t>
+  </si>
+  <si>
+    <t>Dedesi</t>
+  </si>
+  <si>
+    <t>Küçük afacan elinde bir kutu şekerle parka gitmiş, bir banka oturmuş; etrafa bakınırken şekerleri ardarda ağzına atıyormuş.
+Yanındaki bankta oturan yaşlı adam çocuğa bakmış bakmış ve
+"evladım.." demiş,
+"şeker güzeldir ama çok yemek zararlıdır. hem dişlerin çürür, hem yüzünde sivilce çıkar, hem de şişmanlarsın.."
+Çocuk bunun üzerine adama dönmüş:
+"Benim dedem 107 yaşına kadar yaşadı..."
+Adam "Yaa.." demiş..
+"Yani deden de mi çok şeker yerdi?"
+"Hayır, her şeye burnunu sokmazdı!"</t>
+  </si>
+  <si>
+    <t>Böyle Mektuba Böyle Cevap</t>
+  </si>
+  <si>
+    <t>Yatılı okulda okuyan Selçuk babasına mektup yazar:
+“Kıymetli babacığım,
+Size bu mektubu yazdığım için çok utanıyorum. Beni anlayışlar karşılayacağını ümit ederim. On bin liraya ihtiyacım var. Sizden bunu nasıl istediğime ben de hayret ediyorum. Fakat biraz düşündüm ve istemekten vazgeçtim. Çünkü daha yeni on bin lira gönderdiğiniz halde tekrar istediğimden dolayı okulda ders çalışmayıp, gezip tozduğumu düşüneceksiniz. Buna rağmen bu mektubu gönderiyorum. Çünkü mektubu yazmış bulundum.”
+Selçuk mektubu yazıp bitirdikten sonra biraz düşündü ve mektubun altına şu notu ekledi:
+“Keşke para istemeseydim. Ama artık çok geç. Postacının mektubu kaybetmesini diliyorum.”
+Bir hafta sonra babasından Selçuk'a kısa bir mektup gelir:
+“Sevgili Yavrum,
+Böyle önemsiz bir şey için üzülme, istediğin yerine gelmiştir. Postacı mektubu kaybetmiş...”</t>
+  </si>
+  <si>
+    <t>Ben Gülmedim</t>
+  </si>
+  <si>
+    <t>ÇOCUK ANNESİNE ANNE BU GÜN OTOBÜSTE BİR ÇOCUK DÜŞTÜ... HERKEZ ONA GÜLDÜ AMA BEN GÜLMEDİM AFERİN OĞLUM PEKİ KİMDİ?
+-ANNECİĞİM KIZMA DÜŞEN ÇOCUK BENDİM........</t>
+  </si>
+  <si>
+    <t>Bir Avuç</t>
+  </si>
+  <si>
+    <t>AYŞE BİR GÜN MANAVA GİTMİŞ MANAVDAN İSTEDİKLERİNİ ALMIŞ. MANAV ONA BİR AVUÇ KİRAZ ALABİLİRSİN DEMİŞ. AYŞE BEKLİYORMUŞ. MANAV NİYE BEKLİYORSUN DEMİŞ. AYŞE SENİN VERMENİ BEKLİYORUM ÇÜNKÜ SENİN AVUCUN DAHA BÜYÜK DEMİŞ.</t>
+  </si>
+  <si>
+    <t>Ayşe Fatma Ali</t>
+  </si>
+  <si>
+    <t>Ayşe ali fatma diye 3 arkadaş varmış. Bu 3 arkadaş 1 gün ormana gitmişler. orada kızıderelileri görmüşler ayşe ile ali ağaca çıkmış fatma ise aşağıda kalmış kızıldereliler aşağıda olduğu için fatmayı dövmüşler ertesi gün yine aynı yere gelmişler ve yine aynı şey olmuş sonraki gün geldiklerinde yine kızılderelileri görmüşler fatma kurnazlık yapayım diyerek ali ile ayşeyi ağaçtan düşürüp kendi ağacın üzerine oturmuştuki kızıldereliler kendi aralarında şöyle konuştular: her zaman aşağıdakilerimi dcöveceğiz birazda üstekileri dövelim der ve yine ayşe dauyak yer ve kendi kendine şöyle der birdaha kurnazlık yapmaya çalışırsam allah kaynanamın iyiliğini versin.</t>
+  </si>
+  <si>
+    <t>Dünya Nasıl Düzelir</t>
+  </si>
+  <si>
+    <t>Baba, pazar sabahı neşeyle uyandı. Bütün gün miskinlik yapıp evde oturacak, elinde kahve, pencere kenarında gazeteleri evire çevire okuyacaktı.
+Ama daha kahvaltıda oğlu, sinemaya ne zaman gideceklerini sordu. Oğluna verdiği sözü tamamen unutmuştu. Bu pazar onu sinemaya götürecekti. Hay Allah! Bir bahane bulmalıydı.
+Birden masanın yanında duran gazetenin, promosyon olarak dağıttığı dünya haritası gözüne ilişti. İşte bahanesi yanı başındaydı. Haritayı alıp odaya gitti, onu makasla küçük parçalara ayırdı ve tekrar mutfağa dönerek:
+- Tamam oğlum, ama önce sana bir görev, bu haritayı düzelt, ondan sonra gidelim, dedi. Sonra da "Kendim bile bu haritayı düzeltemem artık" diye düşünüp, keyifle pencere kenarına kuruldu.
+Ama on dakika sonra çocuğu yanı başında bitmiş, sevinçle:
+- Haritayı düzelttim baba, hadi sinemaya gidelim, diyordu.
+İnanamadı ve görmek istedi. Ve hayretle içinde gördü.
+- Bunu nasıl yaptın oğlum?
+- Bana verdiğin haritanın arkasında bir insan vardı. İnsanı düzeltince dünya kendiliğinden düzeldi.</t>
+  </si>
+  <si>
+    <t>Hocanın Gazı</t>
+  </si>
+  <si>
+    <t>Bir gün hoca namaz kılarken, gaz çıkarmış hoca hemen köyü terk etmiş, aradan yıllar geçmiş, hoca karısına hanım köyü özledim köye gidelim der yolda giderken bir çobanı görür ve oğlum sen kaç yaşındasın der çoban bilmiyorum ama ben imamın osurdugu yıl doğdum der bunu duyan hoca karısına dönerek kalk hanım kalk bizim osuruk tarih olmuş der</t>
+  </si>
+  <si>
+    <t>Otobüs</t>
+  </si>
+  <si>
+    <t>Küçük çocukla babası belediye otobüsüne bindiler.
+Biletçi durmadan bağırıyordu:
+- Beyler yürüyelim!
+Her durakta yeni yolcular biniyor, biletçi bağırıyordu:
+- Yürüyelim beyler! Siz şapkalı bey, ilerleyin lütfen!
+Birkaç duraktan sonra, artık otobüste, değil yürümek, adım atacak yer kalmamıştı.
+Ama biletçinin sesi hiç kesilmiyordu:
+- Yürüyelim beyler!
+Çocuk iyice sıkışmıştı. Babasına sordu:
+- Babacığım madem ki yürüyecektik, neden otobüse bindik?</t>
+  </si>
+  <si>
+    <t>Islık Çaldım</t>
+  </si>
+  <si>
+    <t>oğlu annesinin yanına gelip
+-anne ben birşey çaldım.annesi:
+-haaaaa ne çaldın
+-ıslık çaldım anneciğim.</t>
+  </si>
+  <si>
+    <t>Hediye</t>
+  </si>
+  <si>
+    <t>Ali anneannesine:
+- Anneanne doğum gününde sana bir el aynası alacağım, demiş. Anneannesi de:
+- Hiç gerek yok Aliciğim, zaten benim bir el aynam var zaten, demiş. Alican da:
+- Zaten onu kırdığım için yenisini alacağım ya!..</t>
+  </si>
+  <si>
+    <t>Borç Para</t>
+  </si>
+  <si>
+    <t>Öğretmen, matematik sözlüsünde Mahmut'u tahtaya kaldırıp sorar:
+- Mahmut, babandan yüzde 10 faizle 200 bin borç para alsam, yıl sonunda kendisine kaç para vermem gerekir?
+Mahmut hemen cevap verdi:
+- 400 bin lira.
+- Nasıl olur oğlum, sen hiç hesap bilmiyor musun?
+- Bilmesine biliyorum da siz benim babamın ne büyük faizci olduğunu bilmiyorsunuz.</t>
+  </si>
+  <si>
+    <t>bir gün öğretmen coğa oğlum senin derslerin çok kötü baban çok üzülcek demiş çocuk öğretmenim babam acıya dayanıklıdır demiş öğretmen nerden biliyorsun demiş öğretmenim çünkü babam annemle evli demiş:)</t>
+  </si>
+  <si>
+    <t>Hostes</t>
+  </si>
+  <si>
+    <t>Öğretmen sorar:
+-Ali söyle çocuğum.Bana bir uçan memeli söyle
+-Hostes...</t>
+  </si>
+  <si>
+    <t>Tarif</t>
+  </si>
+  <si>
+    <t>çocuk kaybolmuş polis sormuş
+- eviniz nerede
+- parkın karşısında
+- park nerede
+- evimizin karşısında:))</t>
+  </si>
+  <si>
+    <t>Senin Yaşındayken</t>
+  </si>
+  <si>
+    <t>Baba çocuğuna:
+- Oğlum, Atatürk senin yaşındayken sınıfının birincisiydi, demiş.
+Çocuk da babasına cevap vermiş:
+- Senin yaşındayken de Cumhurbaşkanıydı Baba!.</t>
+  </si>
+  <si>
+    <t>Dernek</t>
+  </si>
+  <si>
+    <t>- Bir gün bir çocuk varmış o çocuk şekeri çok severmiş bunun için de çayına çok seker atarmış babası demiş ki oğlum bu gün bir derneğe gideceğiz çay içeceğiz çayına çok şeker katma demiş çocuk tamam demiş derneğe gitmişler önlerine çay gelmiş babası 2 kaşık katmış.
+çocuk 1 katmış 2 katmış 3 katmış 4 katmış 5 katmış 6 katmış tam 7. yi katarken bu da derneğin şekeri katmıyım demiş:)</t>
+  </si>
+  <si>
+    <t>Mor Göz</t>
+  </si>
+  <si>
+    <t>Birgün Temel ingiliz fıransız top oynuyolarmış top mağaraya girmiş ingiliz ben alırım demiş içeri girmiş bir ses ben mor göz demiş ingiliz korkudan kaçmış sıra fıransıza gelmiş fıransızada aynı sesle ben morgöz denmiş o da korkudan kaçmış sıra temele gelmiş temelede aynı ses ben morgöz demiş temelde demişki gelirsem öbür gözünüde ben morartırım demiş</t>
+  </si>
+  <si>
+    <t>Aradaki Fark</t>
+  </si>
+  <si>
+    <t>Irgat koşa koşa ağasının yanına gelir;
+-Ağam akşam rüyamda seni gördüm
+-Hayırdır len nasıl gördün?
+-İkimizde aynı uçakta seyahat ediyorduk.
+-Eeee
+-Sonra uçak arıza yaptı ve düştü.
+-Hayırdır inşallah,ne oldu sonra?
+-Ben bok çukuruna, sen de bal çukuruna düştün.
+-Olacak di mi o kadar fark. Ağalığım rüyada bile belli olmuş.
+-Sonra birbirimizi yalaya yalaya temizledik.</t>
+  </si>
+  <si>
+    <t>Süt Ve Ekmek</t>
+  </si>
+  <si>
+    <t>Annesiyle beraber ÇOCUĞU BERABER TARLAYA GİTMİŞLER.ÇOCUĞU ACIKMIŞ VE ANNESİNDEN YEMEK İSTEMİŞ, ANNESİDE ONA SÜTÜN İÇİNE EKMEK DOĞRAYIP VERMİŞ ÇOCUĞU YEMEK YERKEN ODA TARLAYA DÖNMÜŞ. ÇOCUK YEMEĞİNİ YERKEN SÜTÜN KOKUSU YILAN ALMIŞ. ÇOCUK YEMEK YERKEN YILAN GELİP ÇOCUĞUN SÜTÜNÜ İÇMİŞ. ÇOCUKTA ELİNDEKİ KAŞIKLA YILANIN KAFASINA VURARAK BİRAZDA EKMEĞİNDEN YE DEMİŞ.</t>
+  </si>
+  <si>
+    <t>Ben Sen</t>
+  </si>
+  <si>
+    <t>Birgün bir çocuk sayı sayıyormuş yoldan gecen herkesi sayıyormuş bir gün bir adam ne yapıyorsun demiş cocukta güvercin sayıyorum demiş adam peki kaç tane saydın deyince cocuk ben ve sen kadar saydım amca emiş...</t>
+  </si>
+  <si>
+    <t>Balıkların Suyu</t>
+  </si>
+  <si>
+    <t>Annesi Ahmet'e sordu balıkların suyunu değiştirdin mi?
+Ahmet:
+değiştirmedim
+Annesi:
+neden?
+Ahmet:
+daha koyduğum suyu içmemişler ki</t>
+  </si>
+  <si>
+    <t>Kapıdan Ayrılma</t>
+  </si>
+  <si>
+    <t>Bir gün annesi Küçük Nasreddin'e:
+- Yavrum, dereye çamaşır yıkamaya gidiyorum. Ben gelinceye kadar sakin kapıdan ayrılma, der.
+Biraz sonra amcası gelir.
+- Git annene haber ver! Akşama size geleceğiz.
+Küçük Nasreddin, amcası gider gitmez hemen evin kapısını çıkarıp sırtına yükler ve derenin yolunu tutar. Annesi, oğlunu sırtında kapı ile görünce büyük bir şaşkınlık içinde:
+- Oğlum bu kapı ne? Nasreddin cevap verir;
+- Sen bana kapıdan ayrılma dememiş miydin? İşte ben de kapıdan ayrılmadım...</t>
+  </si>
+  <si>
+    <t>Çekim Kanunu</t>
+  </si>
+  <si>
+    <t>- Çocuklar biliyor musunuz? Dünya üzerinde, yer çekimi kanunu sayesinde duruyoruz.
+- Peki öğretmenim, bu kanun kabul edilmeden önce nasıl duruyorduk?</t>
+  </si>
+  <si>
+    <t>Babam Kızıyor</t>
+  </si>
+  <si>
+    <t>Ali okula yeni başlamış
+öğretmenleri kendilerinin ve babalarının isimlerini soruyormuş.
+Sıra Ali'ye gelmiş
+adın ne yavrum?
+ali
+babanın?
+baba
+evladım babanın bir ismi yok mu?
+öğretmenim ben üç kardeşim hepimiz ona baba diyoruz ama başkaları Ahmet diyor
+ee Ahmet desene evladım
+Ahmet deyince babam kızıyor öğretmenim:):)</t>
+  </si>
+  <si>
+    <t>Kaybolan Saat</t>
+  </si>
+  <si>
+    <t>BABAYLA OĞUL FERİBOTTA GEZİYORLARDI.ÇOCUK:BABA,HERHANGİ BİR ŞEYİN NEREDE OLDUĞUNU BİLİYORSAK KAYBOLMUŞ SAYILMAZ DEĞİL Mİ?DİYE SORDU.BABA:HAYIR YAVRUCUĞUM,DEDİ.ÇOCUK DERİN BİR NEFES ALARAK:AZ ÖNCE SAATİMİ DENİZE DÜŞÜRDÜM DE,AMA KAYBOLMUŞ SAYILMAZ</t>
+  </si>
+  <si>
+    <t>Yalan Söylemek</t>
+  </si>
+  <si>
+    <t>bir gün ayşe babasına sormuş:
+-babacığım bana bir yalan söyleyebilir misin??
+baba
+:ben asla yalan söylemem!!!
+-saol babacığım</t>
+  </si>
+  <si>
+    <t>Eller Cepte</t>
+  </si>
+  <si>
+    <t>Ömer, okul koridorunda gezerken öğretmeni önünü keser;
+- Ellerin neden cebinde, ellerin mi üşüyor?. Ömer:
+- Ellerim üşümüyor, pantolonum düşüyor, demiş.</t>
+  </si>
+  <si>
+    <t>İki Parmak</t>
+  </si>
+  <si>
+    <t>Bir öğretmen;
+- Tuvaletiniz gelince iki tane parmak kaldırın bir şey söyleyecekseniz bir parmağınızı kaldırın, demiş.
+Bir gün okula bir müfettiş gelmiş. Sınıfa girmiş sınıftan bir çocuğa
+- 1 artı 1 kaç yapar? demiş.
+Öğrenci cevabı bilememiş, öğretmen de gizlice arkadan iki parmağını kaldırmış çocuk;
+- Müfettiş amca galiba öğretmenimizin çişi gelmiş.</t>
+  </si>
+  <si>
+    <t>Korkak Çocuk</t>
+  </si>
+  <si>
+    <t>furkan yatarken annesinn yanına gidip:
+-anne ben senle yatcam demiş.babası hemen araya girmiş:
+-oğlum kocaman adam oldun doğru odana git demiş. furkan:
+ama baba sen benden daha büyüksün sen neden annemle yatıyorsun
+:)</t>
+  </si>
+  <si>
+    <t>Anne Yüreği</t>
+  </si>
+  <si>
+    <t>Şule babasına sormuş:
+- Baba, ben nasıl dünyaya geldim?
+- Gece annenle yatmaya gittiğimizde yatağın çevresine şeker koyduk. Sabah kalktığımızda sen gelmiştin. Bu fikir Şule'nin ilgisini çekmiş ve denemeye karar vermiş. Yatarken yatağının çevresine şeker koymuş. Sabah bütün karınca, böcekler, vs. Yatağın çevresinde geziyormuş.
+Şule:
+– Öff! Şimdi size elimin tersiyle bir çarparım ama anne yüreği işte kıyamıyorum...</t>
+  </si>
+  <si>
+    <t>Bebek</t>
+  </si>
+  <si>
+    <t>Küçük bir kız çocuğu hamile kadına yaklaşıp sorar:
+- Karnındaki şey nedir?
+- Bebeğim.
+- Af edersiniz ama niye çocuğunuzu yediniz?</t>
+  </si>
+  <si>
+    <t>Miyav Dedik Ya!</t>
+  </si>
+  <si>
+    <t>Bir gün çoçuğun biri uyurken aşağıdan tıkırtı gelmiş ve
+-"kim o?" demiş.
+aşağıdan:
+-"miyavvv" diye ses gelmiş
+sonra tekrar tıkırtı gelmiş ve çoçuk tekrar
+-"kim o?" demiş
+bu kez
+-" miyav dedik ya " demiş</t>
+  </si>
+  <si>
+    <t>Çocuktan Al Haberi</t>
+  </si>
+  <si>
+    <t>Çocuk babasına:
+- "Babacığım,annem ile nasıl evlendin?"
+Adam eşine dönüyor:
+- "Görüyor musun, çocuk bile anlam veremiyor."</t>
+  </si>
+  <si>
+    <t>Okulu İlk Defa Görmüş</t>
+  </si>
+  <si>
+    <t>ali okula yeni başlamış okuldan gelince annesi sormuş nasıl bari öğretmen seni sevdimi ali demişki sevmedi galiba yarın birdaha gel dedi</t>
+  </si>
+  <si>
+    <t>Bu Kadar Mı?</t>
+  </si>
+  <si>
+    <t>Teyzesi küçük Aylin'e bi miktar para verir. Annesi Aylin'e;
+- Kızım, teyzene bir şey söylemen gerekmiyor mu?
+Aylin susmaya devam eder. Annesi;
+- Ben babandan para alınca ne diyorum kızım? der. Aylin'in gözleri parlar ve teyzesine dönerek;
+- Hepsi bu kadar mı?</t>
+  </si>
+  <si>
+    <t>Yağmurlu Bir Gün</t>
+  </si>
+  <si>
+    <t>Ali yağmurlu bir gün de arkadaşı Ahmet ile eve gidiyormuş. Ali her şimşek çaktığında kravatını düzeltiyormuş. Ahmet dayanamayıp sormuş:
+- Ali neden her şimşek çaktığında kravatını düzeltiyorsun?
+- Birisi sürekli fotoğrafımı çekiyor da ondan.</t>
+  </si>
+  <si>
+    <t>İki Çocuk</t>
+  </si>
+  <si>
+    <t>Bir mahallede iki çocuk oturuyormuş ne olsa onlardan bilinirmiş. Annesi bu şikayetlerden sıkılıp çocukları Rahip'e götürmüş. Rahip demiş ki çocuğum TANRI nerde demiş çocuklar ses çıkarmamış Rahip yine sormuş yine ses çıkarmamışlar Rahip sinirlenerek oğlum TANRI nerde demiş çocuk kardeşinin elinden tutup kaçırmış bir süre koştuktan sonra kardeşi demiş ki abi niye kaçıyoruz abisi demiş ki oğlum iş büyük TANRI kayboldu bizden biliyorlar demiş</t>
+  </si>
+  <si>
+    <t>1884</t>
+  </si>
+  <si>
+    <t>Küçük Temel e öğretmen sorar.
+-1881 de ne oldu.
+-Atatürk doğdu.
+-peki,1884 te ne oldu
+-Atatürk üç yaşına bastı.</t>
+  </si>
+  <si>
+    <t>O Gülmemiş</t>
+  </si>
+  <si>
+    <t>ALİCAN ANNESİNE: ANNE BU GÜN OTOBÜSTE BİR ÇOCUK DÜŞTÜ HERKEZ O ZAVLLI KISMETSİZ AMA İYİ ÇOCUĞA GÜLDÜ FAKAT BEN GÜLMEDİM ANNEİĞİM
+-AFERİM BENİM OĞLUMA PEKİ O ÇOCUK KİMDİ?
+-ANNECİM KIZMA AMA DÜŞEN ÇOCUK BENDİM...</t>
+  </si>
+  <si>
+    <t>Ana Kalbi</t>
+  </si>
+  <si>
+    <t>Ayşe annesine sorar.
+- Anne sen beni nasıl doğurdun? Annesi Ayşe'ye yastığımın altına ekmek parçası koydum, ertesi sabah kalktım sen olmuşsun. Kız da hemen ekmek parçalarını yastığının altına koymuş.
+Ertesi sabah yastığının altından karıncalar çıkmış Ayşe'de
+- Normalde ben sizi camdan atardım ama ana kalbi elvermiyor işte demiş...!</t>
+  </si>
+  <si>
+    <t>On Beş Yaş</t>
+  </si>
+  <si>
+    <t>Misafirlerden biri küçük Temel'e sordu:
+- Ha uşağum kaç yaşinda oldun pakayim?
+- On beş yaşina girdum.
+Misafir şaşkınlıkla gözlerini açarak:
+- Ula ne çabuk büyüdun sen. Daha geçen yıl yedi yaşinda değil miydun?
+- Evet geçen yıl yedi yaşinaydum. Ha bu yil da sekiz. Topla pakayim yedi ile sekizi. On beş etmeyi mi?</t>
+  </si>
+  <si>
+    <t>Ne Bilsin?</t>
+  </si>
+  <si>
+    <t>Yan yana iki villanın, ilkokul birinci sınıfa giden biri kız, diğeri erkek iki çocuğu, kendi aralarında konuşuyorlardı:
+- Büyüyünce benimle evlenir misin?
+- Hayır evlenmem! Bizim ailede akrabalar hep kendi aralarında evleniyorlar. Baksana, annem babamla evli, büyükannem, büyükbabamla. Teyzem eniştemle!...</t>
+  </si>
+  <si>
+    <t>Kalbimizdesin</t>
+  </si>
+  <si>
+    <t>Bir gün okulda öğrenciler dersteyken öğretmen:
+- Bugün müfettiş gelecek, soru sorarsa doğru cevap vermeye çalışın.
+Bir süre sonra müfettiş sınıfa gelmiş. Bir öğrenciyi işaret edip sormuş:
+- Atatürk neremizde yaşıyor?
+Öğrenci düşünürken öğretmen kalbini göstermiş. Öğrenci de hemen cevap vermiş:
+- Öğretmenimizin kalbinde...</t>
+  </si>
+  <si>
+    <t>Başkasının Pantolonu</t>
+  </si>
+  <si>
+    <t>Öğretmen çocuğa sormuş;
+- Elini pantolonun sağ cebine attın ve bir 200 lira çıkarttın, sol cebinden de 100 lira çıktı. Senin şimdi kaç paran var?
+Öğretmen çocuğun 300 liram var cevabını vermesini beklerken Çocuk cevap vermiş
+- Herhalde üzerimde başka birinin pantolonu var!</t>
+  </si>
+  <si>
+    <t>Mercedes</t>
+  </si>
+  <si>
+    <t>Bir gün ufak, bir çocukla ninesi karşıdan karşıya beraber geçeceklermiş, nine 80, çocuk ise 5 yaşlarındaymış. Nine torununa:
+- Oğlum karşıdan düt düt geliyor, çabuk geçelim, demiş.
+Bunun üzerine çocuk:
+- Yok nine, o düt düt değil, sekiz silindirli mercedes, demiş.</t>
+  </si>
+  <si>
+    <t>Deli Fıkraları</t>
+  </si>
+  <si>
+    <t>Gazete Kağıdı</t>
+  </si>
+  <si>
+    <t>Akıl hastanesinde doktorlar, deliler içinde iyileşen var mı diye kontrol yapacaklarmış. Bunun için, bir odanın ortasına masa koyup, masanın üzerine sıvı yağ sürmüşler. Sırayla tüm delilere birer ampul verip, masaya çıkarak verdikleri ampulü tavandaki boş olan ampul yatağına takmalarını istemişler.
+Deliler sırayla masaya çıkmış ve masadaki yağdan ayakları kayarak yere düşmüş. Fakat en son deli masaya çıkmadan önce, kendisine masanın üzerine koyması için bir gazete kağıdı verilmesini istemiş. Gazete kağıdını masanın üzerine koymuş ve gazete kağıdının üstüne basarak ampulü yerine takmış. Bunu gören doktorlar, delinin akıllandığını düşünerek sevinmişler.
+Doktorlardan biri, akıllandığından emin olmak için deliye sormuş:
+- Masanın üzerine neden gazete kağıdını koydun?
+Deli cevap vermiş :
+- Boyum kısa, eremem diye</t>
+  </si>
+  <si>
+    <t>Çöl Takıntısı</t>
+  </si>
+  <si>
+    <t>Doktor akıl hastasına sorar :
+- Neden saat 12 ile 14 arası çölü geçemezsin?
+- Çünkü gökten fil düşer...
+- Peki konuyu değiştirelim, timsahlar neden yassıdır?
+- Çünkü 12 ile 14 arası çölü geçmeye kalkmışlardır.</t>
+  </si>
+  <si>
+    <t>Şemsiyeyle Duş</t>
+  </si>
+  <si>
+    <t>Deliler hastanesinde doktor bir deli garip şekilde görünce sormuş;
+- Neden şemsiyeyle duş alıyorsun?
+Deli mahcup şekilde cevap vermiş;
+- Havlumu almayı unutmuşum da...</t>
+  </si>
+  <si>
+    <t>Kaç Kişisiniz?</t>
+  </si>
+  <si>
+    <t>Akıl hastanesini gezmekte olan gazeteci, bir koğuşta rastladığı hastaya sordu:
+- Burada kaç kişisiniz?
+Karşısındaki boş ver dedikten sonra:
+- Asıl siz dışarıda kaç kişisiniz?</t>
+  </si>
+  <si>
+    <t>Boyacı Deliler</t>
+  </si>
+  <si>
+    <t>Bir gün deliler hastanesinin dış cephesi boyanacakmış. Hastanenin müdürü delilere sormuş:
+- Gönüllü olarak kim boyamak ister?
+Bir kaç deli gönüllü olarak çıkmış. Sıra boyanmaya gelmiş. Deli çıkmış merdivene boyuyormuş. Elinde fırça varmış. Bir deli gelmiş.
+- Hey, diye bağırmış.
+- Ne oldu, demiş.
+- Ben merdiveni alıyorum, sen fırçaya tutun, demiş.</t>
+  </si>
+  <si>
+    <t>Tavana Asılmış Deli</t>
+  </si>
+  <si>
+    <t>Akıl hastanesinde bir gün delilerden biri koşarak doktorun yanına gelmiş:
+- Doktor bey çabuk bizim koğuşa gelin, demiş.
+Doktor aceleyle gitmiş, delilerden bir tanesi kendini ayaklarından tavana asmış öylece duruyor.
+- Bu nedir? diye sormuş.
+Doktoru çağırmaya giden deli cevaplamış:
+- Doktor bey bu zır deli kendisini ampul sanıyor.
+Doktor kızmış:
+- Olur mu öyle şey hemen indirin şunu aşağıya.
+Yine aynı deli demiş ki:
+- Onu indirirsek biz ışıksız kalırız Doktor bey.</t>
+  </si>
+  <si>
+    <t>Delinin Fıkrası</t>
+  </si>
+  <si>
+    <t>Delinin biri tımarhanenin bahçesinde yürürken bakmış başka bir deli ağacın altında oturmuş kahkahalar atıyor.
+Hemen yanına koşmuş ve sormuş;
+- Hey dostum! sen niye gülüyorsun öyle?
+Diğer deli;
+- Hiiç, ben hep kendi kendime fıkra anlatırım ama bu seferkini hiç duymamıştım.</t>
+  </si>
+  <si>
+    <t>Deliler ve Hac</t>
+  </si>
+  <si>
+    <t>Bir gün deliler hastanesinin müdürü delilerin taşkınlıklarından bıkmış. Onlara;
+- Sizi hacca göndereceğiz, demiş. Deliler 3 gün boyunca binanın etrafında dolanmışlar. 4. gün müdürün etrafına taşlar yağıyormuş delilerden biri;
+- Bugün şeytan taşlama günü, demiş.</t>
+  </si>
+  <si>
+    <t>Dışarı Çıkmak</t>
+  </si>
+  <si>
+    <t>Bir gece delilerden biri arkadaşına der ki:
+- Felâket, bu gece dışarı çıkamayacağız dostum.
+Öbürü hayretle:
+- Niye, yoksa anahtarları mı kaybettin?
+- Hayır, kapıcı bu akşam kapıyı kilitlemeyi unutmuş.
+- Düşündüğün şeye bak, bu gece de duvardan atlayıp gideriz.</t>
+  </si>
+  <si>
+    <t>Delinin Halinden Deli Anlar</t>
+  </si>
+  <si>
+    <t>Köyün delisi minareye çıkmış, aşağıya atlayacakmış. Bunu gören köy halkı köyün delisini ikna etmeye çalışmış. Sana ev alırız, araba alırız diye kandırmaya çalışmışlar olmamış. Bir türlü aşağı inmesi için ikna edememiş kimse.
+Bakmışlar bu böyle olmayacak, delinin halinden deli anlar deyip komşu köyün delisini getirmeye karar vermişler.
+Komşu köyün delisi elinde kocaman bir bıçakla gelmiş.
+Elindeki bıçağı sallayarak minaredeki deliye bağırmış :
+─ Lan deli elimdeki bıçağı görüyor musun ?
+Minaredeki deli :
+─ Görüyorum, ne olmuş? Diye cevap vermiş.
+Komşu köyün delisi tekrar bağırmış:
+─ Ulan beş dakikaya indin indin, inmedin keserim minareyi.
+Bunu duyan minaredeki deli korkarak şöyle demiş:
+─ Tamam ula indim, sakın kesme. Minareyi kesersen aşağıya düşerim.</t>
+  </si>
+  <si>
+    <t>Bahçedeki Dikenli Teller</t>
+  </si>
+  <si>
+    <t>İki deli akıl hastanesinden kaçmaya karar vermişler. Biri ötekine:
+- Git bak bakalım, dikenli teller yüksek mi alçak mı? Eğer yüksekse altından geçeriz, alçaksa üstünden atlarız, demiş.
+Diğer deli gitmiş, bir süre sonra geri gelmiş ve şöyle demiş:
+- Ne yazık ki buradan kaçamayacağız; çünkü hiç dikenli tel yok!</t>
+  </si>
+  <si>
+    <t>Boğulurum</t>
+  </si>
+  <si>
+    <t>Bir gün deliler hastanesinin bahçesine içi boş bir havuz getirilir ve delillere "Haydi havuza atlayıp yüzün" der doktor. Hepsi boş havuzun içinde çırpınıp sağa sola gider. Biri bakar onlara havuza girmez ve doktorun dikkatini çeker doktor sorar
+- Niye sen girmiyorsun havuza? der. Deli;
+- Hocam ben yüzme bilmiyorum, boğulurum</t>
+  </si>
+  <si>
+    <t>İki Deli</t>
+  </si>
+  <si>
+    <t>Hastane bahçesinde iki deli oturuyormuş, birisi aniden ayağa kalkmış ve yürüyerek uzaklaşmaya başlamış. Oturan deli sormuş:
+- Nereye gidiyorsun?
+- Seni aramaya...
+- Çabuk gel, geç kalma ben seni burada bekliyorum!</t>
+  </si>
+  <si>
+    <t>Taştan Top</t>
+  </si>
+  <si>
+    <t>Bir gün doktor delileri test etmek amacıyla futbol sahasına götürür. Sahada kalesinin tam önünde taştan yuvarlak bir top vardır. Doktor
+- Kim bu topa vurup gol atarsa ona madalya vereceğim, der.
+Tüm deliler topa vurur ama ayakları acır. Bir tanesi vurmaz ve doktorun dikkatini çeker, ona sorar;
+- Sen neden vurmuyorsun, yoksa madalya istemiyor musun? Deli:
+- Hayır hocam, ben bekliyorum onlar oynasın sonra siz orta açın ben kafa atıcam.</t>
+  </si>
+  <si>
+    <t>Kedi Nereden Bilsin?</t>
+  </si>
+  <si>
+    <t>Adamın biri kendini fare zannettiği için akıl hastanesine düşmüş. Tedavisi bittikten sonra doktor sormuş.
+- Şimdi sen bir fare misin yoksa insan mı? Deli;
+- Fare olur mu doktor bey ben bir insanım. Doktor;
+- O zaman artık gidebilirsin, iyileştin artık. Deli kapıdan çıkmış ve "İmdaaaaaat!" diye bağırarak tekrar içeri girmiş doktor "Ne oldu?" demiş. Deli;
+- Bir kedi gördüm de ondan korktum. Doktor;
+- Sen hani artık kendini bir fare zannetmiyordun...
+Deli;
+- Ben fare olmadığımı biliyorum da kedi nerden bilsin..</t>
+  </si>
+  <si>
+    <t>Ölmüş Deli</t>
+  </si>
+  <si>
+    <t>Yatırıldığı akıl hastanesinde ölü olduğuna inanan, bu nedenle de yemek yemeyen ve hiç bir toplumsal faaliyete katılmayan bir akıl hastası, tüm uzman psikiyatristlerce girişilen her çabaya rağmen, ölü olmadığı konusunda bir türlü ikna edilememiş.
+Hastanın bu kararından vazgeçmeyeceğini anlayan ve tedavisini üstlenen doktorlardan biri, sonunda hastaya ölülerin kanayıp kanamayacağına dair bir soru yöneltir. Hasta;
+- Tabii ki kanamaz, çünkü, ölülerin tüm hayat fonksiyonları durmuştur, der. Bunun üzerine psikiyatrist, küçük bir iğne alıp hastanın parmağına batırır. Bir müddet şaşkınlıkla parmağına bakan ve parmağının kanadığını gören hastanın tepkisi ilginçtir:
+- Lanet olsun! Ölüler de kanarmış.</t>
+  </si>
+  <si>
+    <t>El Arabası</t>
+  </si>
+  <si>
+    <t>Delinin biri akıl hastanesinin bahçesinde el arabasını ters çevirmiş, sürmeye uğraşıyormuş. Bunu gören görevli doktorlardan birisi deliyi uyarmış:
+─ O araba öyle sürülmez, düzeltsene arabayı.
+Bunu duyan deli doktora şöyle demiş:
+─ Geçen gün senin dediğin gibi sürdüm, akşama kadar kum taşıttırdılar. Enayi miyim ben!</t>
+  </si>
+  <si>
+    <t>Sinema Bileti</t>
+  </si>
+  <si>
+    <t>Sinemaya girmek istiyordu. Gişeden biletini aldı. Birkaç dakika sonra gelip bir tane daha aldı. Sonra bir bilet daha bir daha... Gişedeki görevli dayanamadı;
+- Karaborsa yapıyorsun galiba. Bu kaçıncı bilet alışın?
+Deli öfkeyle dedi ki;
+- İçeride bir deli var, tam kapıdan girince biletimi alıp yırtıyor. Ben de gelip yenisini almak zorunda kalıyorum...</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -397,32 +3969,3891 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2617BE0D-F842-C442-8436-25D26F616C5A}">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D352"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H28" sqref="H28"/>
+      <selection activeCell="A2" sqref="A2:D332"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="21.83203125" customWidth="1"/>
-    <col min="2" max="2" width="22" customWidth="1"/>
-    <col min="3" max="3" width="25" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="21.83203125"/>
+    <col min="2" max="2" customWidth="true" width="22.0"/>
+    <col min="3" max="3" customWidth="true" width="25.0"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+      <c r="A1" t="s" s="0">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" t="s" s="0">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" t="s" s="0">
         <v>2</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="C3" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s" s="0">
+        <v>8</v>
+      </c>
       <c r="D4" s="1"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="C5" t="s" s="0">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="C6" t="s" s="0">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="B7" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="C7" t="s" s="0">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="B8" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="C8" t="s" s="0">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="B9" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="C9" t="s" s="0">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="B10" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="C10" t="s" s="0">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="B11" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="C11" t="s" s="0">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="B12" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s" s="0">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="B13" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s" s="0">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="B14" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="C14" t="s" s="0">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="B15" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="C15" t="s" s="0">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="B16" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="C16" t="s" s="0">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="B17" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="C17" t="s" s="0">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="B18" t="s" s="0">
+        <v>35</v>
+      </c>
+      <c r="C18" t="s" s="0">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="B19" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="C19" t="s" s="0">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="B20" t="s" s="0">
+        <v>39</v>
+      </c>
+      <c r="C20" t="s" s="0">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="B21" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="C21" t="s" s="0">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="B22" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="C22" t="s" s="0">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="B23" t="s" s="0">
+        <v>45</v>
+      </c>
+      <c r="C23" t="s" s="0">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="B24" t="s" s="0">
+        <v>47</v>
+      </c>
+      <c r="C24" t="s" s="0">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="B25" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="C25" t="s" s="0">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="B26" t="s" s="0">
+        <v>51</v>
+      </c>
+      <c r="C26" t="s" s="0">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="B27" t="s" s="0">
+        <v>53</v>
+      </c>
+      <c r="C27" t="s" s="0">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="B28" t="s" s="0">
+        <v>55</v>
+      </c>
+      <c r="C28" t="s" s="0">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="B29" t="s" s="0">
+        <v>57</v>
+      </c>
+      <c r="C29" t="s" s="0">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="B30" t="s" s="0">
+        <v>59</v>
+      </c>
+      <c r="C30" t="s" s="0">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="B31" t="s" s="0">
+        <v>61</v>
+      </c>
+      <c r="C31" t="s" s="0">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="B32" t="s" s="0">
+        <v>63</v>
+      </c>
+      <c r="C32" t="s" s="0">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="B33" t="s" s="0">
+        <v>65</v>
+      </c>
+      <c r="C33" t="s" s="0">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="B34" t="s" s="0">
+        <v>67</v>
+      </c>
+      <c r="C34" t="s" s="0">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="B35" t="s" s="0">
+        <v>69</v>
+      </c>
+      <c r="C35" t="s" s="0">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="B36" t="s" s="0">
+        <v>71</v>
+      </c>
+      <c r="C36" t="s" s="0">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="B37" t="s" s="0">
+        <v>73</v>
+      </c>
+      <c r="C37" t="s" s="0">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="B38" t="s" s="0">
+        <v>75</v>
+      </c>
+      <c r="C38" t="s" s="0">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="B39" t="s" s="0">
+        <v>77</v>
+      </c>
+      <c r="C39" t="s" s="0">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="B40" t="s" s="0">
+        <v>79</v>
+      </c>
+      <c r="C40" t="s" s="0">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="B41" t="s" s="0">
+        <v>81</v>
+      </c>
+      <c r="C41" t="s" s="0">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="B42" t="s" s="0">
+        <v>83</v>
+      </c>
+      <c r="C42" t="s" s="0">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="B43" t="s" s="0">
+        <v>85</v>
+      </c>
+      <c r="C43" t="s" s="0">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="B44" t="s" s="0">
+        <v>87</v>
+      </c>
+      <c r="C44" t="s" s="0">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="B45" t="s" s="0">
+        <v>89</v>
+      </c>
+      <c r="C45" t="s" s="0">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="B46" t="s" s="0">
+        <v>91</v>
+      </c>
+      <c r="C46" t="s" s="0">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="B47" t="s" s="0">
+        <v>93</v>
+      </c>
+      <c r="C47" t="s" s="0">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="B48" t="s" s="0">
+        <v>95</v>
+      </c>
+      <c r="C48" t="s" s="0">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="B49" t="s" s="0">
+        <v>97</v>
+      </c>
+      <c r="C49" t="s" s="0">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="B50" t="s" s="0">
+        <v>99</v>
+      </c>
+      <c r="C50" t="s" s="0">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="B51" t="s" s="0">
+        <v>101</v>
+      </c>
+      <c r="C51" t="s" s="0">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="B52" t="s" s="0">
+        <v>103</v>
+      </c>
+      <c r="C52" t="s" s="0">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="B53" t="s" s="0">
+        <v>105</v>
+      </c>
+      <c r="C53" t="s" s="0">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="B54" t="s" s="0">
+        <v>107</v>
+      </c>
+      <c r="C54" t="s" s="0">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="B55" t="s" s="0">
+        <v>109</v>
+      </c>
+      <c r="C55" t="s" s="0">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="B56" t="s" s="0">
+        <v>111</v>
+      </c>
+      <c r="C56" t="s" s="0">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="B57" t="s" s="0">
+        <v>113</v>
+      </c>
+      <c r="C57" t="s" s="0">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="B58" t="s" s="0">
+        <v>115</v>
+      </c>
+      <c r="C58" t="s" s="0">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="B59" t="s" s="0">
+        <v>117</v>
+      </c>
+      <c r="C59" t="s" s="0">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="B60" t="s" s="0">
+        <v>119</v>
+      </c>
+      <c r="C60" t="s" s="0">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="B61" t="s" s="0">
+        <v>121</v>
+      </c>
+      <c r="C61" t="s" s="0">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="B62" t="s" s="0">
+        <v>123</v>
+      </c>
+      <c r="C62" t="s" s="0">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="B63" t="s" s="0">
+        <v>125</v>
+      </c>
+      <c r="C63" t="s" s="0">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="B64" t="s" s="0">
+        <v>127</v>
+      </c>
+      <c r="C64" t="s" s="0">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="B65" t="s" s="0">
+        <v>129</v>
+      </c>
+      <c r="C65" t="s" s="0">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="B66" t="s" s="0">
+        <v>65</v>
+      </c>
+      <c r="C66" t="s" s="0">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="B67" t="s" s="0">
+        <v>132</v>
+      </c>
+      <c r="C67" t="s" s="0">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="B68" t="s" s="0">
+        <v>134</v>
+      </c>
+      <c r="C68" t="s" s="0">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="B69" t="s" s="0">
+        <v>136</v>
+      </c>
+      <c r="C69" t="s" s="0">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="B70" t="s" s="0">
+        <v>138</v>
+      </c>
+      <c r="C70" t="s" s="0">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="B71" t="s" s="0">
+        <v>140</v>
+      </c>
+      <c r="C71" t="s" s="0">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="B72" t="s" s="0">
+        <v>142</v>
+      </c>
+      <c r="C72" t="s" s="0">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="B73" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="C73" t="s" s="0">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="B74" t="s" s="0">
+        <v>146</v>
+      </c>
+      <c r="C74" t="s" s="0">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="B75" t="s" s="0">
+        <v>148</v>
+      </c>
+      <c r="C75" t="s" s="0">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="B76" t="s" s="0">
+        <v>65</v>
+      </c>
+      <c r="C76" t="s" s="0">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="B77" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="C77" t="s" s="0">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="B78" t="s" s="0">
+        <v>152</v>
+      </c>
+      <c r="C78" t="s" s="0">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="B79" t="s" s="0">
+        <v>75</v>
+      </c>
+      <c r="C79" t="s" s="0">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="B80" t="s" s="0">
+        <v>155</v>
+      </c>
+      <c r="C80" t="s" s="0">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="B81" t="s" s="0">
+        <v>157</v>
+      </c>
+      <c r="C81" t="s" s="0">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="B82" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="C82" t="s" s="0">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="B83" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="C83" t="s" s="0">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="B84" t="s" s="0">
+        <v>161</v>
+      </c>
+      <c r="C84" t="s" s="0">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="B85" t="s" s="0">
+        <v>163</v>
+      </c>
+      <c r="C85" t="s" s="0">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="B86" t="s" s="0">
+        <v>165</v>
+      </c>
+      <c r="C86" t="s" s="0">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="B87" t="s" s="0">
+        <v>167</v>
+      </c>
+      <c r="C87" t="s" s="0">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="B88" t="s" s="0">
+        <v>169</v>
+      </c>
+      <c r="C88" t="s" s="0">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="B89" t="s" s="0">
+        <v>171</v>
+      </c>
+      <c r="C89" t="s" s="0">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="B90" t="s" s="0">
+        <v>173</v>
+      </c>
+      <c r="C90" t="s" s="0">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="B91" t="s" s="0">
+        <v>174</v>
+      </c>
+      <c r="C91" t="s" s="0">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="s" s="0">
+        <v>176</v>
+      </c>
+      <c r="B92" t="s" s="0">
+        <v>177</v>
+      </c>
+      <c r="C92" t="s" s="0">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="s" s="0">
+        <v>176</v>
+      </c>
+      <c r="B93" t="s" s="0">
+        <v>179</v>
+      </c>
+      <c r="C93" t="s" s="0">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="s" s="0">
+        <v>176</v>
+      </c>
+      <c r="B94" t="s" s="0">
+        <v>181</v>
+      </c>
+      <c r="C94" t="s" s="0">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="s" s="0">
+        <v>176</v>
+      </c>
+      <c r="B95" t="s" s="0">
+        <v>183</v>
+      </c>
+      <c r="C95" t="s" s="0">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="s" s="0">
+        <v>176</v>
+      </c>
+      <c r="B96" t="s" s="0">
+        <v>185</v>
+      </c>
+      <c r="C96" t="s" s="0">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="s" s="0">
+        <v>176</v>
+      </c>
+      <c r="B97" t="s" s="0">
+        <v>187</v>
+      </c>
+      <c r="C97" t="s" s="0">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="s" s="0">
+        <v>176</v>
+      </c>
+      <c r="B98" t="s" s="0">
+        <v>189</v>
+      </c>
+      <c r="C98" t="s" s="0">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="s" s="0">
+        <v>176</v>
+      </c>
+      <c r="B99" t="s" s="0">
+        <v>191</v>
+      </c>
+      <c r="C99" t="s" s="0">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="s" s="0">
+        <v>176</v>
+      </c>
+      <c r="B100" t="s" s="0">
+        <v>193</v>
+      </c>
+      <c r="C100" t="s" s="0">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="s" s="0">
+        <v>176</v>
+      </c>
+      <c r="B101" t="s" s="0">
+        <v>195</v>
+      </c>
+      <c r="C101" t="s" s="0">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="s" s="0">
+        <v>176</v>
+      </c>
+      <c r="B102" t="s" s="0">
+        <v>197</v>
+      </c>
+      <c r="C102" t="s" s="0">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="s" s="0">
+        <v>176</v>
+      </c>
+      <c r="B103" t="s" s="0">
+        <v>199</v>
+      </c>
+      <c r="C103" t="s" s="0">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="s" s="0">
+        <v>176</v>
+      </c>
+      <c r="B104" t="s" s="0">
+        <v>201</v>
+      </c>
+      <c r="C104" t="s" s="0">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="s" s="0">
+        <v>176</v>
+      </c>
+      <c r="B105" t="s" s="0">
+        <v>203</v>
+      </c>
+      <c r="C105" t="s" s="0">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="s" s="0">
+        <v>176</v>
+      </c>
+      <c r="B106" t="s" s="0">
+        <v>205</v>
+      </c>
+      <c r="C106" t="s" s="0">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="s" s="0">
+        <v>176</v>
+      </c>
+      <c r="B107" t="s" s="0">
+        <v>207</v>
+      </c>
+      <c r="C107" t="s" s="0">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="s" s="0">
+        <v>176</v>
+      </c>
+      <c r="B108" t="s" s="0">
+        <v>209</v>
+      </c>
+      <c r="C108" t="s" s="0">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="s" s="0">
+        <v>176</v>
+      </c>
+      <c r="B109" t="s" s="0">
+        <v>211</v>
+      </c>
+      <c r="C109" t="s" s="0">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="s" s="0">
+        <v>213</v>
+      </c>
+      <c r="B110" t="s" s="0">
+        <v>214</v>
+      </c>
+      <c r="C110" t="s" s="0">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="s" s="0">
+        <v>213</v>
+      </c>
+      <c r="B111" t="s" s="0">
+        <v>216</v>
+      </c>
+      <c r="C111" t="s" s="0">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="s" s="0">
+        <v>213</v>
+      </c>
+      <c r="B112" t="s" s="0">
+        <v>218</v>
+      </c>
+      <c r="C112" t="s" s="0">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="s" s="0">
+        <v>213</v>
+      </c>
+      <c r="B113" t="s" s="0">
+        <v>220</v>
+      </c>
+      <c r="C113" t="s" s="0">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="s" s="0">
+        <v>213</v>
+      </c>
+      <c r="B114" t="s" s="0">
+        <v>222</v>
+      </c>
+      <c r="C114" t="s" s="0">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="s" s="0">
+        <v>213</v>
+      </c>
+      <c r="B115" t="s" s="0">
+        <v>224</v>
+      </c>
+      <c r="C115" t="s" s="0">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="s" s="0">
+        <v>213</v>
+      </c>
+      <c r="B116" t="s" s="0">
+        <v>226</v>
+      </c>
+      <c r="C116" t="s" s="0">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="s" s="0">
+        <v>213</v>
+      </c>
+      <c r="B117" t="s" s="0">
+        <v>228</v>
+      </c>
+      <c r="C117" t="s" s="0">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="s" s="0">
+        <v>213</v>
+      </c>
+      <c r="B118" t="s" s="0">
+        <v>230</v>
+      </c>
+      <c r="C118" t="s" s="0">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="s" s="0">
+        <v>213</v>
+      </c>
+      <c r="B119" t="s" s="0">
+        <v>232</v>
+      </c>
+      <c r="C119" t="s" s="0">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="s" s="0">
+        <v>213</v>
+      </c>
+      <c r="B120" t="s" s="0">
+        <v>234</v>
+      </c>
+      <c r="C120" t="s" s="0">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="s" s="0">
+        <v>213</v>
+      </c>
+      <c r="B121" t="s" s="0">
+        <v>236</v>
+      </c>
+      <c r="C121" t="s" s="0">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="s" s="0">
+        <v>213</v>
+      </c>
+      <c r="B122" t="s" s="0">
+        <v>238</v>
+      </c>
+      <c r="C122" t="s" s="0">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="s" s="0">
+        <v>213</v>
+      </c>
+      <c r="B123" t="s" s="0">
+        <v>240</v>
+      </c>
+      <c r="C123" t="s" s="0">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="s" s="0">
+        <v>213</v>
+      </c>
+      <c r="B124" t="s" s="0">
+        <v>242</v>
+      </c>
+      <c r="C124" t="s" s="0">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="s" s="0">
+        <v>213</v>
+      </c>
+      <c r="B125" t="s" s="0">
+        <v>244</v>
+      </c>
+      <c r="C125" t="s" s="0">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="s" s="0">
+        <v>213</v>
+      </c>
+      <c r="B126" t="s" s="0">
+        <v>246</v>
+      </c>
+      <c r="C126" t="s" s="0">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="s" s="0">
+        <v>213</v>
+      </c>
+      <c r="B127" t="s" s="0">
+        <v>248</v>
+      </c>
+      <c r="C127" t="s" s="0">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="s" s="0">
+        <v>213</v>
+      </c>
+      <c r="B128" t="s" s="0">
+        <v>250</v>
+      </c>
+      <c r="C128" t="s" s="0">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="s" s="0">
+        <v>213</v>
+      </c>
+      <c r="B129" t="s" s="0">
+        <v>252</v>
+      </c>
+      <c r="C129" t="s" s="0">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="s" s="0">
+        <v>213</v>
+      </c>
+      <c r="B130" t="s" s="0">
+        <v>254</v>
+      </c>
+      <c r="C130" t="s" s="0">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="s" s="0">
+        <v>213</v>
+      </c>
+      <c r="B131" t="s" s="0">
+        <v>256</v>
+      </c>
+      <c r="C131" t="s" s="0">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="s" s="0">
+        <v>213</v>
+      </c>
+      <c r="B132" t="s" s="0">
+        <v>258</v>
+      </c>
+      <c r="C132" t="s" s="0">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="s" s="0">
+        <v>213</v>
+      </c>
+      <c r="B133" t="s" s="0">
+        <v>260</v>
+      </c>
+      <c r="C133" t="s" s="0">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="s" s="0">
+        <v>213</v>
+      </c>
+      <c r="B134" t="s" s="0">
+        <v>262</v>
+      </c>
+      <c r="C134" t="s" s="0">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="s" s="0">
+        <v>213</v>
+      </c>
+      <c r="B135" t="s" s="0">
+        <v>264</v>
+      </c>
+      <c r="C135" t="s" s="0">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="s" s="0">
+        <v>213</v>
+      </c>
+      <c r="B136" t="s" s="0">
+        <v>266</v>
+      </c>
+      <c r="C136" t="s" s="0">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="s" s="0">
+        <v>213</v>
+      </c>
+      <c r="B137" t="s" s="0">
+        <v>268</v>
+      </c>
+      <c r="C137" t="s" s="0">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="s" s="0">
+        <v>213</v>
+      </c>
+      <c r="B138" t="s" s="0">
+        <v>270</v>
+      </c>
+      <c r="C138" t="s" s="0">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="s" s="0">
+        <v>213</v>
+      </c>
+      <c r="B139" t="s" s="0">
+        <v>272</v>
+      </c>
+      <c r="C139" t="s" s="0">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="s" s="0">
+        <v>213</v>
+      </c>
+      <c r="B140" t="s" s="0">
+        <v>274</v>
+      </c>
+      <c r="C140" t="s" s="0">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="s" s="0">
+        <v>213</v>
+      </c>
+      <c r="B141" t="s" s="0">
+        <v>276</v>
+      </c>
+      <c r="C141" t="s" s="0">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="s" s="0">
+        <v>213</v>
+      </c>
+      <c r="B142" t="s" s="0">
+        <v>278</v>
+      </c>
+      <c r="C142" t="s" s="0">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="s" s="0">
+        <v>213</v>
+      </c>
+      <c r="B143" t="s" s="0">
+        <v>280</v>
+      </c>
+      <c r="C143" t="s" s="0">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="s" s="0">
+        <v>213</v>
+      </c>
+      <c r="B144" t="s" s="0">
+        <v>282</v>
+      </c>
+      <c r="C144" t="s" s="0">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="s" s="0">
+        <v>213</v>
+      </c>
+      <c r="B145" t="s" s="0">
+        <v>284</v>
+      </c>
+      <c r="C145" t="s" s="0">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="s" s="0">
+        <v>213</v>
+      </c>
+      <c r="B146" t="s" s="0">
+        <v>286</v>
+      </c>
+      <c r="C146" t="s" s="0">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="s" s="0">
+        <v>213</v>
+      </c>
+      <c r="B147" t="s" s="0">
+        <v>288</v>
+      </c>
+      <c r="C147" t="s" s="0">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="s" s="0">
+        <v>213</v>
+      </c>
+      <c r="B148" t="s" s="0">
+        <v>290</v>
+      </c>
+      <c r="C148" t="s" s="0">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="s" s="0">
+        <v>213</v>
+      </c>
+      <c r="B149" t="s" s="0">
+        <v>292</v>
+      </c>
+      <c r="C149" t="s" s="0">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="s" s="0">
+        <v>213</v>
+      </c>
+      <c r="B150" t="s" s="0">
+        <v>268</v>
+      </c>
+      <c r="C150" t="s" s="0">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="s" s="0">
+        <v>213</v>
+      </c>
+      <c r="B151" t="s" s="0">
+        <v>295</v>
+      </c>
+      <c r="C151" t="s" s="0">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="s" s="0">
+        <v>213</v>
+      </c>
+      <c r="B152" t="s" s="0">
+        <v>297</v>
+      </c>
+      <c r="C152" t="s" s="0">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="s" s="0">
+        <v>213</v>
+      </c>
+      <c r="B153" t="s" s="0">
+        <v>299</v>
+      </c>
+      <c r="C153" t="s" s="0">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="s" s="0">
+        <v>213</v>
+      </c>
+      <c r="B154" t="s" s="0">
+        <v>301</v>
+      </c>
+      <c r="C154" t="s" s="0">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="s" s="0">
+        <v>213</v>
+      </c>
+      <c r="B155" t="s" s="0">
+        <v>303</v>
+      </c>
+      <c r="C155" t="s" s="0">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="s" s="0">
+        <v>213</v>
+      </c>
+      <c r="B156" t="s" s="0">
+        <v>305</v>
+      </c>
+      <c r="C156" t="s" s="0">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="s" s="0">
+        <v>213</v>
+      </c>
+      <c r="B157" t="s" s="0">
+        <v>307</v>
+      </c>
+      <c r="C157" t="s" s="0">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="s" s="0">
+        <v>213</v>
+      </c>
+      <c r="B158" t="s" s="0">
+        <v>309</v>
+      </c>
+      <c r="C158" t="s" s="0">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="s" s="0">
+        <v>213</v>
+      </c>
+      <c r="B159" t="s" s="0">
+        <v>311</v>
+      </c>
+      <c r="C159" t="s" s="0">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="s" s="0">
+        <v>213</v>
+      </c>
+      <c r="B160" t="s" s="0">
+        <v>313</v>
+      </c>
+      <c r="C160" t="s" s="0">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="s" s="0">
+        <v>213</v>
+      </c>
+      <c r="B161" t="s" s="0">
+        <v>315</v>
+      </c>
+      <c r="C161" t="s" s="0">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="s" s="0">
+        <v>213</v>
+      </c>
+      <c r="B162" t="s" s="0">
+        <v>317</v>
+      </c>
+      <c r="C162" t="s" s="0">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="s" s="0">
+        <v>213</v>
+      </c>
+      <c r="B163" t="s" s="0">
+        <v>319</v>
+      </c>
+      <c r="C163" t="s" s="0">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="s" s="0">
+        <v>213</v>
+      </c>
+      <c r="B164" t="s" s="0">
+        <v>321</v>
+      </c>
+      <c r="C164" t="s" s="0">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="s" s="0">
+        <v>213</v>
+      </c>
+      <c r="B165" t="s" s="0">
+        <v>323</v>
+      </c>
+      <c r="C165" t="s" s="0">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="s" s="0">
+        <v>213</v>
+      </c>
+      <c r="B166" t="s" s="0">
+        <v>325</v>
+      </c>
+      <c r="C166" t="s" s="0">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="s" s="0">
+        <v>213</v>
+      </c>
+      <c r="B167" t="s" s="0">
+        <v>327</v>
+      </c>
+      <c r="C167" t="s" s="0">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="s" s="0">
+        <v>213</v>
+      </c>
+      <c r="B168" t="s" s="0">
+        <v>329</v>
+      </c>
+      <c r="C168" t="s" s="0">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="s" s="0">
+        <v>213</v>
+      </c>
+      <c r="B169" t="s" s="0">
+        <v>331</v>
+      </c>
+      <c r="C169" t="s" s="0">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="s" s="0">
+        <v>213</v>
+      </c>
+      <c r="B170" t="s" s="0">
+        <v>333</v>
+      </c>
+      <c r="C170" t="s" s="0">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="s" s="0">
+        <v>213</v>
+      </c>
+      <c r="B171" t="s" s="0">
+        <v>335</v>
+      </c>
+      <c r="C171" t="s" s="0">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="s" s="0">
+        <v>213</v>
+      </c>
+      <c r="B172" t="s" s="0">
+        <v>337</v>
+      </c>
+      <c r="C172" t="s" s="0">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="s" s="0">
+        <v>213</v>
+      </c>
+      <c r="B173" t="s" s="0">
+        <v>339</v>
+      </c>
+      <c r="C173" t="s" s="0">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="s" s="0">
+        <v>213</v>
+      </c>
+      <c r="B174" t="s" s="0">
+        <v>341</v>
+      </c>
+      <c r="C174" t="s" s="0">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="s" s="0">
+        <v>213</v>
+      </c>
+      <c r="B175" t="s" s="0">
+        <v>343</v>
+      </c>
+      <c r="C175" t="s" s="0">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="s" s="0">
+        <v>213</v>
+      </c>
+      <c r="B176" t="s" s="0">
+        <v>345</v>
+      </c>
+      <c r="C176" t="s" s="0">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="s" s="0">
+        <v>213</v>
+      </c>
+      <c r="B177" t="s" s="0">
+        <v>347</v>
+      </c>
+      <c r="C177" t="s" s="0">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="s" s="0">
+        <v>213</v>
+      </c>
+      <c r="B178" t="s" s="0">
+        <v>349</v>
+      </c>
+      <c r="C178" t="s" s="0">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="s" s="0">
+        <v>213</v>
+      </c>
+      <c r="B179" t="s" s="0">
+        <v>351</v>
+      </c>
+      <c r="C179" t="s" s="0">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="s" s="0">
+        <v>213</v>
+      </c>
+      <c r="B180" t="s" s="0">
+        <v>353</v>
+      </c>
+      <c r="C180" t="s" s="0">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="s" s="0">
+        <v>213</v>
+      </c>
+      <c r="B181" t="s" s="0">
+        <v>355</v>
+      </c>
+      <c r="C181" t="s" s="0">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="s" s="0">
+        <v>357</v>
+      </c>
+      <c r="B182" t="s" s="0">
+        <v>358</v>
+      </c>
+      <c r="C182" t="s" s="0">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="s" s="0">
+        <v>357</v>
+      </c>
+      <c r="B183" t="s" s="0">
+        <v>360</v>
+      </c>
+      <c r="C183" t="s" s="0">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="s" s="0">
+        <v>357</v>
+      </c>
+      <c r="B184" t="s" s="0">
+        <v>362</v>
+      </c>
+      <c r="C184" t="s" s="0">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="s" s="0">
+        <v>357</v>
+      </c>
+      <c r="B185" t="s" s="0">
+        <v>364</v>
+      </c>
+      <c r="C185" t="s" s="0">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="s" s="0">
+        <v>357</v>
+      </c>
+      <c r="B186" t="s" s="0">
+        <v>366</v>
+      </c>
+      <c r="C186" t="s" s="0">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="s" s="0">
+        <v>357</v>
+      </c>
+      <c r="B187" t="s" s="0">
+        <v>368</v>
+      </c>
+      <c r="C187" t="s" s="0">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="s" s="0">
+        <v>357</v>
+      </c>
+      <c r="B188" t="s" s="0">
+        <v>370</v>
+      </c>
+      <c r="C188" t="s" s="0">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="s" s="0">
+        <v>357</v>
+      </c>
+      <c r="B189" t="s" s="0">
+        <v>372</v>
+      </c>
+      <c r="C189" t="s" s="0">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="s" s="0">
+        <v>357</v>
+      </c>
+      <c r="B190" t="s" s="0">
+        <v>374</v>
+      </c>
+      <c r="C190" t="s" s="0">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="s" s="0">
+        <v>357</v>
+      </c>
+      <c r="B191" t="s" s="0">
+        <v>376</v>
+      </c>
+      <c r="C191" t="s" s="0">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="s" s="0">
+        <v>357</v>
+      </c>
+      <c r="B192" t="s" s="0">
+        <v>378</v>
+      </c>
+      <c r="C192" t="s" s="0">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="s" s="0">
+        <v>357</v>
+      </c>
+      <c r="B193" t="s" s="0">
+        <v>380</v>
+      </c>
+      <c r="C193" t="s" s="0">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="s" s="0">
+        <v>357</v>
+      </c>
+      <c r="B194" t="s" s="0">
+        <v>382</v>
+      </c>
+      <c r="C194" t="s" s="0">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="s" s="0">
+        <v>357</v>
+      </c>
+      <c r="B195" t="s" s="0">
+        <v>384</v>
+      </c>
+      <c r="C195" t="s" s="0">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="s" s="0">
+        <v>357</v>
+      </c>
+      <c r="B196" t="s" s="0">
+        <v>386</v>
+      </c>
+      <c r="C196" t="s" s="0">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="s" s="0">
+        <v>357</v>
+      </c>
+      <c r="B197" t="s" s="0">
+        <v>388</v>
+      </c>
+      <c r="C197" t="s" s="0">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="s" s="0">
+        <v>357</v>
+      </c>
+      <c r="B198" t="s" s="0">
+        <v>390</v>
+      </c>
+      <c r="C198" t="s" s="0">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="s" s="0">
+        <v>357</v>
+      </c>
+      <c r="B199" t="s" s="0">
+        <v>392</v>
+      </c>
+      <c r="C199" t="s" s="0">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="s" s="0">
+        <v>357</v>
+      </c>
+      <c r="B200" t="s" s="0">
+        <v>394</v>
+      </c>
+      <c r="C200" t="s" s="0">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="s" s="0">
+        <v>357</v>
+      </c>
+      <c r="B201" t="s" s="0">
+        <v>396</v>
+      </c>
+      <c r="C201" t="s" s="0">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="s" s="0">
+        <v>357</v>
+      </c>
+      <c r="B202" t="s" s="0">
+        <v>398</v>
+      </c>
+      <c r="C202" t="s" s="0">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="s" s="0">
+        <v>357</v>
+      </c>
+      <c r="B203" t="s" s="0">
+        <v>400</v>
+      </c>
+      <c r="C203" t="s" s="0">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="s" s="0">
+        <v>357</v>
+      </c>
+      <c r="B204" t="s" s="0">
+        <v>402</v>
+      </c>
+      <c r="C204" t="s" s="0">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="s" s="0">
+        <v>357</v>
+      </c>
+      <c r="B205" t="s" s="0">
+        <v>404</v>
+      </c>
+      <c r="C205" t="s" s="0">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="s" s="0">
+        <v>357</v>
+      </c>
+      <c r="B206" t="s" s="0">
+        <v>406</v>
+      </c>
+      <c r="C206" t="s" s="0">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="s" s="0">
+        <v>357</v>
+      </c>
+      <c r="B207" t="s" s="0">
+        <v>408</v>
+      </c>
+      <c r="C207" t="s" s="0">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="s" s="0">
+        <v>357</v>
+      </c>
+      <c r="B208" t="s" s="0">
+        <v>410</v>
+      </c>
+      <c r="C208" t="s" s="0">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="s" s="0">
+        <v>357</v>
+      </c>
+      <c r="B209" t="s" s="0">
+        <v>412</v>
+      </c>
+      <c r="C209" t="s" s="0">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="s" s="0">
+        <v>357</v>
+      </c>
+      <c r="B210" t="s" s="0">
+        <v>414</v>
+      </c>
+      <c r="C210" t="s" s="0">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="s" s="0">
+        <v>357</v>
+      </c>
+      <c r="B211" t="s" s="0">
+        <v>416</v>
+      </c>
+      <c r="C211" t="s" s="0">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="s" s="0">
+        <v>357</v>
+      </c>
+      <c r="B212" t="s" s="0">
+        <v>418</v>
+      </c>
+      <c r="C212" t="s" s="0">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="s" s="0">
+        <v>357</v>
+      </c>
+      <c r="B213" t="s" s="0">
+        <v>420</v>
+      </c>
+      <c r="C213" t="s" s="0">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="s" s="0">
+        <v>357</v>
+      </c>
+      <c r="B214" t="s" s="0">
+        <v>422</v>
+      </c>
+      <c r="C214" t="s" s="0">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="s" s="0">
+        <v>357</v>
+      </c>
+      <c r="B215" t="s" s="0">
+        <v>424</v>
+      </c>
+      <c r="C215" t="s" s="0">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="s" s="0">
+        <v>357</v>
+      </c>
+      <c r="B216" t="s" s="0">
+        <v>420</v>
+      </c>
+      <c r="C216" t="s" s="0">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="s" s="0">
+        <v>357</v>
+      </c>
+      <c r="B217" t="s" s="0">
+        <v>427</v>
+      </c>
+      <c r="C217" t="s" s="0">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="s" s="0">
+        <v>357</v>
+      </c>
+      <c r="B218" t="s" s="0">
+        <v>429</v>
+      </c>
+      <c r="C218" t="s" s="0">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="s" s="0">
+        <v>357</v>
+      </c>
+      <c r="B219" t="s" s="0">
+        <v>431</v>
+      </c>
+      <c r="C219" t="s" s="0">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="s" s="0">
+        <v>357</v>
+      </c>
+      <c r="B220" t="s" s="0">
+        <v>433</v>
+      </c>
+      <c r="C220" t="s" s="0">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="s" s="0">
+        <v>357</v>
+      </c>
+      <c r="B221" t="s" s="0">
+        <v>435</v>
+      </c>
+      <c r="C221" t="s" s="0">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="s" s="0">
+        <v>357</v>
+      </c>
+      <c r="B222" t="s" s="0">
+        <v>437</v>
+      </c>
+      <c r="C222" t="s" s="0">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="s" s="0">
+        <v>357</v>
+      </c>
+      <c r="B223" t="s" s="0">
+        <v>439</v>
+      </c>
+      <c r="C223" t="s" s="0">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="s" s="0">
+        <v>357</v>
+      </c>
+      <c r="B224" t="s" s="0">
+        <v>441</v>
+      </c>
+      <c r="C224" t="s" s="0">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="s" s="0">
+        <v>357</v>
+      </c>
+      <c r="B225" t="s" s="0">
+        <v>443</v>
+      </c>
+      <c r="C225" t="s" s="0">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="s" s="0">
+        <v>357</v>
+      </c>
+      <c r="B226" t="s" s="0">
+        <v>445</v>
+      </c>
+      <c r="C226" t="s" s="0">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="s" s="0">
+        <v>357</v>
+      </c>
+      <c r="B227" t="s" s="0">
+        <v>447</v>
+      </c>
+      <c r="C227" t="s" s="0">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="s" s="0">
+        <v>357</v>
+      </c>
+      <c r="B228" t="s" s="0">
+        <v>449</v>
+      </c>
+      <c r="C228" t="s" s="0">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="s" s="0">
+        <v>357</v>
+      </c>
+      <c r="B229" t="s" s="0">
+        <v>451</v>
+      </c>
+      <c r="C229" t="s" s="0">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="s" s="0">
+        <v>357</v>
+      </c>
+      <c r="B230" t="s" s="0">
+        <v>453</v>
+      </c>
+      <c r="C230" t="s" s="0">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="s" s="0">
+        <v>357</v>
+      </c>
+      <c r="B231" t="s" s="0">
+        <v>455</v>
+      </c>
+      <c r="C231" t="s" s="0">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="s" s="0">
+        <v>357</v>
+      </c>
+      <c r="B232" t="s" s="0">
+        <v>457</v>
+      </c>
+      <c r="C232" t="s" s="0">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="s" s="0">
+        <v>357</v>
+      </c>
+      <c r="B233" t="s" s="0">
+        <v>459</v>
+      </c>
+      <c r="C233" t="s" s="0">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="s" s="0">
+        <v>357</v>
+      </c>
+      <c r="B234" t="s" s="0">
+        <v>461</v>
+      </c>
+      <c r="C234" t="s" s="0">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="s" s="0">
+        <v>357</v>
+      </c>
+      <c r="B235" t="s" s="0">
+        <v>463</v>
+      </c>
+      <c r="C235" t="s" s="0">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="s" s="0">
+        <v>357</v>
+      </c>
+      <c r="B236" t="s" s="0">
+        <v>465</v>
+      </c>
+      <c r="C236" t="s" s="0">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="s" s="0">
+        <v>357</v>
+      </c>
+      <c r="B237" t="s" s="0">
+        <v>467</v>
+      </c>
+      <c r="C237" t="s" s="0">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="s" s="0">
+        <v>357</v>
+      </c>
+      <c r="B238" t="s" s="0">
+        <v>469</v>
+      </c>
+      <c r="C238" t="s" s="0">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="s" s="0">
+        <v>357</v>
+      </c>
+      <c r="B239" t="s" s="0">
+        <v>471</v>
+      </c>
+      <c r="C239" t="s" s="0">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="s" s="0">
+        <v>357</v>
+      </c>
+      <c r="B240" t="s" s="0">
+        <v>473</v>
+      </c>
+      <c r="C240" t="s" s="0">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="s" s="0">
+        <v>357</v>
+      </c>
+      <c r="B241" t="s" s="0">
+        <v>475</v>
+      </c>
+      <c r="C241" t="s" s="0">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="s" s="0">
+        <v>357</v>
+      </c>
+      <c r="B242" t="s" s="0">
+        <v>477</v>
+      </c>
+      <c r="C242" t="s" s="0">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="s" s="0">
+        <v>357</v>
+      </c>
+      <c r="B243" t="s" s="0">
+        <v>479</v>
+      </c>
+      <c r="C243" t="s" s="0">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="s" s="0">
+        <v>357</v>
+      </c>
+      <c r="B244" t="s" s="0">
+        <v>481</v>
+      </c>
+      <c r="C244" t="s" s="0">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="s" s="0">
+        <v>357</v>
+      </c>
+      <c r="B245" t="s" s="0">
+        <v>483</v>
+      </c>
+      <c r="C245" t="s" s="0">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="s" s="0">
+        <v>357</v>
+      </c>
+      <c r="B246" t="s" s="0">
+        <v>485</v>
+      </c>
+      <c r="C246" t="s" s="0">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="s" s="0">
+        <v>357</v>
+      </c>
+      <c r="B247" t="s" s="0">
+        <v>487</v>
+      </c>
+      <c r="C247" t="s" s="0">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="s" s="0">
+        <v>357</v>
+      </c>
+      <c r="B248" t="s" s="0">
+        <v>489</v>
+      </c>
+      <c r="C248" t="s" s="0">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="s" s="0">
+        <v>357</v>
+      </c>
+      <c r="B249" t="s" s="0">
+        <v>491</v>
+      </c>
+      <c r="C249" t="s" s="0">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="s" s="0">
+        <v>357</v>
+      </c>
+      <c r="B250" t="s" s="0">
+        <v>493</v>
+      </c>
+      <c r="C250" t="s" s="0">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="s" s="0">
+        <v>357</v>
+      </c>
+      <c r="B251" t="s" s="0">
+        <v>495</v>
+      </c>
+      <c r="C251" t="s" s="0">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="s" s="0">
+        <v>357</v>
+      </c>
+      <c r="B252" t="s" s="0">
+        <v>497</v>
+      </c>
+      <c r="C252" t="s" s="0">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="s" s="0">
+        <v>357</v>
+      </c>
+      <c r="B253" t="s" s="0">
+        <v>499</v>
+      </c>
+      <c r="C253" t="s" s="0">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="s" s="0">
+        <v>357</v>
+      </c>
+      <c r="B254" t="s" s="0">
+        <v>501</v>
+      </c>
+      <c r="C254" t="s" s="0">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="s" s="0">
+        <v>357</v>
+      </c>
+      <c r="B255" t="s" s="0">
+        <v>503</v>
+      </c>
+      <c r="C255" t="s" s="0">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="s" s="0">
+        <v>357</v>
+      </c>
+      <c r="B256" t="s" s="0">
+        <v>505</v>
+      </c>
+      <c r="C256" t="s" s="0">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="s" s="0">
+        <v>357</v>
+      </c>
+      <c r="B257" t="s" s="0">
+        <v>507</v>
+      </c>
+      <c r="C257" t="s" s="0">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="s" s="0">
+        <v>357</v>
+      </c>
+      <c r="B258" t="s" s="0">
+        <v>509</v>
+      </c>
+      <c r="C258" t="s" s="0">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="s" s="0">
+        <v>357</v>
+      </c>
+      <c r="B259" t="s" s="0">
+        <v>511</v>
+      </c>
+      <c r="C259" t="s" s="0">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="s" s="0">
+        <v>357</v>
+      </c>
+      <c r="B260" t="s" s="0">
+        <v>513</v>
+      </c>
+      <c r="C260" t="s" s="0">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="s" s="0">
+        <v>357</v>
+      </c>
+      <c r="B261" t="s" s="0">
+        <v>515</v>
+      </c>
+      <c r="C261" t="s" s="0">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="s" s="0">
+        <v>357</v>
+      </c>
+      <c r="B262" t="s" s="0">
+        <v>517</v>
+      </c>
+      <c r="C262" t="s" s="0">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="s" s="0">
+        <v>357</v>
+      </c>
+      <c r="B263" t="s" s="0">
+        <v>519</v>
+      </c>
+      <c r="C263" t="s" s="0">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="s" s="0">
+        <v>357</v>
+      </c>
+      <c r="B264" t="s" s="0">
+        <v>521</v>
+      </c>
+      <c r="C264" t="s" s="0">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="s" s="0">
+        <v>357</v>
+      </c>
+      <c r="B265" t="s" s="0">
+        <v>523</v>
+      </c>
+      <c r="C265" t="s" s="0">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="s" s="0">
+        <v>357</v>
+      </c>
+      <c r="B266" t="s" s="0">
+        <v>525</v>
+      </c>
+      <c r="C266" t="s" s="0">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="s" s="0">
+        <v>357</v>
+      </c>
+      <c r="B267" t="s" s="0">
+        <v>527</v>
+      </c>
+      <c r="C267" t="s" s="0">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="s" s="0">
+        <v>357</v>
+      </c>
+      <c r="B268" t="s" s="0">
+        <v>529</v>
+      </c>
+      <c r="C268" t="s" s="0">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="s" s="0">
+        <v>357</v>
+      </c>
+      <c r="B269" t="s" s="0">
+        <v>531</v>
+      </c>
+      <c r="C269" t="s" s="0">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="s" s="0">
+        <v>357</v>
+      </c>
+      <c r="B270" t="s" s="0">
+        <v>533</v>
+      </c>
+      <c r="C270" t="s" s="0">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="s" s="0">
+        <v>357</v>
+      </c>
+      <c r="B271" t="s" s="0">
+        <v>535</v>
+      </c>
+      <c r="C271" t="s" s="0">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="s" s="0">
+        <v>357</v>
+      </c>
+      <c r="B272" t="s" s="0">
+        <v>537</v>
+      </c>
+      <c r="C272" t="s" s="0">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="s" s="0">
+        <v>357</v>
+      </c>
+      <c r="B273" t="s" s="0">
+        <v>539</v>
+      </c>
+      <c r="C273" t="s" s="0">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="s" s="0">
+        <v>357</v>
+      </c>
+      <c r="B274" t="s" s="0">
+        <v>541</v>
+      </c>
+      <c r="C274" t="s" s="0">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="s" s="0">
+        <v>357</v>
+      </c>
+      <c r="B275" t="s" s="0">
+        <v>543</v>
+      </c>
+      <c r="C275" t="s" s="0">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="s" s="0">
+        <v>357</v>
+      </c>
+      <c r="B276" t="s" s="0">
+        <v>545</v>
+      </c>
+      <c r="C276" t="s" s="0">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="s" s="0">
+        <v>357</v>
+      </c>
+      <c r="B277" t="s" s="0">
+        <v>547</v>
+      </c>
+      <c r="C277" t="s" s="0">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="s" s="0">
+        <v>357</v>
+      </c>
+      <c r="B278" t="s" s="0">
+        <v>549</v>
+      </c>
+      <c r="C278" t="s" s="0">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="s" s="0">
+        <v>357</v>
+      </c>
+      <c r="B279" t="s" s="0">
+        <v>551</v>
+      </c>
+      <c r="C279" t="s" s="0">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="s" s="0">
+        <v>357</v>
+      </c>
+      <c r="B280" t="s" s="0">
+        <v>553</v>
+      </c>
+      <c r="C280" t="s" s="0">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="s" s="0">
+        <v>357</v>
+      </c>
+      <c r="B281" t="s" s="0">
+        <v>555</v>
+      </c>
+      <c r="C281" t="s" s="0">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="s" s="0">
+        <v>357</v>
+      </c>
+      <c r="B282" t="s" s="0">
+        <v>557</v>
+      </c>
+      <c r="C282" t="s" s="0">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="s" s="0">
+        <v>357</v>
+      </c>
+      <c r="B283" t="s" s="0">
+        <v>559</v>
+      </c>
+      <c r="C283" t="s" s="0">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="s" s="0">
+        <v>357</v>
+      </c>
+      <c r="B284" t="s" s="0">
+        <v>561</v>
+      </c>
+      <c r="C284" t="s" s="0">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="s" s="0">
+        <v>357</v>
+      </c>
+      <c r="B285" t="s" s="0">
+        <v>563</v>
+      </c>
+      <c r="C285" t="s" s="0">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="s" s="0">
+        <v>357</v>
+      </c>
+      <c r="B286" t="s" s="0">
+        <v>565</v>
+      </c>
+      <c r="C286" t="s" s="0">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="s" s="0">
+        <v>357</v>
+      </c>
+      <c r="B287" t="s" s="0">
+        <v>567</v>
+      </c>
+      <c r="C287" t="s" s="0">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="s" s="0">
+        <v>357</v>
+      </c>
+      <c r="B288" t="s" s="0">
+        <v>569</v>
+      </c>
+      <c r="C288" t="s" s="0">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="s" s="0">
+        <v>357</v>
+      </c>
+      <c r="B289" t="s" s="0">
+        <v>571</v>
+      </c>
+      <c r="C289" t="s" s="0">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="s" s="0">
+        <v>357</v>
+      </c>
+      <c r="B290" t="s" s="0">
+        <v>573</v>
+      </c>
+      <c r="C290" t="s" s="0">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="s" s="0">
+        <v>357</v>
+      </c>
+      <c r="B291" t="s" s="0">
+        <v>575</v>
+      </c>
+      <c r="C291" t="s" s="0">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="s" s="0">
+        <v>357</v>
+      </c>
+      <c r="B292" t="s" s="0">
+        <v>577</v>
+      </c>
+      <c r="C292" t="s" s="0">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="s" s="0">
+        <v>357</v>
+      </c>
+      <c r="B293" t="s" s="0">
+        <v>579</v>
+      </c>
+      <c r="C293" t="s" s="0">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="s" s="0">
+        <v>357</v>
+      </c>
+      <c r="B294" t="s" s="0">
+        <v>581</v>
+      </c>
+      <c r="C294" t="s" s="0">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="s" s="0">
+        <v>357</v>
+      </c>
+      <c r="B295" t="s" s="0">
+        <v>583</v>
+      </c>
+      <c r="C295" t="s" s="0">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="s" s="0">
+        <v>357</v>
+      </c>
+      <c r="B296" t="s" s="0">
+        <v>585</v>
+      </c>
+      <c r="C296" t="s" s="0">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="s" s="0">
+        <v>357</v>
+      </c>
+      <c r="B297" t="s" s="0">
+        <v>587</v>
+      </c>
+      <c r="C297" t="s" s="0">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="s" s="0">
+        <v>357</v>
+      </c>
+      <c r="B298" t="s" s="0">
+        <v>589</v>
+      </c>
+      <c r="C298" t="s" s="0">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="s" s="0">
+        <v>357</v>
+      </c>
+      <c r="B299" t="s" s="0">
+        <v>591</v>
+      </c>
+      <c r="C299" t="s" s="0">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="s" s="0">
+        <v>357</v>
+      </c>
+      <c r="B300" t="s" s="0">
+        <v>593</v>
+      </c>
+      <c r="C300" t="s" s="0">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="s" s="0">
+        <v>357</v>
+      </c>
+      <c r="B301" t="s" s="0">
+        <v>523</v>
+      </c>
+      <c r="C301" t="s" s="0">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="s" s="0">
+        <v>357</v>
+      </c>
+      <c r="B302" t="s" s="0">
+        <v>596</v>
+      </c>
+      <c r="C302" t="s" s="0">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="s" s="0">
+        <v>357</v>
+      </c>
+      <c r="B303" t="s" s="0">
+        <v>598</v>
+      </c>
+      <c r="C303" t="s" s="0">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="s" s="0">
+        <v>357</v>
+      </c>
+      <c r="B304" t="s" s="0">
+        <v>600</v>
+      </c>
+      <c r="C304" t="s" s="0">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="s" s="0">
+        <v>357</v>
+      </c>
+      <c r="B305" t="s" s="0">
+        <v>602</v>
+      </c>
+      <c r="C305" t="s" s="0">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="s" s="0">
+        <v>357</v>
+      </c>
+      <c r="B306" t="s" s="0">
+        <v>604</v>
+      </c>
+      <c r="C306" t="s" s="0">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="s" s="0">
+        <v>357</v>
+      </c>
+      <c r="B307" t="s" s="0">
+        <v>606</v>
+      </c>
+      <c r="C307" t="s" s="0">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="s" s="0">
+        <v>357</v>
+      </c>
+      <c r="B308" t="s" s="0">
+        <v>608</v>
+      </c>
+      <c r="C308" t="s" s="0">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="s" s="0">
+        <v>357</v>
+      </c>
+      <c r="B309" t="s" s="0">
+        <v>610</v>
+      </c>
+      <c r="C309" t="s" s="0">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="s" s="0">
+        <v>357</v>
+      </c>
+      <c r="B310" t="s" s="0">
+        <v>612</v>
+      </c>
+      <c r="C310" t="s" s="0">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="s" s="0">
+        <v>357</v>
+      </c>
+      <c r="B311" t="s" s="0">
+        <v>614</v>
+      </c>
+      <c r="C311" t="s" s="0">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="s" s="0">
+        <v>357</v>
+      </c>
+      <c r="B312" t="s" s="0">
+        <v>616</v>
+      </c>
+      <c r="C312" t="s" s="0">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="s" s="0">
+        <v>357</v>
+      </c>
+      <c r="B313" t="s" s="0">
+        <v>618</v>
+      </c>
+      <c r="C313" t="s" s="0">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="s" s="0">
+        <v>357</v>
+      </c>
+      <c r="B314" t="s" s="0">
+        <v>620</v>
+      </c>
+      <c r="C314" t="s" s="0">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="s" s="0">
+        <v>357</v>
+      </c>
+      <c r="B315" t="s" s="0">
+        <v>622</v>
+      </c>
+      <c r="C315" t="s" s="0">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="s" s="0">
+        <v>357</v>
+      </c>
+      <c r="B316" t="s" s="0">
+        <v>624</v>
+      </c>
+      <c r="C316" t="s" s="0">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="s" s="0">
+        <v>357</v>
+      </c>
+      <c r="B317" t="s" s="0">
+        <v>626</v>
+      </c>
+      <c r="C317" t="s" s="0">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="s" s="0">
+        <v>357</v>
+      </c>
+      <c r="B318" t="s" s="0">
+        <v>628</v>
+      </c>
+      <c r="C318" t="s" s="0">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="s" s="0">
+        <v>357</v>
+      </c>
+      <c r="B319" t="s" s="0">
+        <v>630</v>
+      </c>
+      <c r="C319" t="s" s="0">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="s" s="0">
+        <v>357</v>
+      </c>
+      <c r="B320" t="s" s="0">
+        <v>632</v>
+      </c>
+      <c r="C320" t="s" s="0">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="s" s="0">
+        <v>357</v>
+      </c>
+      <c r="B321" t="s" s="0">
+        <v>634</v>
+      </c>
+      <c r="C321" t="s" s="0">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="s" s="0">
+        <v>357</v>
+      </c>
+      <c r="B322" t="s" s="0">
+        <v>636</v>
+      </c>
+      <c r="C322" t="s" s="0">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="s" s="0">
+        <v>357</v>
+      </c>
+      <c r="B323" t="s" s="0">
+        <v>638</v>
+      </c>
+      <c r="C323" t="s" s="0">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="s" s="0">
+        <v>357</v>
+      </c>
+      <c r="B324" t="s" s="0">
+        <v>640</v>
+      </c>
+      <c r="C324" t="s" s="0">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="s" s="0">
+        <v>357</v>
+      </c>
+      <c r="B325" t="s" s="0">
+        <v>642</v>
+      </c>
+      <c r="C325" t="s" s="0">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="s" s="0">
+        <v>357</v>
+      </c>
+      <c r="B326" t="s" s="0">
+        <v>644</v>
+      </c>
+      <c r="C326" t="s" s="0">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="s" s="0">
+        <v>357</v>
+      </c>
+      <c r="B327" t="s" s="0">
+        <v>646</v>
+      </c>
+      <c r="C327" t="s" s="0">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="s" s="0">
+        <v>357</v>
+      </c>
+      <c r="B328" t="s" s="0">
+        <v>648</v>
+      </c>
+      <c r="C328" t="s" s="0">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="s" s="0">
+        <v>357</v>
+      </c>
+      <c r="B329" t="s" s="0">
+        <v>650</v>
+      </c>
+      <c r="C329" t="s" s="0">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="s" s="0">
+        <v>357</v>
+      </c>
+      <c r="B330" t="s" s="0">
+        <v>652</v>
+      </c>
+      <c r="C330" t="s" s="0">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="s" s="0">
+        <v>357</v>
+      </c>
+      <c r="B331" t="s" s="0">
+        <v>654</v>
+      </c>
+      <c r="C331" t="s" s="0">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="s" s="0">
+        <v>357</v>
+      </c>
+      <c r="B332" t="s" s="0">
+        <v>656</v>
+      </c>
+      <c r="C332" t="s" s="0">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="s" s="0">
+        <v>357</v>
+      </c>
+      <c r="B333" t="s" s="0">
+        <v>658</v>
+      </c>
+      <c r="C333" t="s" s="0">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="s" s="0">
+        <v>357</v>
+      </c>
+      <c r="B334" t="s" s="0">
+        <v>660</v>
+      </c>
+      <c r="C334" t="s" s="0">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="s" s="0">
+        <v>662</v>
+      </c>
+      <c r="B335" t="s" s="0">
+        <v>663</v>
+      </c>
+      <c r="C335" t="s" s="0">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="s" s="0">
+        <v>662</v>
+      </c>
+      <c r="B336" t="s" s="0">
+        <v>665</v>
+      </c>
+      <c r="C336" t="s" s="0">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="s" s="0">
+        <v>662</v>
+      </c>
+      <c r="B337" t="s" s="0">
+        <v>667</v>
+      </c>
+      <c r="C337" t="s" s="0">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="s" s="0">
+        <v>662</v>
+      </c>
+      <c r="B338" t="s" s="0">
+        <v>669</v>
+      </c>
+      <c r="C338" t="s" s="0">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="s" s="0">
+        <v>662</v>
+      </c>
+      <c r="B339" t="s" s="0">
+        <v>671</v>
+      </c>
+      <c r="C339" t="s" s="0">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="s" s="0">
+        <v>662</v>
+      </c>
+      <c r="B340" t="s" s="0">
+        <v>673</v>
+      </c>
+      <c r="C340" t="s" s="0">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="s" s="0">
+        <v>662</v>
+      </c>
+      <c r="B341" t="s" s="0">
+        <v>675</v>
+      </c>
+      <c r="C341" t="s" s="0">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="s" s="0">
+        <v>662</v>
+      </c>
+      <c r="B342" t="s" s="0">
+        <v>677</v>
+      </c>
+      <c r="C342" t="s" s="0">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="s" s="0">
+        <v>662</v>
+      </c>
+      <c r="B343" t="s" s="0">
+        <v>679</v>
+      </c>
+      <c r="C343" t="s" s="0">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="s" s="0">
+        <v>662</v>
+      </c>
+      <c r="B344" t="s" s="0">
+        <v>681</v>
+      </c>
+      <c r="C344" t="s" s="0">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="s" s="0">
+        <v>662</v>
+      </c>
+      <c r="B345" t="s" s="0">
+        <v>683</v>
+      </c>
+      <c r="C345" t="s" s="0">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="s" s="0">
+        <v>662</v>
+      </c>
+      <c r="B346" t="s" s="0">
+        <v>685</v>
+      </c>
+      <c r="C346" t="s" s="0">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="s" s="0">
+        <v>662</v>
+      </c>
+      <c r="B347" t="s" s="0">
+        <v>687</v>
+      </c>
+      <c r="C347" t="s" s="0">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="s" s="0">
+        <v>662</v>
+      </c>
+      <c r="B348" t="s" s="0">
+        <v>689</v>
+      </c>
+      <c r="C348" t="s" s="0">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="s" s="0">
+        <v>662</v>
+      </c>
+      <c r="B349" t="s" s="0">
+        <v>691</v>
+      </c>
+      <c r="C349" t="s" s="0">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="s" s="0">
+        <v>662</v>
+      </c>
+      <c r="B350" t="s" s="0">
+        <v>693</v>
+      </c>
+      <c r="C350" t="s" s="0">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="s" s="0">
+        <v>662</v>
+      </c>
+      <c r="B351" t="s" s="0">
+        <v>695</v>
+      </c>
+      <c r="C351" t="s" s="0">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="s" s="0">
+        <v>662</v>
+      </c>
+      <c r="B352" t="s" s="0">
+        <v>697</v>
+      </c>
+      <c r="C352" t="s" s="0">
+        <v>698</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
